--- a/docs/Project Docs/STE_CP_CronogramaDoProjeto.xlsx
+++ b/docs/Project Docs/STE_CP_CronogramaDoProjeto.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" codeName="EstaPasta_de_trabalho" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma + Diagrama de Gantt" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="119">
   <si>
     <t>Real</t>
   </si>
@@ -353,9 +353,6 @@
     <t>TASK-07</t>
   </si>
   <si>
-    <t>Iniciada</t>
-  </si>
-  <si>
     <t>Preparar base de dados para persistência de usuários. Ao final dessa tarefa desse ser possível acessar um banco de dados (remoto) e buscar dados de usuários com base no email (login). Os cripts usados para criar o banco devem ser inseridos por meio de documento no diretório de documentos do código. As senhas de acesso ao servidor mysql devem estar documentadas no documento de senhas. Dica: usar conta gratuita da amazon para criar instância grátis, instalar mysql, e criar banco. Decisões relativas a aspectos internos dessa tarefa podem ser decididos pelo implementador.</t>
   </si>
   <si>
@@ -422,9 +419,6 @@
       </rPr>
       <t>Sprint 2</t>
     </r>
-  </si>
-  <si>
-    <t>Em espera</t>
   </si>
   <si>
     <t>Criar endpoints/views na aplicação para um usuário recuperar a senha, um e-mail deve ser enviado para o usuário que terá que redefinir sua senha. Endpoints devem ser documentados no documento de endpoints. Decisões relativas a aspectos internos dessa tarefa podem ser decididos pelo implementador.</t>
@@ -665,7 +659,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -740,6 +734,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3300"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,7 +880,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1103,6 +1109,9 @@
     <xf numFmtId="14" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1121,8 +1130,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1136,7 +1148,217 @@
     <cellStyle name="Project Headers" xfId="4"/>
     <cellStyle name="Título 1" xfId="1" builtinId="16" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="48">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -1451,6 +1673,7 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFFF3300"/>
       <color rgb="FFFFFFFF"/>
       <color rgb="FF004080"/>
       <color rgb="FF00407E"/>
@@ -2047,8 +2270,8 @@
   </sheetPr>
   <dimension ref="B1:HE701"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -2115,14 +2338,14 @@
       <c r="AG1" s="13"/>
     </row>
     <row r="2" spans="2:213" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
       <c r="H2" s="50" t="s">
         <v>3</v>
       </c>
@@ -2152,12 +2375,12 @@
       <c r="AG2" s="6"/>
     </row>
     <row r="3" spans="2:213" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
@@ -2177,12 +2400,12 @@
       <c r="AG3" s="6"/>
     </row>
     <row r="4" spans="2:213" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
       <c r="H4" s="50" t="s">
         <v>7</v>
       </c>
@@ -2220,12 +2443,12 @@
       <c r="AT4" s="5"/>
     </row>
     <row r="5" spans="2:213" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -3094,7 +3317,7 @@
       </c>
       <c r="E7" s="43">
         <f>(J7-H7)+1</f>
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="F7" s="36">
         <f>AVERAGE($F$9:$F$48)</f>
@@ -3114,7 +3337,7 @@
       </c>
       <c r="J7" s="37">
         <f>LARGE($J$8:$J$47,1)</f>
-        <v>42510</v>
+        <v>42554</v>
       </c>
       <c r="K7" s="37"/>
       <c r="L7" s="38"/>
@@ -3885,7 +4108,7 @@
         <v>42510</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L11" s="41" t="s">
         <v>34</v>
@@ -4122,7 +4345,7 @@
         <v>42510</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L12" s="41" t="s">
         <v>34</v>
@@ -4359,7 +4582,7 @@
         <v>42510</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L13" s="41" t="s">
         <v>34</v>
@@ -4596,7 +4819,7 @@
         <v>42510</v>
       </c>
       <c r="K14" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L14" s="41" t="s">
         <v>34</v>
@@ -4804,32 +5027,37 @@
       <c r="HE14" s="17"/>
     </row>
     <row r="15" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="34"/>
+      <c r="B15" s="34">
+        <v>2</v>
+      </c>
       <c r="C15" s="39" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="34">
         <v>2</v>
       </c>
-      <c r="E15" s="34"/>
+      <c r="E15" s="34">
+        <v>2</v>
+      </c>
       <c r="F15" s="40">
         <v>0</v>
       </c>
       <c r="G15" s="10">
-        <v>42503</v>
-      </c>
-      <c r="H15" s="10"/>
+        <v>42550</v>
+      </c>
+      <c r="H15" s="10">
+        <v>42550</v>
+      </c>
       <c r="I15" s="27">
         <f t="shared" ref="I15:I46" si="144">(G15+D15)-1</f>
-        <v>42504</v>
+        <v>42551</v>
       </c>
       <c r="J15" s="27">
         <f t="shared" si="143"/>
-        <v>-1</v>
-      </c>
-      <c r="K15" s="27" t="str">
-        <f t="shared" ca="1" si="141"/>
-        <v>Em atraso</v>
+        <v>42551</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>97</v>
       </c>
       <c r="L15" s="41" t="s">
         <v>34</v>
@@ -5037,32 +5265,37 @@
       <c r="HE15" s="17"/>
     </row>
     <row r="16" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="34"/>
+      <c r="B16" s="34">
+        <v>2</v>
+      </c>
       <c r="C16" s="39" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="34">
         <v>2</v>
       </c>
-      <c r="E16" s="34"/>
+      <c r="E16" s="34">
+        <v>2</v>
+      </c>
       <c r="F16" s="40">
         <v>0</v>
       </c>
       <c r="G16" s="10">
-        <v>42503</v>
-      </c>
-      <c r="H16" s="10"/>
+        <v>42551</v>
+      </c>
+      <c r="H16" s="10">
+        <v>42551</v>
+      </c>
       <c r="I16" s="27">
         <f t="shared" si="144"/>
-        <v>42504</v>
+        <v>42552</v>
       </c>
       <c r="J16" s="27">
         <f t="shared" si="143"/>
-        <v>-1</v>
-      </c>
-      <c r="K16" s="27" t="str">
-        <f t="shared" ca="1" si="141"/>
-        <v>Em atraso</v>
+        <v>42552</v>
+      </c>
+      <c r="K16" s="27" t="s">
+        <v>97</v>
       </c>
       <c r="L16" s="41" t="s">
         <v>34</v>
@@ -5270,32 +5503,37 @@
       <c r="HE16" s="17"/>
     </row>
     <row r="17" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="34"/>
+      <c r="B17" s="34">
+        <v>2</v>
+      </c>
       <c r="C17" s="39" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="34">
         <v>2</v>
       </c>
-      <c r="E17" s="34"/>
+      <c r="E17" s="34">
+        <v>2</v>
+      </c>
       <c r="F17" s="40">
         <v>0</v>
       </c>
       <c r="G17" s="10">
-        <v>42503</v>
-      </c>
-      <c r="H17" s="10"/>
+        <v>42551</v>
+      </c>
+      <c r="H17" s="10">
+        <v>42551</v>
+      </c>
       <c r="I17" s="27">
         <f t="shared" si="144"/>
-        <v>42504</v>
+        <v>42552</v>
       </c>
       <c r="J17" s="27">
         <f t="shared" si="143"/>
-        <v>-1</v>
-      </c>
-      <c r="K17" s="27" t="str">
-        <f t="shared" ca="1" si="141"/>
-        <v>Em atraso</v>
+        <v>42552</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>97</v>
       </c>
       <c r="L17" s="41" t="s">
         <v>34</v>
@@ -5503,32 +5741,37 @@
       <c r="HE17" s="17"/>
     </row>
     <row r="18" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="34"/>
+      <c r="B18" s="34">
+        <v>2</v>
+      </c>
       <c r="C18" s="39" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="34">
-        <v>2</v>
-      </c>
-      <c r="E18" s="34"/>
+        <v>4</v>
+      </c>
+      <c r="E18" s="34">
+        <v>4</v>
+      </c>
       <c r="F18" s="40">
         <v>0</v>
       </c>
       <c r="G18" s="10">
-        <v>42503</v>
-      </c>
-      <c r="H18" s="10"/>
+        <v>42551</v>
+      </c>
+      <c r="H18" s="10">
+        <v>42551</v>
+      </c>
       <c r="I18" s="27">
         <f t="shared" si="144"/>
-        <v>42504</v>
+        <v>42554</v>
       </c>
       <c r="J18" s="27">
         <f t="shared" ref="J18:J46" si="145">(H18+E18)-1</f>
-        <v>-1</v>
-      </c>
-      <c r="K18" s="27" t="str">
-        <f t="shared" ref="K18:K46" ca="1" si="146">IF(F18=1,"Concluído",IF(AND(J18&lt;TODAY(),F18&lt;1),"Em atraso","Em andamento"))</f>
-        <v>Em atraso</v>
+        <v>42554</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>97</v>
       </c>
       <c r="L18" s="41" t="s">
         <v>34</v>
@@ -5736,32 +5979,37 @@
       <c r="HE18" s="17"/>
     </row>
     <row r="19" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="34"/>
+      <c r="B19" s="34">
+        <v>2</v>
+      </c>
       <c r="C19" s="39" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="34">
         <v>2</v>
       </c>
-      <c r="E19" s="34"/>
+      <c r="E19" s="34">
+        <v>2</v>
+      </c>
       <c r="F19" s="40">
         <v>0</v>
       </c>
       <c r="G19" s="10">
-        <v>42503</v>
-      </c>
-      <c r="H19" s="10"/>
+        <v>42551</v>
+      </c>
+      <c r="H19" s="10">
+        <v>42551</v>
+      </c>
       <c r="I19" s="27">
         <f t="shared" si="144"/>
-        <v>42504</v>
+        <v>42552</v>
       </c>
       <c r="J19" s="27">
         <f t="shared" si="145"/>
-        <v>-1</v>
-      </c>
-      <c r="K19" s="27" t="str">
-        <f t="shared" ca="1" si="146"/>
-        <v>Em atraso</v>
+        <v>42552</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>97</v>
       </c>
       <c r="L19" s="41" t="s">
         <v>34</v>
@@ -5969,32 +6217,37 @@
       <c r="HE19" s="17"/>
     </row>
     <row r="20" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="34"/>
+      <c r="B20" s="34">
+        <v>2</v>
+      </c>
       <c r="C20" s="39" t="s">
         <v>40</v>
       </c>
       <c r="D20" s="34">
         <v>2</v>
       </c>
-      <c r="E20" s="34"/>
+      <c r="E20" s="34">
+        <v>2</v>
+      </c>
       <c r="F20" s="40">
         <v>0</v>
       </c>
       <c r="G20" s="10">
-        <v>42503</v>
-      </c>
-      <c r="H20" s="10"/>
+        <v>42551</v>
+      </c>
+      <c r="H20" s="10">
+        <v>42551</v>
+      </c>
       <c r="I20" s="27">
         <f t="shared" si="144"/>
-        <v>42504</v>
+        <v>42552</v>
       </c>
       <c r="J20" s="27">
         <f t="shared" si="145"/>
-        <v>-1</v>
-      </c>
-      <c r="K20" s="27" t="str">
-        <f t="shared" ca="1" si="146"/>
-        <v>Em atraso</v>
+        <v>42552</v>
+      </c>
+      <c r="K20" s="27" t="s">
+        <v>97</v>
       </c>
       <c r="L20" s="41" t="s">
         <v>34</v>
@@ -6226,7 +6479,7 @@
         <v>-1</v>
       </c>
       <c r="K21" s="27" t="str">
-        <f t="shared" ca="1" si="146"/>
+        <f t="shared" ref="K18:K46" ca="1" si="146">IF(F21=1,"Concluído",IF(AND(J21&lt;TODAY(),F21&lt;1),"Em atraso","Em andamento"))</f>
         <v>Em atraso</v>
       </c>
       <c r="L21" s="41" t="s">
@@ -6435,32 +6688,37 @@
       <c r="HE21" s="17"/>
     </row>
     <row r="22" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="34"/>
+      <c r="B22" s="34">
+        <v>2</v>
+      </c>
       <c r="C22" s="39" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="34">
         <v>2</v>
       </c>
-      <c r="E22" s="34"/>
+      <c r="E22" s="34">
+        <v>2</v>
+      </c>
       <c r="F22" s="40">
         <v>0</v>
       </c>
       <c r="G22" s="10">
-        <v>42503</v>
-      </c>
-      <c r="H22" s="10"/>
+        <v>42551</v>
+      </c>
+      <c r="H22" s="10">
+        <v>42551</v>
+      </c>
       <c r="I22" s="27">
         <f t="shared" si="144"/>
-        <v>42504</v>
+        <v>42552</v>
       </c>
       <c r="J22" s="27">
         <f t="shared" si="145"/>
-        <v>-1</v>
-      </c>
-      <c r="K22" s="27" t="str">
-        <f t="shared" ca="1" si="146"/>
-        <v>Em atraso</v>
+        <v>42552</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>97</v>
       </c>
       <c r="L22" s="41" t="s">
         <v>34</v>
@@ -6668,32 +6926,37 @@
       <c r="HE22" s="17"/>
     </row>
     <row r="23" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="34"/>
+      <c r="B23" s="34">
+        <v>2</v>
+      </c>
       <c r="C23" s="39" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="34">
         <v>2</v>
       </c>
-      <c r="E23" s="34"/>
+      <c r="E23" s="34">
+        <v>2</v>
+      </c>
       <c r="F23" s="40">
         <v>0</v>
       </c>
       <c r="G23" s="10">
-        <v>42503</v>
-      </c>
-      <c r="H23" s="10"/>
+        <v>42551</v>
+      </c>
+      <c r="H23" s="10">
+        <v>42551</v>
+      </c>
       <c r="I23" s="27">
         <f t="shared" si="144"/>
-        <v>42504</v>
+        <v>42552</v>
       </c>
       <c r="J23" s="27">
         <f t="shared" si="145"/>
-        <v>-1</v>
-      </c>
-      <c r="K23" s="27" t="str">
-        <f t="shared" ca="1" si="146"/>
-        <v>Em atraso</v>
+        <v>42552</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>97</v>
       </c>
       <c r="L23" s="41" t="s">
         <v>34</v>
@@ -6901,32 +7164,37 @@
       <c r="HE23" s="17"/>
     </row>
     <row r="24" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="34"/>
+      <c r="B24" s="34">
+        <v>2</v>
+      </c>
       <c r="C24" s="39" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="34">
         <v>2</v>
       </c>
-      <c r="E24" s="34"/>
+      <c r="E24" s="34">
+        <v>2</v>
+      </c>
       <c r="F24" s="40">
         <v>0</v>
       </c>
       <c r="G24" s="10">
-        <v>42503</v>
-      </c>
-      <c r="H24" s="10"/>
+        <v>42551</v>
+      </c>
+      <c r="H24" s="10">
+        <v>42551</v>
+      </c>
       <c r="I24" s="27">
         <f t="shared" si="144"/>
-        <v>42504</v>
+        <v>42552</v>
       </c>
       <c r="J24" s="27">
         <f t="shared" si="145"/>
-        <v>-1</v>
-      </c>
-      <c r="K24" s="27" t="str">
-        <f t="shared" ca="1" si="146"/>
-        <v>Em atraso</v>
+        <v>42552</v>
+      </c>
+      <c r="K24" s="27" t="s">
+        <v>97</v>
       </c>
       <c r="L24" s="41" t="s">
         <v>34</v>
@@ -12772,11 +13040,11 @@
       <c r="AG55" s="13"/>
     </row>
     <row r="56" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="72" t="s">
+      <c r="B56" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="72"/>
-      <c r="D56" s="72"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="73"/>
       <c r="E56" s="13"/>
       <c r="F56" s="29"/>
       <c r="G56" s="13"/>
@@ -12808,12 +13076,12 @@
       <c r="AG56" s="13"/>
     </row>
     <row r="57" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="73">
+      <c r="B57" s="74">
         <f>'Cronograma + Diagrama de Gantt'!$F$7</f>
         <v>5.128205128205128E-2</v>
       </c>
-      <c r="C57" s="73"/>
-      <c r="D57" s="73"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="74"/>
       <c r="E57" s="13"/>
       <c r="F57" s="29"/>
       <c r="G57" s="13"/>
@@ -12845,9 +13113,9 @@
       <c r="AG57" s="13"/>
     </row>
     <row r="58" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="73"/>
-      <c r="C58" s="73"/>
-      <c r="D58" s="73"/>
+      <c r="B58" s="74"/>
+      <c r="C58" s="74"/>
+      <c r="D58" s="74"/>
       <c r="E58" s="13"/>
       <c r="F58" s="29"/>
       <c r="G58" s="13"/>
@@ -12879,9 +13147,9 @@
       <c r="AG58" s="13"/>
     </row>
     <row r="59" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="73"/>
-      <c r="C59" s="73"/>
-      <c r="D59" s="73"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="74"/>
       <c r="E59" s="13"/>
       <c r="F59" s="29"/>
       <c r="G59" s="13"/>
@@ -12913,9 +13181,9 @@
       <c r="AG59" s="13"/>
     </row>
     <row r="60" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="73"/>
-      <c r="C60" s="73"/>
-      <c r="D60" s="73"/>
+      <c r="B60" s="74"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="74"/>
       <c r="E60" s="13"/>
       <c r="F60" s="29"/>
       <c r="G60" s="13"/>
@@ -34108,104 +34376,181 @@
     <mergeCell ref="B57:D60"/>
   </mergeCells>
   <conditionalFormatting sqref="C48:BU48">
-    <cfRule type="expression" dxfId="26" priority="388">
+    <cfRule type="expression" dxfId="47" priority="409">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7:HE47">
-    <cfRule type="expression" dxfId="25" priority="471">
+    <cfRule type="expression" dxfId="46" priority="492">
       <formula>PorcentagemConcluída</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="472">
+    <cfRule type="expression" dxfId="45" priority="493">
       <formula>PorcentagemConcluídaPosterior</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="473">
+    <cfRule type="expression" dxfId="44" priority="494">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="474">
+    <cfRule type="expression" dxfId="43" priority="495">
       <formula>RealPosterior</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="475">
+    <cfRule type="expression" dxfId="42" priority="496">
       <formula>Plano</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="476">
+    <cfRule type="expression" dxfId="41" priority="497">
       <formula>N$6=$J$4+periodo_selecionado-1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="477">
+    <cfRule type="expression" dxfId="40" priority="498">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="478">
+    <cfRule type="expression" dxfId="39" priority="499">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:HE6">
-    <cfRule type="expression" dxfId="17" priority="479">
+    <cfRule type="expression" dxfId="38" priority="500">
       <formula>N$6=$J$4+periodo_selecionado-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV48:HE48">
-    <cfRule type="expression" dxfId="16" priority="386">
+    <cfRule type="expression" dxfId="37" priority="407">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K10 K14 K18 K22 K26 K30 K34 K38 K42 K46:K47">
-    <cfRule type="containsText" dxfId="15" priority="379" operator="containsText" text="Em andamento">
+  <conditionalFormatting sqref="K8:K10 K14 K26 K30 K34 K38 K42 K46:K47 K18 K22">
+    <cfRule type="containsText" dxfId="36" priority="400" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="380" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="35" priority="401" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="381" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="34" priority="402" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="12" priority="378">
+    <cfRule type="expression" dxfId="33" priority="399">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15 K19 K23 K27 K31 K35 K39 K43">
-    <cfRule type="containsText" dxfId="11" priority="367" operator="containsText" text="Em andamento">
-      <formula>NOT(ISERROR(SEARCH("Em andamento",K15)))</formula>
+  <conditionalFormatting sqref="K27 K31 K35 K39 K43">
+    <cfRule type="containsText" dxfId="32" priority="388" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="368" operator="containsText" text="Em atraso">
-      <formula>NOT(ISERROR(SEARCH("Em atraso",K15)))</formula>
+    <cfRule type="containsText" dxfId="31" priority="389" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="369" operator="containsText" text="Concluído">
-      <formula>NOT(ISERROR(SEARCH("Concluído",K15)))</formula>
+    <cfRule type="containsText" dxfId="30" priority="390" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12 K16 K20 K24 K28 K32 K36 K40 K44">
-    <cfRule type="containsText" dxfId="8" priority="356" operator="containsText" text="Em andamento">
+  <conditionalFormatting sqref="K12 K28 K32 K36 K40 K44">
+    <cfRule type="containsText" dxfId="29" priority="377" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="357" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="28" priority="378" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="358" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="27" priority="379" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13 K17 K21 K25 K29 K33 K37 K41 K45">
-    <cfRule type="containsText" dxfId="5" priority="345" operator="containsText" text="Em andamento">
+  <conditionalFormatting sqref="K13 K21 K25 K29 K33 K37 K41 K45">
+    <cfRule type="containsText" dxfId="26" priority="366" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="346" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="25" priority="367" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="347" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="24" priority="368" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K11)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K24)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Concluído">
-      <formula>NOT(ISERROR(SEARCH("Concluído",K11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Concluído",K24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -34252,8 +34597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34278,55 +34623,55 @@
         <v>29</v>
       </c>
       <c r="D1" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E1" s="57"/>
       <c r="F1" s="57"/>
       <c r="G1" s="58"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A4" s="75"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="63" t="s">
@@ -34345,7 +34690,7 @@
         <v>72</v>
       </c>
       <c r="F6" s="64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G6" s="64" t="s">
         <v>73</v>
@@ -34356,10 +34701,10 @@
         <v>75</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="69">
         <v>42503</v>
@@ -34371,7 +34716,7 @@
         <v>42506</v>
       </c>
       <c r="G7" s="68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -34379,10 +34724,10 @@
         <v>76</v>
       </c>
       <c r="B8" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="68" t="s">
         <v>84</v>
-      </c>
-      <c r="C8" s="68" t="s">
-        <v>85</v>
       </c>
       <c r="D8" s="69">
         <v>42503</v>
@@ -34394,7 +34739,7 @@
         <v>42505</v>
       </c>
       <c r="G8" s="68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -34402,10 +34747,10 @@
         <v>77</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="69">
         <v>42505</v>
@@ -34417,7 +34762,7 @@
         <v>42510</v>
       </c>
       <c r="G9" s="68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -34425,10 +34770,10 @@
         <v>78</v>
       </c>
       <c r="B10" s="67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" s="68" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="69">
         <v>42505</v>
@@ -34440,7 +34785,7 @@
         <v>42510</v>
       </c>
       <c r="G10" s="68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -34448,10 +34793,10 @@
         <v>79</v>
       </c>
       <c r="B11" s="67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" s="69">
         <v>42507</v>
@@ -34463,7 +34808,7 @@
         <v>42510</v>
       </c>
       <c r="G11" s="68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -34471,7 +34816,7 @@
         <v>80</v>
       </c>
       <c r="B12" s="67" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="68" t="s">
         <v>26</v>
@@ -34486,7 +34831,7 @@
         <v>42510</v>
       </c>
       <c r="G12" s="68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -34494,7 +34839,7 @@
         <v>80</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" s="68" t="s">
         <v>25</v>
@@ -34509,7 +34854,7 @@
         <v>42510</v>
       </c>
       <c r="G13" s="68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -34517,7 +34862,7 @@
         <v>81</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C14" s="68" t="s">
         <v>25</v>
@@ -34532,7 +34877,7 @@
         <v>42510</v>
       </c>
       <c r="G14" s="68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -34563,8 +34908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34583,61 +34928,61 @@
         <v>28</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C1" s="56" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E1" s="57"/>
       <c r="F1" s="57"/>
       <c r="G1" s="58"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
+      <c r="A2" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A4" s="75"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="63"/>
@@ -34653,10 +34998,10 @@
         <v>75</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C7" s="62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="61">
         <v>42513</v>
@@ -34664,11 +35009,11 @@
       <c r="E7" s="61">
         <v>42518</v>
       </c>
-      <c r="F7" s="61">
+      <c r="F7" s="77">
         <v>42518</v>
       </c>
       <c r="G7" s="62" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -34676,10 +35021,10 @@
         <v>76</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="76" t="s">
-        <v>111</v>
+        <v>115</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>109</v>
       </c>
       <c r="D8" s="61">
         <v>42517</v>
@@ -34687,11 +35032,11 @@
       <c r="E8" s="61">
         <v>42517</v>
       </c>
-      <c r="F8" s="61">
+      <c r="F8" s="77">
         <v>42517</v>
       </c>
       <c r="G8" s="62" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -34699,10 +35044,10 @@
         <v>77</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="61">
         <v>42519</v>
@@ -34710,9 +35055,11 @@
       <c r="E9" s="61">
         <v>42519</v>
       </c>
-      <c r="F9" s="61"/>
+      <c r="F9" s="77">
+        <v>42519</v>
+      </c>
       <c r="G9" s="62" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -34720,10 +35067,10 @@
         <v>78</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C10" s="62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="61">
         <v>42520</v>
@@ -34731,9 +35078,11 @@
       <c r="E10" s="61">
         <v>42522</v>
       </c>
-      <c r="F10" s="61"/>
+      <c r="F10" s="77">
+        <v>42522</v>
+      </c>
       <c r="G10" s="62" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -34741,10 +35090,10 @@
         <v>79</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="61">
         <v>42520</v>
@@ -34752,9 +35101,11 @@
       <c r="E11" s="61">
         <v>42523</v>
       </c>
-      <c r="F11" s="61"/>
+      <c r="F11" s="77">
+        <v>42523</v>
+      </c>
       <c r="G11" s="62" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -34762,10 +35113,10 @@
         <v>80</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="61">
         <v>42520</v>
@@ -34773,9 +35124,11 @@
       <c r="E12" s="61">
         <v>42521</v>
       </c>
-      <c r="F12" s="61"/>
+      <c r="F12" s="77">
+        <v>42521</v>
+      </c>
       <c r="G12" s="62" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -34783,10 +35136,10 @@
         <v>81</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="61">
         <v>42522</v>
@@ -34794,20 +35147,22 @@
       <c r="E13" s="61">
         <v>42523</v>
       </c>
-      <c r="F13" s="61"/>
+      <c r="F13" s="77">
+        <v>42523</v>
+      </c>
       <c r="G13" s="62" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="65" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" s="61">
         <v>42523</v>
@@ -34815,17 +35170,19 @@
       <c r="E14" s="61">
         <v>42524</v>
       </c>
-      <c r="F14" s="61"/>
+      <c r="F14" s="77">
+        <v>42524</v>
+      </c>
       <c r="G14" s="62" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="65" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C15" s="62" t="s">
         <v>26</v>
@@ -34836,20 +35193,22 @@
       <c r="E15" s="61">
         <v>42524</v>
       </c>
-      <c r="F15" s="61"/>
+      <c r="F15" s="77">
+        <v>42524</v>
+      </c>
       <c r="G15" s="62" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="65" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" s="61">
         <v>42524</v>
@@ -34857,20 +35216,22 @@
       <c r="E16" s="61">
         <v>42524</v>
       </c>
-      <c r="F16" s="61"/>
+      <c r="F16" s="78">
+        <v>42525</v>
+      </c>
       <c r="G16" s="62" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="65" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="76" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="C17" s="71" t="s">
+        <v>109</v>
       </c>
       <c r="D17" s="61">
         <v>42524</v>
@@ -34878,20 +35239,22 @@
       <c r="E17" s="61">
         <v>42524</v>
       </c>
-      <c r="F17" s="61"/>
+      <c r="F17" s="78">
+        <v>42526</v>
+      </c>
       <c r="G17" s="62" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="65" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="76" t="s">
-        <v>120</v>
+        <v>112</v>
+      </c>
+      <c r="C18" s="71" t="s">
+        <v>118</v>
       </c>
       <c r="D18" s="61">
         <v>42524</v>
@@ -34899,9 +35262,11 @@
       <c r="E18" s="61">
         <v>42524</v>
       </c>
-      <c r="F18" s="61"/>
+      <c r="F18" s="78">
+        <v>42527</v>
+      </c>
       <c r="G18" s="62" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">

--- a/docs/Project Docs/STE_CP_CronogramaDoProjeto.xlsx
+++ b/docs/Project Docs/STE_CP_CronogramaDoProjeto.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" codeName="EstaPasta_de_trabalho" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma + Diagrama de Gantt" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 1" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint 2" sheetId="4" r:id="rId3"/>
+    <sheet name="Planilha1" sheetId="5" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cronograma + Diagrama de Gantt'!$B$6:$L$6</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="120">
   <si>
     <t>Real</t>
   </si>
@@ -477,12 +478,15 @@
   <si>
     <t>Scrum Team</t>
   </si>
+  <si>
+    <t>As definições e monitoramento de tarefas, a partir dessa Sprint serão feitas pela ferramenta Trello</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -658,8 +662,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -749,8 +769,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -854,8 +879,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -879,8 +919,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1112,6 +1156,12 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1130,15 +1180,17 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="9" xfId="9" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="9" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Activity" xfId="2"/>
+    <cellStyle name="Célula de Verificação" xfId="9" builtinId="23"/>
+    <cellStyle name="Hiperlink" xfId="10" builtinId="8"/>
     <cellStyle name="Label" xfId="5"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Normal 2" xfId="8"/>
@@ -2270,8 +2322,8 @@
   </sheetPr>
   <dimension ref="B1:HE701"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -2338,14 +2390,14 @@
       <c r="AG1" s="13"/>
     </row>
     <row r="2" spans="2:213" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
       <c r="H2" s="50" t="s">
         <v>3</v>
       </c>
@@ -2375,12 +2427,12 @@
       <c r="AG2" s="6"/>
     </row>
     <row r="3" spans="2:213" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
@@ -2400,12 +2452,12 @@
       <c r="AG3" s="6"/>
     </row>
     <row r="4" spans="2:213" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
       <c r="H4" s="50" t="s">
         <v>7</v>
       </c>
@@ -2443,12 +2495,12 @@
       <c r="AT4" s="5"/>
     </row>
     <row r="5" spans="2:213" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -3321,7 +3373,7 @@
       </c>
       <c r="F7" s="36">
         <f>AVERAGE($F$9:$F$48)</f>
-        <v>5.128205128205128E-2</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="G7" s="37">
         <f>SMALL($G$8:$G$47,1)</f>
@@ -4092,7 +4144,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="10">
         <v>42503</v>
@@ -4329,7 +4381,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="10">
         <v>42503</v>
@@ -4566,7 +4618,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="10">
         <v>42503</v>
@@ -4803,7 +4855,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="10">
         <v>42503</v>
@@ -5040,7 +5092,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="10">
         <v>42550</v>
@@ -5049,7 +5101,7 @@
         <v>42550</v>
       </c>
       <c r="I15" s="27">
-        <f t="shared" ref="I15:I46" si="144">(G15+D15)-1</f>
+        <f t="shared" ref="I15:J46" si="144">(G15+D15)-1</f>
         <v>42551</v>
       </c>
       <c r="J15" s="27">
@@ -5278,7 +5330,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="10">
         <v>42551</v>
@@ -5516,7 +5568,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="10">
         <v>42551</v>
@@ -5754,7 +5806,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="10">
         <v>42551</v>
@@ -5992,7 +6044,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="10">
         <v>42551</v>
@@ -6230,7 +6282,7 @@
         <v>2</v>
       </c>
       <c r="F20" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="10">
         <v>42551</v>
@@ -6455,32 +6507,38 @@
       <c r="HE20" s="17"/>
     </row>
     <row r="21" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="34"/>
+      <c r="B21" s="34">
+        <v>3</v>
+      </c>
       <c r="C21" s="39" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="34">
         <v>2</v>
       </c>
-      <c r="E21" s="34"/>
+      <c r="E21" s="34">
+        <v>2</v>
+      </c>
       <c r="F21" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="10">
-        <v>42503</v>
-      </c>
-      <c r="H21" s="10"/>
+        <v>42538</v>
+      </c>
+      <c r="H21" s="10">
+        <v>42538</v>
+      </c>
       <c r="I21" s="27">
         <f t="shared" si="144"/>
-        <v>42504</v>
+        <v>42539</v>
       </c>
       <c r="J21" s="27">
-        <f t="shared" si="145"/>
-        <v>-1</v>
+        <f t="shared" si="144"/>
+        <v>42539</v>
       </c>
       <c r="K21" s="27" t="str">
-        <f t="shared" ref="K18:K46" ca="1" si="146">IF(F21=1,"Concluído",IF(AND(J21&lt;TODAY(),F21&lt;1),"Em atraso","Em andamento"))</f>
-        <v>Em atraso</v>
+        <f t="shared" ref="K21:K46" ca="1" si="146">IF(F21=1,"Concluído",IF(AND(J21&lt;TODAY(),F21&lt;1),"Em atraso","Em andamento"))</f>
+        <v>Concluído</v>
       </c>
       <c r="L21" s="41" t="s">
         <v>34</v>
@@ -6701,7 +6759,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="10">
         <v>42551</v>
@@ -6939,7 +6997,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="10">
         <v>42551</v>
@@ -7177,7 +7235,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="10">
         <v>42551</v>
@@ -7402,32 +7460,38 @@
       <c r="HE24" s="17"/>
     </row>
     <row r="25" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="34"/>
+      <c r="B25" s="34">
+        <v>3</v>
+      </c>
       <c r="C25" s="39" t="s">
         <v>45</v>
       </c>
       <c r="D25" s="34">
         <v>2</v>
       </c>
-      <c r="E25" s="34"/>
+      <c r="E25" s="34">
+        <v>2</v>
+      </c>
       <c r="F25" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="10">
-        <v>42503</v>
-      </c>
-      <c r="H25" s="10"/>
+        <v>42538</v>
+      </c>
+      <c r="H25" s="10">
+        <v>42538</v>
+      </c>
       <c r="I25" s="27">
         <f t="shared" si="144"/>
-        <v>42504</v>
+        <v>42539</v>
       </c>
       <c r="J25" s="27">
         <f t="shared" si="145"/>
-        <v>-1</v>
+        <v>42539</v>
       </c>
       <c r="K25" s="27" t="str">
         <f t="shared" ca="1" si="146"/>
-        <v>Em atraso</v>
+        <v>Concluído</v>
       </c>
       <c r="L25" s="41" t="s">
         <v>34</v>
@@ -7635,32 +7699,38 @@
       <c r="HE25" s="17"/>
     </row>
     <row r="26" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="34"/>
+      <c r="B26" s="34">
+        <v>3</v>
+      </c>
       <c r="C26" s="39" t="s">
         <v>46</v>
       </c>
       <c r="D26" s="34">
         <v>2</v>
       </c>
-      <c r="E26" s="34"/>
+      <c r="E26" s="34">
+        <v>2</v>
+      </c>
       <c r="F26" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="10">
-        <v>42503</v>
-      </c>
-      <c r="H26" s="10"/>
+        <v>42538</v>
+      </c>
+      <c r="H26" s="10">
+        <v>42538</v>
+      </c>
       <c r="I26" s="27">
         <f t="shared" si="144"/>
-        <v>42504</v>
+        <v>42539</v>
       </c>
       <c r="J26" s="27">
         <f t="shared" si="145"/>
-        <v>-1</v>
+        <v>42539</v>
       </c>
       <c r="K26" s="27" t="str">
         <f t="shared" ca="1" si="146"/>
-        <v>Em atraso</v>
+        <v>Concluído</v>
       </c>
       <c r="L26" s="41" t="s">
         <v>34</v>
@@ -7868,32 +7938,38 @@
       <c r="HE26" s="17"/>
     </row>
     <row r="27" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="34"/>
+      <c r="B27" s="34">
+        <v>3</v>
+      </c>
       <c r="C27" s="39" t="s">
         <v>47</v>
       </c>
       <c r="D27" s="34">
         <v>2</v>
       </c>
-      <c r="E27" s="34"/>
+      <c r="E27" s="34">
+        <v>2</v>
+      </c>
       <c r="F27" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="10">
-        <v>42503</v>
-      </c>
-      <c r="H27" s="10"/>
+        <v>42538</v>
+      </c>
+      <c r="H27" s="10">
+        <v>42538</v>
+      </c>
       <c r="I27" s="27">
         <f t="shared" si="144"/>
-        <v>42504</v>
+        <v>42539</v>
       </c>
       <c r="J27" s="27">
         <f t="shared" si="145"/>
-        <v>-1</v>
+        <v>42539</v>
       </c>
       <c r="K27" s="27" t="str">
         <f t="shared" ca="1" si="146"/>
-        <v>Em atraso</v>
+        <v>Concluído</v>
       </c>
       <c r="L27" s="41" t="s">
         <v>34</v>
@@ -8101,32 +8177,38 @@
       <c r="HE27" s="17"/>
     </row>
     <row r="28" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="34"/>
+      <c r="B28" s="34">
+        <v>3</v>
+      </c>
       <c r="C28" s="39" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="34">
         <v>2</v>
       </c>
-      <c r="E28" s="34"/>
+      <c r="E28" s="34">
+        <v>5</v>
+      </c>
       <c r="F28" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="10">
-        <v>42503</v>
-      </c>
-      <c r="H28" s="10"/>
+        <v>42538</v>
+      </c>
+      <c r="H28" s="10">
+        <v>42538</v>
+      </c>
       <c r="I28" s="27">
         <f t="shared" si="144"/>
-        <v>42504</v>
+        <v>42539</v>
       </c>
       <c r="J28" s="27">
         <f t="shared" si="145"/>
-        <v>-1</v>
+        <v>42542</v>
       </c>
       <c r="K28" s="27" t="str">
         <f t="shared" ca="1" si="146"/>
-        <v>Em atraso</v>
+        <v>Concluído</v>
       </c>
       <c r="L28" s="41" t="s">
         <v>34</v>
@@ -8334,32 +8416,38 @@
       <c r="HE28" s="17"/>
     </row>
     <row r="29" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="34"/>
+      <c r="B29" s="34">
+        <v>3</v>
+      </c>
       <c r="C29" s="39" t="s">
         <v>49</v>
       </c>
       <c r="D29" s="34">
         <v>2</v>
       </c>
-      <c r="E29" s="34"/>
+      <c r="E29" s="34">
+        <v>5</v>
+      </c>
       <c r="F29" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="10">
-        <v>42503</v>
-      </c>
-      <c r="H29" s="10"/>
+        <v>42538</v>
+      </c>
+      <c r="H29" s="10">
+        <v>42538</v>
+      </c>
       <c r="I29" s="27">
         <f t="shared" si="144"/>
-        <v>42504</v>
+        <v>42539</v>
       </c>
       <c r="J29" s="27">
         <f t="shared" si="145"/>
-        <v>-1</v>
+        <v>42542</v>
       </c>
       <c r="K29" s="27" t="str">
         <f t="shared" ca="1" si="146"/>
-        <v>Em atraso</v>
+        <v>Concluído</v>
       </c>
       <c r="L29" s="41" t="s">
         <v>34</v>
@@ -8567,32 +8655,38 @@
       <c r="HE29" s="17"/>
     </row>
     <row r="30" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="34"/>
+      <c r="B30" s="34">
+        <v>3</v>
+      </c>
       <c r="C30" s="39" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="34">
         <v>2</v>
       </c>
-      <c r="E30" s="34"/>
+      <c r="E30" s="34">
+        <v>5</v>
+      </c>
       <c r="F30" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="10">
-        <v>42503</v>
-      </c>
-      <c r="H30" s="10"/>
+        <v>42538</v>
+      </c>
+      <c r="H30" s="10">
+        <v>42538</v>
+      </c>
       <c r="I30" s="27">
         <f t="shared" si="144"/>
-        <v>42504</v>
+        <v>42539</v>
       </c>
       <c r="J30" s="27">
         <f t="shared" si="145"/>
-        <v>-1</v>
+        <v>42542</v>
       </c>
       <c r="K30" s="27" t="str">
         <f t="shared" ca="1" si="146"/>
-        <v>Em atraso</v>
+        <v>Concluído</v>
       </c>
       <c r="L30" s="41" t="s">
         <v>34</v>
@@ -8800,32 +8894,38 @@
       <c r="HE30" s="17"/>
     </row>
     <row r="31" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="34"/>
+      <c r="B31" s="34">
+        <v>3</v>
+      </c>
       <c r="C31" s="39" t="s">
         <v>51</v>
       </c>
       <c r="D31" s="34">
-        <v>2</v>
-      </c>
-      <c r="E31" s="34"/>
+        <v>3</v>
+      </c>
+      <c r="E31" s="34">
+        <v>3</v>
+      </c>
       <c r="F31" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="10">
-        <v>42503</v>
-      </c>
-      <c r="H31" s="10"/>
+        <v>42538</v>
+      </c>
+      <c r="H31" s="10">
+        <v>42538</v>
+      </c>
       <c r="I31" s="27">
         <f t="shared" si="144"/>
-        <v>42504</v>
+        <v>42540</v>
       </c>
       <c r="J31" s="27">
         <f t="shared" si="145"/>
-        <v>-1</v>
+        <v>42540</v>
       </c>
       <c r="K31" s="27" t="str">
         <f t="shared" ca="1" si="146"/>
-        <v>Em atraso</v>
+        <v>Concluído</v>
       </c>
       <c r="L31" s="41" t="s">
         <v>34</v>
@@ -9033,32 +9133,36 @@
       <c r="HE31" s="17"/>
     </row>
     <row r="32" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="34"/>
+      <c r="B32" s="34">
+        <v>3</v>
+      </c>
       <c r="C32" s="39" t="s">
         <v>52</v>
       </c>
       <c r="D32" s="34">
-        <v>2</v>
-      </c>
-      <c r="E32" s="34"/>
+        <v>3</v>
+      </c>
+      <c r="E32" s="34">
+        <v>3</v>
+      </c>
       <c r="F32" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="10">
-        <v>42503</v>
+        <v>42538</v>
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="27">
         <f t="shared" si="144"/>
-        <v>42504</v>
+        <v>42540</v>
       </c>
       <c r="J32" s="27">
         <f t="shared" si="145"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="K32" s="27" t="str">
         <f t="shared" ca="1" si="146"/>
-        <v>Em atraso</v>
+        <v>Concluído</v>
       </c>
       <c r="L32" s="41" t="s">
         <v>34</v>
@@ -13040,11 +13144,11 @@
       <c r="AG55" s="13"/>
     </row>
     <row r="56" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="73" t="s">
+      <c r="B56" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="73"/>
-      <c r="D56" s="73"/>
+      <c r="C56" s="75"/>
+      <c r="D56" s="75"/>
       <c r="E56" s="13"/>
       <c r="F56" s="29"/>
       <c r="G56" s="13"/>
@@ -13076,12 +13180,12 @@
       <c r="AG56" s="13"/>
     </row>
     <row r="57" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="74">
+      <c r="B57" s="76">
         <f>'Cronograma + Diagrama de Gantt'!$F$7</f>
-        <v>5.128205128205128E-2</v>
-      </c>
-      <c r="C57" s="74"/>
-      <c r="D57" s="74"/>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="C57" s="76"/>
+      <c r="D57" s="76"/>
       <c r="E57" s="13"/>
       <c r="F57" s="29"/>
       <c r="G57" s="13"/>
@@ -13113,9 +13217,9 @@
       <c r="AG57" s="13"/>
     </row>
     <row r="58" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="74"/>
-      <c r="C58" s="74"/>
-      <c r="D58" s="74"/>
+      <c r="B58" s="76"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="76"/>
       <c r="E58" s="13"/>
       <c r="F58" s="29"/>
       <c r="G58" s="13"/>
@@ -13147,9 +13251,9 @@
       <c r="AG58" s="13"/>
     </row>
     <row r="59" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="74"/>
-      <c r="C59" s="74"/>
-      <c r="D59" s="74"/>
+      <c r="B59" s="76"/>
+      <c r="C59" s="76"/>
+      <c r="D59" s="76"/>
       <c r="E59" s="13"/>
       <c r="F59" s="29"/>
       <c r="G59" s="13"/>
@@ -13181,9 +13285,9 @@
       <c r="AG59" s="13"/>
     </row>
     <row r="60" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="74"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="74"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="76"/>
       <c r="E60" s="13"/>
       <c r="F60" s="29"/>
       <c r="G60" s="13"/>
@@ -34630,48 +34734,48 @@
       <c r="G1" s="58"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="76"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A4" s="76"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="63" t="s">
@@ -34908,8 +35012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34941,48 +35045,48 @@
       <c r="G1" s="58"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="76"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A4" s="76"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="63"/>
@@ -35009,7 +35113,7 @@
       <c r="E7" s="61">
         <v>42518</v>
       </c>
-      <c r="F7" s="77">
+      <c r="F7" s="72">
         <v>42518</v>
       </c>
       <c r="G7" s="62" t="s">
@@ -35032,7 +35136,7 @@
       <c r="E8" s="61">
         <v>42517</v>
       </c>
-      <c r="F8" s="77">
+      <c r="F8" s="72">
         <v>42517</v>
       </c>
       <c r="G8" s="62" t="s">
@@ -35055,7 +35159,7 @@
       <c r="E9" s="61">
         <v>42519</v>
       </c>
-      <c r="F9" s="77">
+      <c r="F9" s="72">
         <v>42519</v>
       </c>
       <c r="G9" s="62" t="s">
@@ -35078,7 +35182,7 @@
       <c r="E10" s="61">
         <v>42522</v>
       </c>
-      <c r="F10" s="77">
+      <c r="F10" s="72">
         <v>42522</v>
       </c>
       <c r="G10" s="62" t="s">
@@ -35101,7 +35205,7 @@
       <c r="E11" s="61">
         <v>42523</v>
       </c>
-      <c r="F11" s="77">
+      <c r="F11" s="72">
         <v>42523</v>
       </c>
       <c r="G11" s="62" t="s">
@@ -35124,7 +35228,7 @@
       <c r="E12" s="61">
         <v>42521</v>
       </c>
-      <c r="F12" s="77">
+      <c r="F12" s="72">
         <v>42521</v>
       </c>
       <c r="G12" s="62" t="s">
@@ -35147,7 +35251,7 @@
       <c r="E13" s="61">
         <v>42523</v>
       </c>
-      <c r="F13" s="77">
+      <c r="F13" s="72">
         <v>42523</v>
       </c>
       <c r="G13" s="62" t="s">
@@ -35170,7 +35274,7 @@
       <c r="E14" s="61">
         <v>42524</v>
       </c>
-      <c r="F14" s="77">
+      <c r="F14" s="72">
         <v>42524</v>
       </c>
       <c r="G14" s="62" t="s">
@@ -35193,7 +35297,7 @@
       <c r="E15" s="61">
         <v>42524</v>
       </c>
-      <c r="F15" s="77">
+      <c r="F15" s="72">
         <v>42524</v>
       </c>
       <c r="G15" s="62" t="s">
@@ -35216,7 +35320,7 @@
       <c r="E16" s="61">
         <v>42524</v>
       </c>
-      <c r="F16" s="78">
+      <c r="F16" s="73">
         <v>42525</v>
       </c>
       <c r="G16" s="62" t="s">
@@ -35239,7 +35343,7 @@
       <c r="E17" s="61">
         <v>42524</v>
       </c>
-      <c r="F17" s="78">
+      <c r="F17" s="73">
         <v>42526</v>
       </c>
       <c r="G17" s="62" t="s">
@@ -35262,7 +35366,7 @@
       <c r="E18" s="61">
         <v>42524</v>
       </c>
-      <c r="F18" s="78">
+      <c r="F18" s="73">
         <v>42527</v>
       </c>
       <c r="G18" s="62" t="s">
@@ -35299,6 +35403,145 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="80" t="str">
+        <f>HYPERLINK("https://trello.com/b/Bc4qaimg", "Quadro de Task")</f>
+        <v>Quadro de Task</v>
+      </c>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="80"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="80"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="80"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I4"/>
+    <mergeCell ref="A5:I8"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 

--- a/docs/Project Docs/STE_CP_CronogramaDoProjeto.xlsx
+++ b/docs/Project Docs/STE_CP_CronogramaDoProjeto.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" codeName="EstaPasta_de_trabalho" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma + Diagrama de Gantt" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 1" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint 2" sheetId="4" r:id="rId3"/>
-    <sheet name="Planilha1" sheetId="5" r:id="rId4"/>
+    <sheet name="Sprint 3+" sheetId="5" r:id="rId4"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
@@ -27,8 +27,9 @@
     <definedName name="PorcentagemConcluídaPosterior">('Cronograma + Diagrama de Gantt'!A$6=MEDIAN('Cronograma + Diagrama de Gantt'!A$6,'Cronograma + Diagrama de Gantt'!$H1,'Cronograma + Diagrama de Gantt'!$H1+'Cronograma + Diagrama de Gantt'!$E1)*('Cronograma + Diagrama de Gantt'!$H1&gt;0))*(('Cronograma + Diagrama de Gantt'!A$6&lt;(INT('Cronograma + Diagrama de Gantt'!$H1+'Cronograma + Diagrama de Gantt'!$E1*'Cronograma + Diagrama de Gantt'!$F1)))+('Cronograma + Diagrama de Gantt'!A$6='Cronograma + Diagrama de Gantt'!$H1))*('Cronograma + Diagrama de Gantt'!$F1&gt;0)</definedName>
     <definedName name="Real">(PeriodoInReal*('Cronograma + Diagrama de Gantt'!$H1&gt;0))*PeriodoInPlanejado</definedName>
     <definedName name="RealPosterior">PeriodoInReal*('Cronograma + Diagrama de Gantt'!$H1&gt;0)</definedName>
+    <definedName name="SOMA">'Cronograma + Diagrama de Gantt'!$I$42:$I$47</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="128">
   <si>
     <t>Real</t>
   </si>
@@ -152,9 +153,6 @@
   </si>
   <si>
     <t>STATUS</t>
-  </si>
-  <si>
-    <t>Projeto My Study Life</t>
   </si>
   <si>
     <t>SPRINT</t>
@@ -399,9 +397,6 @@
     <t>Data Entrega</t>
   </si>
   <si>
-    <t>Concluído</t>
-  </si>
-  <si>
     <t>Concluída</t>
   </si>
   <si>
@@ -480,6 +475,36 @@
   </si>
   <si>
     <t>As definições e monitoramento de tarefas, a partir dessa Sprint serão feitas pela ferramenta Trello</t>
+  </si>
+  <si>
+    <t>Projeto Study Each</t>
+  </si>
+  <si>
+    <t>Release 0.1.0</t>
+  </si>
+  <si>
+    <t>Release 0.2.0</t>
+  </si>
+  <si>
+    <t>Avaliação MPS.BR Nível G</t>
+  </si>
+  <si>
+    <t>Release 0.3.0</t>
+  </si>
+  <si>
+    <t>Bruno Messias</t>
+  </si>
+  <si>
+    <t>Avaliação MPS.BR Nível F</t>
+  </si>
+  <si>
+    <t>Release 1.4.0</t>
+  </si>
+  <si>
+    <t>Release 1.0.0</t>
+  </si>
+  <si>
+    <t>Treinamento</t>
   </si>
 </sst>
 </file>
@@ -679,7 +704,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -772,6 +797,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -924,7 +955,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1162,6 +1193,54 @@
     <xf numFmtId="14" fontId="0" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="17" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1200,34 +1279,11 @@
     <cellStyle name="Project Headers" xfId="4"/>
     <cellStyle name="Título 1" xfId="1" builtinId="16" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="207">
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF004080"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1262,32 +1318,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF004080"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1322,32 +1355,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF004080"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1382,32 +1392,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF004080"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1442,6 +1429,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -1472,6 +1466,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -1498,6 +1499,1530 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF004080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1804,13 +3329,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>858951</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>61232</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2320,10 +3845,10 @@
   <sheetPr codeName="Plan1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:HE701"/>
+  <dimension ref="B1:HE710"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -2349,13 +3874,13 @@
   <sheetData>
     <row r="1" spans="2:213" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="44" t="s">
         <v>28</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>29</v>
       </c>
       <c r="E1" s="48" t="s">
         <v>17</v>
@@ -2390,14 +3915,14 @@
       <c r="AG1" s="13"/>
     </row>
     <row r="2" spans="2:213" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
+      <c r="B2" s="86" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
       <c r="H2" s="50" t="s">
         <v>3</v>
       </c>
@@ -2427,12 +3952,12 @@
       <c r="AG2" s="6"/>
     </row>
     <row r="3" spans="2:213" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
@@ -2452,12 +3977,12 @@
       <c r="AG3" s="6"/>
     </row>
     <row r="4" spans="2:213" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="50" t="s">
         <v>7</v>
       </c>
@@ -2495,12 +4020,12 @@
       <c r="AT4" s="5"/>
     </row>
     <row r="5" spans="2:213" ht="17.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -2522,7 +4047,7 @@
     </row>
     <row r="6" spans="2:213" s="17" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>6</v>
@@ -3361,35 +4886,35 @@
         <v>18</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="43">
         <f>(I7-G7)+1</f>
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E7" s="43">
         <f>(J7-H7)+1</f>
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F7" s="36">
-        <f>AVERAGE($F$9:$F$48)</f>
-        <v>0.61538461538461542</v>
+        <f>AVERAGE($F$9:$F$57)</f>
+        <v>0.8125</v>
       </c>
       <c r="G7" s="37">
-        <f>SMALL($G$8:$G$47,1)</f>
+        <f>SMALL($G$8:$G$56,1)</f>
         <v>42492</v>
       </c>
       <c r="H7" s="37">
-        <f>SMALL($H$8:$H$47,1)</f>
+        <f>SMALL($H$8:$H$56,1)</f>
         <v>42496</v>
       </c>
       <c r="I7" s="37">
-        <f>LARGE($I$8:$I$47,1)</f>
-        <v>42558</v>
+        <f>LARGE($I$8:$I$56,1)</f>
+        <v>42566</v>
       </c>
       <c r="J7" s="37">
-        <f>LARGE($J$8:$J$47,1)</f>
-        <v>42554</v>
+        <f>LARGE($J$8:$J$56,1)</f>
+        <v>42568</v>
       </c>
       <c r="K7" s="37"/>
       <c r="L7" s="38"/>
@@ -3420,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="34">
         <v>1</v>
@@ -3445,11 +4970,11 @@
         <v>42498</v>
       </c>
       <c r="K8" s="27" t="str">
-        <f t="shared" ref="K8:K47" ca="1" si="141">IF(F8=1,"Concluído",IF(AND(J8&lt;TODAY(),F8&lt;1),"Em atraso","Em andamento"))</f>
+        <f t="shared" ref="K8:K44" ca="1" si="141">IF(F8=1,"Concluído",IF(G8&gt;TODAY(), "A iniciar", IF(AND(I8&lt;TODAY(),F8&lt;1),"Em atraso","Em andamento")))</f>
         <v>Concluído</v>
       </c>
       <c r="L8" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
@@ -3658,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="34">
         <v>1</v>
@@ -3680,7 +5205,7 @@
         <v>42496</v>
       </c>
       <c r="J9" s="27">
-        <f t="shared" ref="J9:J47" si="143">(H9+E9)-1</f>
+        <f t="shared" ref="J9:J56" si="143">(H9+E9)-1</f>
         <v>42499</v>
       </c>
       <c r="K9" s="27" t="str">
@@ -3688,7 +5213,7 @@
         <v>Concluído</v>
       </c>
       <c r="L9" s="41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
@@ -3897,7 +5422,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="34">
         <v>1</v>
@@ -3926,7 +5451,7 @@
         <v>Concluído</v>
       </c>
       <c r="L10" s="41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
@@ -4135,7 +5660,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="34">
         <v>2</v>
@@ -4159,11 +5684,12 @@
       <c r="J11" s="27">
         <v>42510</v>
       </c>
-      <c r="K11" s="27" t="s">
-        <v>97</v>
+      <c r="K11" s="27" t="str">
+        <f t="shared" ca="1" si="141"/>
+        <v>Concluído</v>
       </c>
       <c r="L11" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
@@ -4372,7 +5898,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="34">
         <v>2</v>
@@ -4396,11 +5922,12 @@
       <c r="J12" s="27">
         <v>42510</v>
       </c>
-      <c r="K12" s="27" t="s">
-        <v>97</v>
+      <c r="K12" s="27" t="str">
+        <f t="shared" ca="1" si="141"/>
+        <v>Concluído</v>
       </c>
       <c r="L12" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
@@ -4609,7 +6136,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="34">
         <v>2</v>
@@ -4633,11 +6160,12 @@
       <c r="J13" s="27">
         <v>42510</v>
       </c>
-      <c r="K13" s="27" t="s">
-        <v>97</v>
+      <c r="K13" s="27" t="str">
+        <f t="shared" ca="1" si="141"/>
+        <v>Concluído</v>
       </c>
       <c r="L13" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
@@ -4846,7 +6374,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="34">
         <v>2</v>
@@ -4870,11 +6398,12 @@
       <c r="J14" s="27">
         <v>42510</v>
       </c>
-      <c r="K14" s="27" t="s">
-        <v>97</v>
+      <c r="K14" s="27" t="str">
+        <f t="shared" ca="1" si="141"/>
+        <v>Concluído</v>
       </c>
       <c r="L14" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
@@ -5079,40 +6608,35 @@
       <c r="HE14" s="17"/>
     </row>
     <row r="15" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="34">
-        <v>2</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="34">
-        <v>2</v>
-      </c>
-      <c r="E15" s="34">
-        <v>2</v>
-      </c>
-      <c r="F15" s="40">
+      <c r="B15" s="74">
         <v>1</v>
       </c>
-      <c r="G15" s="10">
-        <v>42550</v>
-      </c>
-      <c r="H15" s="10">
-        <v>42550</v>
-      </c>
-      <c r="I15" s="27">
-        <f t="shared" ref="I15:J46" si="144">(G15+D15)-1</f>
-        <v>42551</v>
-      </c>
-      <c r="J15" s="27">
-        <f t="shared" si="143"/>
-        <v>42551</v>
-      </c>
-      <c r="K15" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="L15" s="41" t="s">
-        <v>34</v>
+      <c r="C15" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="76">
+        <v>1</v>
+      </c>
+      <c r="G15" s="77">
+        <v>42510</v>
+      </c>
+      <c r="H15" s="77">
+        <v>42510</v>
+      </c>
+      <c r="I15" s="77">
+        <v>42510</v>
+      </c>
+      <c r="J15" s="77">
+        <v>42510</v>
+      </c>
+      <c r="K15" s="27" t="str">
+        <f t="shared" ca="1" si="141"/>
+        <v>Concluído</v>
+      </c>
+      <c r="L15" s="78" t="s">
+        <v>25</v>
       </c>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
@@ -5321,7 +6845,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16" s="34">
         <v>2</v>
@@ -5333,24 +6857,25 @@
         <v>1</v>
       </c>
       <c r="G16" s="10">
-        <v>42551</v>
+        <v>42519</v>
       </c>
       <c r="H16" s="10">
-        <v>42551</v>
+        <v>42519</v>
       </c>
       <c r="I16" s="27">
-        <f t="shared" si="144"/>
-        <v>42552</v>
+        <f t="shared" ref="I16:J55" si="144">(G16+D16)-1</f>
+        <v>42520</v>
       </c>
       <c r="J16" s="27">
         <f t="shared" si="143"/>
-        <v>42552</v>
-      </c>
-      <c r="K16" s="27" t="s">
-        <v>97</v>
+        <v>42520</v>
+      </c>
+      <c r="K16" s="27" t="str">
+        <f t="shared" ca="1" si="141"/>
+        <v>Concluído</v>
       </c>
       <c r="L16" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
@@ -5559,7 +7084,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17" s="34">
         <v>2</v>
@@ -5571,24 +7096,25 @@
         <v>1</v>
       </c>
       <c r="G17" s="10">
-        <v>42551</v>
+        <v>42520</v>
       </c>
       <c r="H17" s="10">
-        <v>42551</v>
+        <v>42520</v>
       </c>
       <c r="I17" s="27">
         <f t="shared" si="144"/>
-        <v>42552</v>
+        <v>42521</v>
       </c>
       <c r="J17" s="27">
         <f t="shared" si="143"/>
-        <v>42552</v>
-      </c>
-      <c r="K17" s="27" t="s">
-        <v>97</v>
+        <v>42521</v>
+      </c>
+      <c r="K17" s="27" t="str">
+        <f t="shared" ca="1" si="141"/>
+        <v>Concluído</v>
       </c>
       <c r="L17" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
@@ -5797,36 +7323,37 @@
         <v>2</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D18" s="34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E18" s="34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F18" s="40">
         <v>1</v>
       </c>
       <c r="G18" s="10">
-        <v>42551</v>
+        <v>42520</v>
       </c>
       <c r="H18" s="10">
-        <v>42551</v>
+        <v>42520</v>
       </c>
       <c r="I18" s="27">
         <f t="shared" si="144"/>
-        <v>42554</v>
+        <v>42521</v>
       </c>
       <c r="J18" s="27">
-        <f t="shared" ref="J18:J46" si="145">(H18+E18)-1</f>
-        <v>42554</v>
-      </c>
-      <c r="K18" s="27" t="s">
-        <v>97</v>
+        <f t="shared" si="143"/>
+        <v>42521</v>
+      </c>
+      <c r="K18" s="27" t="str">
+        <f t="shared" ca="1" si="141"/>
+        <v>Concluído</v>
       </c>
       <c r="L18" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
@@ -6035,36 +7562,37 @@
         <v>2</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19" s="34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E19" s="34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19" s="40">
         <v>1</v>
       </c>
       <c r="G19" s="10">
-        <v>42551</v>
+        <v>42520</v>
       </c>
       <c r="H19" s="10">
-        <v>42551</v>
+        <v>42520</v>
       </c>
       <c r="I19" s="27">
         <f t="shared" si="144"/>
-        <v>42552</v>
+        <v>42523</v>
       </c>
       <c r="J19" s="27">
-        <f t="shared" si="145"/>
-        <v>42552</v>
-      </c>
-      <c r="K19" s="27" t="s">
-        <v>97</v>
+        <f t="shared" ref="J19:J55" si="145">(H19+E19)-1</f>
+        <v>42523</v>
+      </c>
+      <c r="K19" s="27" t="str">
+        <f t="shared" ca="1" si="141"/>
+        <v>Concluído</v>
       </c>
       <c r="L19" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
@@ -6273,7 +7801,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" s="34">
         <v>2</v>
@@ -6285,24 +7813,25 @@
         <v>1</v>
       </c>
       <c r="G20" s="10">
-        <v>42551</v>
+        <v>42520</v>
       </c>
       <c r="H20" s="10">
-        <v>42551</v>
+        <v>42520</v>
       </c>
       <c r="I20" s="27">
         <f t="shared" si="144"/>
-        <v>42552</v>
+        <v>42521</v>
       </c>
       <c r="J20" s="27">
         <f t="shared" si="145"/>
-        <v>42552</v>
-      </c>
-      <c r="K20" s="27" t="s">
-        <v>97</v>
+        <v>42521</v>
+      </c>
+      <c r="K20" s="27" t="str">
+        <f t="shared" ca="1" si="141"/>
+        <v>Concluído</v>
       </c>
       <c r="L20" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
@@ -6508,10 +8037,10 @@
     </row>
     <row r="21" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B21" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" s="34">
         <v>2</v>
@@ -6523,25 +8052,25 @@
         <v>1</v>
       </c>
       <c r="G21" s="10">
-        <v>42538</v>
+        <v>42520</v>
       </c>
       <c r="H21" s="10">
-        <v>42538</v>
+        <v>42520</v>
       </c>
       <c r="I21" s="27">
         <f t="shared" si="144"/>
-        <v>42539</v>
+        <v>42521</v>
       </c>
       <c r="J21" s="27">
-        <f t="shared" si="144"/>
-        <v>42539</v>
+        <f t="shared" si="145"/>
+        <v>42521</v>
       </c>
       <c r="K21" s="27" t="str">
-        <f t="shared" ref="K21:K46" ca="1" si="146">IF(F21=1,"Concluído",IF(AND(J21&lt;TODAY(),F21&lt;1),"Em atraso","Em andamento"))</f>
+        <f t="shared" ca="1" si="141"/>
         <v>Concluído</v>
       </c>
       <c r="L21" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
@@ -6747,10 +8276,10 @@
     </row>
     <row r="22" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B22" s="34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D22" s="34">
         <v>2</v>
@@ -6762,24 +8291,25 @@
         <v>1</v>
       </c>
       <c r="G22" s="10">
-        <v>42551</v>
+        <v>42507</v>
       </c>
       <c r="H22" s="10">
-        <v>42551</v>
+        <v>42507</v>
       </c>
       <c r="I22" s="27">
         <f t="shared" si="144"/>
-        <v>42552</v>
+        <v>42508</v>
       </c>
       <c r="J22" s="27">
-        <f t="shared" si="145"/>
-        <v>42552</v>
-      </c>
-      <c r="K22" s="27" t="s">
-        <v>97</v>
+        <f t="shared" si="144"/>
+        <v>42508</v>
+      </c>
+      <c r="K22" s="27" t="str">
+        <f t="shared" ca="1" si="141"/>
+        <v>Concluído</v>
       </c>
       <c r="L22" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
@@ -6988,7 +8518,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D23" s="34">
         <v>2</v>
@@ -7000,24 +8530,25 @@
         <v>1</v>
       </c>
       <c r="G23" s="10">
-        <v>42551</v>
+        <v>42520</v>
       </c>
       <c r="H23" s="10">
-        <v>42551</v>
+        <v>42520</v>
       </c>
       <c r="I23" s="27">
         <f t="shared" si="144"/>
-        <v>42552</v>
+        <v>42521</v>
       </c>
       <c r="J23" s="27">
         <f t="shared" si="145"/>
-        <v>42552</v>
-      </c>
-      <c r="K23" s="27" t="s">
-        <v>97</v>
+        <v>42521</v>
+      </c>
+      <c r="K23" s="27" t="str">
+        <f t="shared" ca="1" si="141"/>
+        <v>Concluído</v>
       </c>
       <c r="L23" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
@@ -7226,7 +8757,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D24" s="34">
         <v>2</v>
@@ -7238,24 +8769,25 @@
         <v>1</v>
       </c>
       <c r="G24" s="10">
-        <v>42551</v>
+        <v>42520</v>
       </c>
       <c r="H24" s="10">
-        <v>42551</v>
+        <v>42520</v>
       </c>
       <c r="I24" s="27">
         <f t="shared" si="144"/>
-        <v>42552</v>
+        <v>42521</v>
       </c>
       <c r="J24" s="27">
         <f t="shared" si="145"/>
-        <v>42552</v>
-      </c>
-      <c r="K24" s="27" t="s">
-        <v>97</v>
+        <v>42521</v>
+      </c>
+      <c r="K24" s="27" t="str">
+        <f t="shared" ca="1" si="141"/>
+        <v>Concluído</v>
       </c>
       <c r="L24" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
@@ -7461,10 +8993,10 @@
     </row>
     <row r="25" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B25" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D25" s="34">
         <v>2</v>
@@ -7476,25 +9008,25 @@
         <v>1</v>
       </c>
       <c r="G25" s="10">
-        <v>42538</v>
+        <v>42520</v>
       </c>
       <c r="H25" s="10">
-        <v>42538</v>
+        <v>42520</v>
       </c>
       <c r="I25" s="27">
         <f t="shared" si="144"/>
-        <v>42539</v>
+        <v>42521</v>
       </c>
       <c r="J25" s="27">
         <f t="shared" si="145"/>
-        <v>42539</v>
+        <v>42521</v>
       </c>
       <c r="K25" s="27" t="str">
-        <f t="shared" ca="1" si="146"/>
+        <f t="shared" ca="1" si="141"/>
         <v>Concluído</v>
       </c>
       <c r="L25" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
@@ -7699,41 +9231,35 @@
       <c r="HE25" s="17"/>
     </row>
     <row r="26" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="34">
-        <v>3</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="34">
+      <c r="B26" s="74">
         <v>2</v>
       </c>
-      <c r="E26" s="34">
-        <v>2</v>
-      </c>
-      <c r="F26" s="40">
+      <c r="C26" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="76">
         <v>1</v>
       </c>
-      <c r="G26" s="10">
-        <v>42538</v>
-      </c>
-      <c r="H26" s="10">
-        <v>42538</v>
-      </c>
-      <c r="I26" s="27">
-        <f t="shared" si="144"/>
-        <v>42539</v>
-      </c>
-      <c r="J26" s="27">
-        <f t="shared" si="145"/>
-        <v>42539</v>
+      <c r="G26" s="77">
+        <v>42533</v>
+      </c>
+      <c r="H26" s="77">
+        <v>42533</v>
+      </c>
+      <c r="I26" s="77">
+        <v>42533</v>
+      </c>
+      <c r="J26" s="77">
+        <v>42533</v>
       </c>
       <c r="K26" s="27" t="str">
-        <f t="shared" ca="1" si="146"/>
+        <f t="shared" ca="1" si="141"/>
         <v>Concluído</v>
       </c>
-      <c r="L26" s="41" t="s">
-        <v>34</v>
+      <c r="L26" s="78" t="s">
+        <v>83</v>
       </c>
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
@@ -7938,41 +9464,35 @@
       <c r="HE26" s="17"/>
     </row>
     <row r="27" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="34">
-        <v>3</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="34">
+      <c r="B27" s="79">
         <v>2</v>
       </c>
-      <c r="E27" s="34">
-        <v>2</v>
-      </c>
-      <c r="F27" s="40">
+      <c r="C27" s="80" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="81">
         <v>1</v>
       </c>
-      <c r="G27" s="10">
-        <v>42538</v>
-      </c>
-      <c r="H27" s="10">
-        <v>42538</v>
-      </c>
-      <c r="I27" s="27">
-        <f t="shared" si="144"/>
-        <v>42539</v>
-      </c>
-      <c r="J27" s="27">
-        <f t="shared" si="145"/>
-        <v>42539</v>
+      <c r="G27" s="82">
+        <v>42533</v>
+      </c>
+      <c r="H27" s="82">
+        <v>42533</v>
+      </c>
+      <c r="I27" s="82">
+        <v>42533</v>
+      </c>
+      <c r="J27" s="82">
+        <v>42533</v>
       </c>
       <c r="K27" s="27" t="str">
-        <f t="shared" ca="1" si="146"/>
+        <f t="shared" ca="1" si="141"/>
         <v>Concluído</v>
       </c>
-      <c r="L27" s="41" t="s">
-        <v>34</v>
+      <c r="L27" s="78" t="s">
+        <v>83</v>
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
@@ -8181,13 +9701,13 @@
         <v>3</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D28" s="34">
         <v>2</v>
       </c>
       <c r="E28" s="34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F28" s="40">
         <v>1</v>
@@ -8204,14 +9724,14 @@
       </c>
       <c r="J28" s="27">
         <f t="shared" si="145"/>
-        <v>42542</v>
+        <v>42539</v>
       </c>
       <c r="K28" s="27" t="str">
-        <f t="shared" ca="1" si="146"/>
+        <f t="shared" ca="1" si="141"/>
         <v>Concluído</v>
       </c>
       <c r="L28" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
@@ -8420,13 +9940,13 @@
         <v>3</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D29" s="34">
         <v>2</v>
       </c>
       <c r="E29" s="34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F29" s="40">
         <v>1</v>
@@ -8443,14 +9963,14 @@
       </c>
       <c r="J29" s="27">
         <f t="shared" si="145"/>
-        <v>42542</v>
+        <v>42539</v>
       </c>
       <c r="K29" s="27" t="str">
-        <f t="shared" ca="1" si="146"/>
+        <f t="shared" ca="1" si="141"/>
         <v>Concluído</v>
       </c>
       <c r="L29" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
@@ -8659,13 +10179,13 @@
         <v>3</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D30" s="34">
         <v>2</v>
       </c>
       <c r="E30" s="34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F30" s="40">
         <v>1</v>
@@ -8682,14 +10202,14 @@
       </c>
       <c r="J30" s="27">
         <f t="shared" si="145"/>
-        <v>42542</v>
+        <v>42539</v>
       </c>
       <c r="K30" s="27" t="str">
-        <f t="shared" ca="1" si="146"/>
+        <f t="shared" ca="1" si="141"/>
         <v>Concluído</v>
       </c>
       <c r="L30" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
@@ -8898,13 +10418,13 @@
         <v>3</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D31" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31" s="34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F31" s="40">
         <v>1</v>
@@ -8917,18 +10437,18 @@
       </c>
       <c r="I31" s="27">
         <f t="shared" si="144"/>
-        <v>42540</v>
+        <v>42539</v>
       </c>
       <c r="J31" s="27">
         <f t="shared" si="145"/>
-        <v>42540</v>
+        <v>42542</v>
       </c>
       <c r="K31" s="27" t="str">
-        <f t="shared" ca="1" si="146"/>
+        <f t="shared" ca="1" si="141"/>
         <v>Concluído</v>
       </c>
       <c r="L31" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
@@ -9137,13 +10657,13 @@
         <v>3</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D32" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E32" s="34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F32" s="40">
         <v>1</v>
@@ -9151,21 +10671,23 @@
       <c r="G32" s="10">
         <v>42538</v>
       </c>
-      <c r="H32" s="10"/>
+      <c r="H32" s="10">
+        <v>42538</v>
+      </c>
       <c r="I32" s="27">
         <f t="shared" si="144"/>
-        <v>42540</v>
+        <v>42539</v>
       </c>
       <c r="J32" s="27">
         <f t="shared" si="145"/>
-        <v>2</v>
+        <v>42542</v>
       </c>
       <c r="K32" s="27" t="str">
-        <f t="shared" ca="1" si="146"/>
+        <f t="shared" ca="1" si="141"/>
         <v>Concluído</v>
       </c>
       <c r="L32" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
@@ -9370,35 +10892,41 @@
       <c r="HE32" s="17"/>
     </row>
     <row r="33" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="34"/>
+      <c r="B33" s="34">
+        <v>3</v>
+      </c>
       <c r="C33" s="39" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D33" s="34">
         <v>2</v>
       </c>
-      <c r="E33" s="34"/>
+      <c r="E33" s="34">
+        <v>5</v>
+      </c>
       <c r="F33" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="10">
-        <v>42503</v>
-      </c>
-      <c r="H33" s="10"/>
+        <v>42538</v>
+      </c>
+      <c r="H33" s="10">
+        <v>42538</v>
+      </c>
       <c r="I33" s="27">
         <f t="shared" si="144"/>
-        <v>42504</v>
+        <v>42539</v>
       </c>
       <c r="J33" s="27">
         <f t="shared" si="145"/>
-        <v>-1</v>
+        <v>42542</v>
       </c>
       <c r="K33" s="27" t="str">
-        <f t="shared" ca="1" si="146"/>
-        <v>Em atraso</v>
+        <f t="shared" ca="1" si="141"/>
+        <v>Concluído</v>
       </c>
       <c r="L33" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
@@ -9603,35 +11131,41 @@
       <c r="HE33" s="17"/>
     </row>
     <row r="34" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="34"/>
+      <c r="B34" s="34">
+        <v>3</v>
+      </c>
       <c r="C34" s="39" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D34" s="34">
-        <v>2</v>
-      </c>
-      <c r="E34" s="34"/>
+        <v>3</v>
+      </c>
+      <c r="E34" s="34">
+        <v>3</v>
+      </c>
       <c r="F34" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="10">
-        <v>42503</v>
-      </c>
-      <c r="H34" s="10"/>
+        <v>42538</v>
+      </c>
+      <c r="H34" s="10">
+        <v>42538</v>
+      </c>
       <c r="I34" s="27">
         <f t="shared" si="144"/>
-        <v>42504</v>
+        <v>42540</v>
       </c>
       <c r="J34" s="27">
         <f t="shared" si="145"/>
-        <v>-1</v>
+        <v>42540</v>
       </c>
       <c r="K34" s="27" t="str">
-        <f t="shared" ca="1" si="146"/>
-        <v>Em atraso</v>
+        <f t="shared" ca="1" si="141"/>
+        <v>Concluído</v>
       </c>
       <c r="L34" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
@@ -9836,35 +11370,41 @@
       <c r="HE34" s="17"/>
     </row>
     <row r="35" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="34"/>
+      <c r="B35" s="34">
+        <v>3</v>
+      </c>
       <c r="C35" s="39" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D35" s="34">
-        <v>2</v>
-      </c>
-      <c r="E35" s="34"/>
+        <v>3</v>
+      </c>
+      <c r="E35" s="34">
+        <v>3</v>
+      </c>
       <c r="F35" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="10">
-        <v>42503</v>
-      </c>
-      <c r="H35" s="10"/>
+        <v>42538</v>
+      </c>
+      <c r="H35" s="10">
+        <v>42538</v>
+      </c>
       <c r="I35" s="27">
-        <f t="shared" si="144"/>
-        <v>42504</v>
+        <f>(G35+D35)-1</f>
+        <v>42540</v>
       </c>
       <c r="J35" s="27">
         <f t="shared" si="145"/>
-        <v>-1</v>
+        <v>42540</v>
       </c>
       <c r="K35" s="27" t="str">
-        <f t="shared" ca="1" si="146"/>
-        <v>Em atraso</v>
+        <f t="shared" ca="1" si="141"/>
+        <v>Concluído</v>
       </c>
       <c r="L35" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
@@ -10069,35 +11609,35 @@
       <c r="HE35" s="17"/>
     </row>
     <row r="36" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="34"/>
-      <c r="C36" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="34">
-        <v>2</v>
-      </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="40">
-        <v>0</v>
-      </c>
-      <c r="G36" s="10">
-        <v>42503</v>
-      </c>
-      <c r="H36" s="10"/>
-      <c r="I36" s="27">
-        <f t="shared" si="144"/>
-        <v>42504</v>
-      </c>
-      <c r="J36" s="27">
-        <f t="shared" si="145"/>
-        <v>-1</v>
+      <c r="B36" s="74">
+        <v>3</v>
+      </c>
+      <c r="C36" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="76">
+        <v>1</v>
+      </c>
+      <c r="G36" s="77">
+        <v>42542</v>
+      </c>
+      <c r="H36" s="77">
+        <v>42542</v>
+      </c>
+      <c r="I36" s="77">
+        <v>42542</v>
+      </c>
+      <c r="J36" s="77">
+        <v>42542</v>
       </c>
       <c r="K36" s="27" t="str">
-        <f t="shared" ca="1" si="146"/>
-        <v>Em atraso</v>
-      </c>
-      <c r="L36" s="41" t="s">
-        <v>34</v>
+        <f t="shared" ca="1" si="141"/>
+        <v>Concluído</v>
+      </c>
+      <c r="L36" s="78" t="s">
+        <v>123</v>
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="13"/>
@@ -10302,35 +11842,35 @@
       <c r="HE36" s="17"/>
     </row>
     <row r="37" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="34"/>
-      <c r="C37" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="34">
-        <v>2</v>
-      </c>
-      <c r="E37" s="34"/>
-      <c r="F37" s="40">
-        <v>0</v>
-      </c>
-      <c r="G37" s="10">
-        <v>42503</v>
-      </c>
-      <c r="H37" s="10"/>
-      <c r="I37" s="27">
-        <f t="shared" si="144"/>
-        <v>42504</v>
-      </c>
-      <c r="J37" s="27">
-        <f t="shared" si="145"/>
-        <v>-1</v>
+      <c r="B37" s="79">
+        <v>3</v>
+      </c>
+      <c r="C37" s="80" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="81">
+        <v>1</v>
+      </c>
+      <c r="G37" s="82">
+        <v>42542</v>
+      </c>
+      <c r="H37" s="82">
+        <v>42542</v>
+      </c>
+      <c r="I37" s="82">
+        <v>42542</v>
+      </c>
+      <c r="J37" s="82">
+        <v>42542</v>
       </c>
       <c r="K37" s="27" t="str">
-        <f t="shared" ca="1" si="146"/>
-        <v>Em atraso</v>
-      </c>
-      <c r="L37" s="41" t="s">
-        <v>34</v>
+        <f t="shared" ca="1" si="141"/>
+        <v>Concluído</v>
+      </c>
+      <c r="L37" s="78" t="s">
+        <v>123</v>
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
@@ -10535,35 +12075,41 @@
       <c r="HE37" s="17"/>
     </row>
     <row r="38" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="34"/>
+      <c r="B38" s="34">
+        <v>4</v>
+      </c>
       <c r="C38" s="39" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D38" s="34">
-        <v>2</v>
-      </c>
-      <c r="E38" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="E38" s="34">
+        <v>1</v>
+      </c>
       <c r="F38" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="10">
-        <v>42503</v>
-      </c>
-      <c r="H38" s="10"/>
+        <v>42548</v>
+      </c>
+      <c r="H38" s="10">
+        <v>42552</v>
+      </c>
       <c r="I38" s="27">
-        <f t="shared" si="144"/>
-        <v>42504</v>
+        <f t="shared" ref="I38:I47" si="146">(G38+D38)-1</f>
+        <v>42552</v>
       </c>
       <c r="J38" s="27">
         <f t="shared" si="145"/>
-        <v>-1</v>
+        <v>42552</v>
       </c>
       <c r="K38" s="27" t="str">
-        <f t="shared" ca="1" si="146"/>
-        <v>Em atraso</v>
+        <f t="shared" ca="1" si="141"/>
+        <v>Concluído</v>
       </c>
       <c r="L38" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="13"/>
@@ -10768,35 +12314,41 @@
       <c r="HE38" s="17"/>
     </row>
     <row r="39" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="34"/>
+      <c r="B39" s="34">
+        <v>4</v>
+      </c>
       <c r="C39" s="39" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D39" s="34">
-        <v>2</v>
-      </c>
-      <c r="E39" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="E39" s="34">
+        <v>3</v>
+      </c>
       <c r="F39" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="10">
-        <v>42503</v>
-      </c>
-      <c r="H39" s="10"/>
+        <v>42548</v>
+      </c>
+      <c r="H39" s="10">
+        <v>42550</v>
+      </c>
       <c r="I39" s="27">
-        <f t="shared" si="144"/>
-        <v>42504</v>
+        <f t="shared" si="146"/>
+        <v>42552</v>
       </c>
       <c r="J39" s="27">
         <f t="shared" si="145"/>
-        <v>-1</v>
+        <v>42552</v>
       </c>
       <c r="K39" s="27" t="str">
-        <f t="shared" ca="1" si="146"/>
-        <v>Em atraso</v>
+        <f t="shared" ca="1" si="141"/>
+        <v>Concluído</v>
       </c>
       <c r="L39" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="13"/>
@@ -11001,35 +12553,41 @@
       <c r="HE39" s="17"/>
     </row>
     <row r="40" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="34"/>
+      <c r="B40" s="34">
+        <v>4</v>
+      </c>
       <c r="C40" s="39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D40" s="34">
-        <v>2</v>
-      </c>
-      <c r="E40" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="E40" s="34">
+        <v>1</v>
+      </c>
       <c r="F40" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="10">
-        <v>42503</v>
-      </c>
-      <c r="H40" s="10"/>
+        <v>42548</v>
+      </c>
+      <c r="H40" s="10">
+        <v>42553</v>
+      </c>
       <c r="I40" s="27">
-        <f t="shared" si="144"/>
-        <v>42504</v>
+        <f t="shared" si="146"/>
+        <v>42552</v>
       </c>
       <c r="J40" s="27">
         <f t="shared" si="145"/>
-        <v>-1</v>
+        <v>42553</v>
       </c>
       <c r="K40" s="27" t="str">
-        <f t="shared" ca="1" si="146"/>
-        <v>Em atraso</v>
+        <f t="shared" ca="1" si="141"/>
+        <v>Concluído</v>
       </c>
       <c r="L40" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="13"/>
@@ -11234,35 +12792,41 @@
       <c r="HE40" s="17"/>
     </row>
     <row r="41" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="34"/>
+      <c r="B41" s="34">
+        <v>4</v>
+      </c>
       <c r="C41" s="39" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D41" s="34">
-        <v>2</v>
-      </c>
-      <c r="E41" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="E41" s="34">
+        <v>1</v>
+      </c>
       <c r="F41" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" s="10">
-        <v>42503</v>
-      </c>
-      <c r="H41" s="10"/>
+        <v>42548</v>
+      </c>
+      <c r="H41" s="10">
+        <v>42553</v>
+      </c>
       <c r="I41" s="27">
-        <f t="shared" si="144"/>
-        <v>42504</v>
+        <f t="shared" si="146"/>
+        <v>42552</v>
       </c>
       <c r="J41" s="27">
         <f t="shared" si="145"/>
-        <v>-1</v>
+        <v>42553</v>
       </c>
       <c r="K41" s="27" t="str">
-        <f t="shared" ca="1" si="146"/>
-        <v>Em atraso</v>
+        <f t="shared" ca="1" si="141"/>
+        <v>Concluído</v>
       </c>
       <c r="L41" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="13"/>
@@ -11467,35 +13031,41 @@
       <c r="HE41" s="17"/>
     </row>
     <row r="42" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="34"/>
+      <c r="B42" s="34">
+        <v>4</v>
+      </c>
       <c r="C42" s="39" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D42" s="34">
-        <v>2</v>
-      </c>
-      <c r="E42" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="E42" s="34">
+        <v>1</v>
+      </c>
       <c r="F42" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="10">
-        <v>42503</v>
-      </c>
-      <c r="H42" s="10"/>
+        <v>42548</v>
+      </c>
+      <c r="H42" s="10">
+        <v>42552</v>
+      </c>
       <c r="I42" s="27">
-        <f t="shared" si="144"/>
-        <v>42504</v>
+        <f t="shared" si="146"/>
+        <v>42552</v>
       </c>
       <c r="J42" s="27">
         <f t="shared" si="145"/>
-        <v>-1</v>
+        <v>42552</v>
       </c>
       <c r="K42" s="27" t="str">
-        <f t="shared" ca="1" si="146"/>
-        <v>Em atraso</v>
+        <f t="shared" ca="1" si="141"/>
+        <v>Concluído</v>
       </c>
       <c r="L42" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="13"/>
@@ -11700,35 +13270,41 @@
       <c r="HE42" s="17"/>
     </row>
     <row r="43" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="34"/>
+      <c r="B43" s="34">
+        <v>4</v>
+      </c>
       <c r="C43" s="39" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D43" s="34">
-        <v>2</v>
-      </c>
-      <c r="E43" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="E43" s="34">
+        <v>1</v>
+      </c>
       <c r="F43" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="10">
-        <v>42503</v>
-      </c>
-      <c r="H43" s="10"/>
+        <v>42548</v>
+      </c>
+      <c r="H43" s="10">
+        <v>42552</v>
+      </c>
       <c r="I43" s="27">
-        <f t="shared" si="144"/>
-        <v>42504</v>
+        <f t="shared" si="146"/>
+        <v>42552</v>
       </c>
       <c r="J43" s="27">
         <f t="shared" si="145"/>
-        <v>-1</v>
+        <v>42552</v>
       </c>
       <c r="K43" s="27" t="str">
-        <f t="shared" ca="1" si="146"/>
-        <v>Em atraso</v>
+        <f t="shared" ca="1" si="141"/>
+        <v>Concluído</v>
       </c>
       <c r="L43" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
@@ -11933,35 +13509,41 @@
       <c r="HE43" s="17"/>
     </row>
     <row r="44" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="34"/>
+      <c r="B44" s="34">
+        <v>4</v>
+      </c>
       <c r="C44" s="39" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D44" s="34">
-        <v>2</v>
-      </c>
-      <c r="E44" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="E44" s="34">
+        <v>1</v>
+      </c>
       <c r="F44" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="10">
-        <v>42503</v>
-      </c>
-      <c r="H44" s="10"/>
+        <v>42548</v>
+      </c>
+      <c r="H44" s="10">
+        <v>42552</v>
+      </c>
       <c r="I44" s="27">
-        <f t="shared" si="144"/>
-        <v>42504</v>
+        <f t="shared" si="146"/>
+        <v>42552</v>
       </c>
       <c r="J44" s="27">
         <f t="shared" si="145"/>
-        <v>-1</v>
+        <v>42552</v>
       </c>
       <c r="K44" s="27" t="str">
-        <f t="shared" ca="1" si="146"/>
-        <v>Em atraso</v>
+        <f t="shared" ca="1" si="141"/>
+        <v>Concluído</v>
       </c>
       <c r="L44" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="13"/>
@@ -12166,35 +13748,41 @@
       <c r="HE44" s="17"/>
     </row>
     <row r="45" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="34"/>
+      <c r="B45" s="34">
+        <v>4</v>
+      </c>
       <c r="C45" s="39" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D45" s="34">
-        <v>2</v>
-      </c>
-      <c r="E45" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="E45" s="34">
+        <v>1</v>
+      </c>
       <c r="F45" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="10">
-        <v>42503</v>
-      </c>
-      <c r="H45" s="10"/>
+        <v>42548</v>
+      </c>
+      <c r="H45" s="10">
+        <v>42552</v>
+      </c>
       <c r="I45" s="27">
-        <f t="shared" si="144"/>
-        <v>42504</v>
+        <f t="shared" si="146"/>
+        <v>42552</v>
       </c>
       <c r="J45" s="27">
         <f t="shared" si="145"/>
-        <v>-1</v>
+        <v>42552</v>
       </c>
       <c r="K45" s="27" t="str">
-        <f t="shared" ca="1" si="146"/>
-        <v>Em atraso</v>
+        <f ca="1">IF(F45=1,"Concluído",IF(G45&gt;TODAY(), "A iniciar", IF(AND(I45&lt;TODAY(),F45&lt;1),"Em atraso","Em andamento")))</f>
+        <v>Concluído</v>
       </c>
       <c r="L45" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M45" s="13"/>
       <c r="N45" s="13"/>
@@ -12399,35 +13987,37 @@
       <c r="HE45" s="17"/>
     </row>
     <row r="46" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="34"/>
+      <c r="B46" s="34">
+        <v>4</v>
+      </c>
       <c r="C46" s="39" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D46" s="34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46" s="34"/>
       <c r="F46" s="40">
         <v>0</v>
       </c>
       <c r="G46" s="10">
-        <v>42503</v>
+        <v>42552</v>
       </c>
       <c r="H46" s="10"/>
       <c r="I46" s="27">
-        <f t="shared" si="144"/>
-        <v>42504</v>
+        <f t="shared" si="146"/>
+        <v>42554</v>
       </c>
       <c r="J46" s="27">
         <f t="shared" si="145"/>
         <v>-1</v>
       </c>
       <c r="K46" s="27" t="str">
-        <f t="shared" ca="1" si="146"/>
+        <f t="shared" ref="K46:K56" ca="1" si="147">IF(F46=1,"Concluído",IF(G46&gt;TODAY(), "A iniciar", IF(AND(I46&lt;TODAY(),F46&lt;1),"Em atraso","Em andamento")))</f>
         <v>Em atraso</v>
       </c>
       <c r="L46" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
@@ -12631,38 +14221,38 @@
       <c r="HD46" s="17"/>
       <c r="HE46" s="17"/>
     </row>
-    <row r="47" spans="2:213" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B47" s="34">
-        <v>10</v>
-      </c>
-      <c r="C47" s="42" t="s">
-        <v>33</v>
+        <v>4</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>61</v>
       </c>
       <c r="D47" s="34">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="E47" s="34"/>
       <c r="F47" s="40">
         <v>0</v>
       </c>
       <c r="G47" s="10">
-        <v>42492</v>
+        <v>42552</v>
       </c>
       <c r="H47" s="10"/>
       <c r="I47" s="27">
-        <f>(G47+D47)-1</f>
-        <v>42558</v>
+        <f t="shared" si="146"/>
+        <v>42554</v>
       </c>
       <c r="J47" s="27">
-        <f t="shared" si="143"/>
+        <f t="shared" si="145"/>
         <v>-1</v>
       </c>
       <c r="K47" s="27" t="str">
-        <f t="shared" ca="1" si="141"/>
+        <f t="shared" ca="1" si="147"/>
         <v>Em atraso</v>
       </c>
       <c r="L47" s="41" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M47" s="13"/>
       <c r="N47" s="13"/>
@@ -12866,18 +14456,37 @@
       <c r="HD47" s="17"/>
       <c r="HE47" s="17"/>
     </row>
-    <row r="48" spans="2:213" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
+    <row r="48" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="74">
+        <v>4</v>
+      </c>
+      <c r="C48" s="75" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="76">
+        <v>1</v>
+      </c>
+      <c r="G48" s="77">
+        <v>42552</v>
+      </c>
+      <c r="H48" s="77">
+        <v>42552</v>
+      </c>
+      <c r="I48" s="77">
+        <v>42552</v>
+      </c>
+      <c r="J48" s="77">
+        <v>42552</v>
+      </c>
+      <c r="K48" s="27" t="str">
+        <f t="shared" ca="1" si="147"/>
+        <v>Concluído</v>
+      </c>
+      <c r="L48" s="78" t="s">
+        <v>84</v>
+      </c>
       <c r="M48" s="13"/>
       <c r="N48" s="13"/>
       <c r="O48" s="13"/>
@@ -12899,18 +14508,218 @@
       <c r="AE48" s="13"/>
       <c r="AF48" s="13"/>
       <c r="AG48" s="13"/>
-    </row>
-    <row r="49" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="28"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
+      <c r="AH48" s="17"/>
+      <c r="AI48" s="17"/>
+      <c r="AJ48" s="17"/>
+      <c r="AK48" s="17"/>
+      <c r="AL48" s="17"/>
+      <c r="AM48" s="17"/>
+      <c r="AN48" s="17"/>
+      <c r="AO48" s="17"/>
+      <c r="AP48" s="17"/>
+      <c r="AQ48" s="17"/>
+      <c r="AR48" s="17"/>
+      <c r="AS48" s="17"/>
+      <c r="AT48" s="17"/>
+      <c r="AU48" s="17"/>
+      <c r="AV48" s="17"/>
+      <c r="AW48" s="17"/>
+      <c r="AX48" s="17"/>
+      <c r="AY48" s="17"/>
+      <c r="AZ48" s="17"/>
+      <c r="BA48" s="17"/>
+      <c r="BB48" s="17"/>
+      <c r="BC48" s="17"/>
+      <c r="BD48" s="17"/>
+      <c r="BE48" s="17"/>
+      <c r="BF48" s="17"/>
+      <c r="BG48" s="17"/>
+      <c r="BH48" s="17"/>
+      <c r="BI48" s="17"/>
+      <c r="BJ48" s="17"/>
+      <c r="BK48" s="17"/>
+      <c r="BL48" s="17"/>
+      <c r="BM48" s="17"/>
+      <c r="BN48" s="17"/>
+      <c r="BO48" s="17"/>
+      <c r="BP48" s="17"/>
+      <c r="BQ48" s="17"/>
+      <c r="BR48" s="17"/>
+      <c r="BS48" s="17"/>
+      <c r="BT48" s="17"/>
+      <c r="BU48" s="17"/>
+      <c r="BV48" s="17"/>
+      <c r="BW48" s="17"/>
+      <c r="BX48" s="17"/>
+      <c r="BY48" s="17"/>
+      <c r="BZ48" s="17"/>
+      <c r="CA48" s="17"/>
+      <c r="CB48" s="17"/>
+      <c r="CC48" s="17"/>
+      <c r="CD48" s="17"/>
+      <c r="CE48" s="17"/>
+      <c r="CF48" s="17"/>
+      <c r="CG48" s="17"/>
+      <c r="CH48" s="17"/>
+      <c r="CI48" s="17"/>
+      <c r="CJ48" s="17"/>
+      <c r="CK48" s="17"/>
+      <c r="CL48" s="17"/>
+      <c r="CM48" s="17"/>
+      <c r="CN48" s="17"/>
+      <c r="CO48" s="17"/>
+      <c r="CP48" s="17"/>
+      <c r="CQ48" s="17"/>
+      <c r="CR48" s="17"/>
+      <c r="CS48" s="17"/>
+      <c r="CT48" s="17"/>
+      <c r="CU48" s="17"/>
+      <c r="CV48" s="17"/>
+      <c r="CW48" s="17"/>
+      <c r="CX48" s="17"/>
+      <c r="CY48" s="17"/>
+      <c r="CZ48" s="17"/>
+      <c r="DA48" s="17"/>
+      <c r="DB48" s="17"/>
+      <c r="DC48" s="17"/>
+      <c r="DD48" s="17"/>
+      <c r="DE48" s="17"/>
+      <c r="DF48" s="17"/>
+      <c r="DG48" s="17"/>
+      <c r="DH48" s="17"/>
+      <c r="DI48" s="17"/>
+      <c r="DJ48" s="17"/>
+      <c r="DK48" s="17"/>
+      <c r="DL48" s="17"/>
+      <c r="DM48" s="17"/>
+      <c r="DN48" s="17"/>
+      <c r="DO48" s="17"/>
+      <c r="DP48" s="17"/>
+      <c r="DQ48" s="17"/>
+      <c r="DR48" s="17"/>
+      <c r="DS48" s="17"/>
+      <c r="DT48" s="17"/>
+      <c r="DU48" s="17"/>
+      <c r="DV48" s="17"/>
+      <c r="DW48" s="17"/>
+      <c r="DX48" s="17"/>
+      <c r="DY48" s="17"/>
+      <c r="DZ48" s="17"/>
+      <c r="EA48" s="17"/>
+      <c r="EB48" s="17"/>
+      <c r="EC48" s="17"/>
+      <c r="ED48" s="17"/>
+      <c r="EE48" s="17"/>
+      <c r="EF48" s="17"/>
+      <c r="EG48" s="17"/>
+      <c r="EH48" s="17"/>
+      <c r="EI48" s="17"/>
+      <c r="EJ48" s="17"/>
+      <c r="EK48" s="17"/>
+      <c r="EL48" s="17"/>
+      <c r="EM48" s="17"/>
+      <c r="EN48" s="17"/>
+      <c r="EO48" s="17"/>
+      <c r="EP48" s="17"/>
+      <c r="EQ48" s="17"/>
+      <c r="ER48" s="17"/>
+      <c r="ES48" s="17"/>
+      <c r="ET48" s="17"/>
+      <c r="EU48" s="17"/>
+      <c r="EV48" s="17"/>
+      <c r="EW48" s="17"/>
+      <c r="EX48" s="17"/>
+      <c r="EY48" s="17"/>
+      <c r="EZ48" s="17"/>
+      <c r="FA48" s="17"/>
+      <c r="FB48" s="17"/>
+      <c r="FC48" s="17"/>
+      <c r="FD48" s="17"/>
+      <c r="FE48" s="17"/>
+      <c r="FF48" s="17"/>
+      <c r="FG48" s="17"/>
+      <c r="FH48" s="17"/>
+      <c r="FI48" s="17"/>
+      <c r="FJ48" s="17"/>
+      <c r="FK48" s="17"/>
+      <c r="FL48" s="17"/>
+      <c r="FM48" s="17"/>
+      <c r="FN48" s="17"/>
+      <c r="FO48" s="17"/>
+      <c r="FP48" s="17"/>
+      <c r="FQ48" s="17"/>
+      <c r="FR48" s="17"/>
+      <c r="FS48" s="17"/>
+      <c r="FT48" s="17"/>
+      <c r="FU48" s="17"/>
+      <c r="FV48" s="17"/>
+      <c r="FW48" s="17"/>
+      <c r="FX48" s="17"/>
+      <c r="FY48" s="17"/>
+      <c r="FZ48" s="17"/>
+      <c r="GA48" s="17"/>
+      <c r="GB48" s="17"/>
+      <c r="GC48" s="17"/>
+      <c r="GD48" s="17"/>
+      <c r="GE48" s="17"/>
+      <c r="GF48" s="17"/>
+      <c r="GG48" s="17"/>
+      <c r="GH48" s="17"/>
+      <c r="GI48" s="17"/>
+      <c r="GJ48" s="17"/>
+      <c r="GK48" s="17"/>
+      <c r="GL48" s="17"/>
+      <c r="GM48" s="17"/>
+      <c r="GN48" s="17"/>
+      <c r="GO48" s="17"/>
+      <c r="GP48" s="17"/>
+      <c r="GQ48" s="17"/>
+      <c r="GR48" s="17"/>
+      <c r="GS48" s="17"/>
+      <c r="GT48" s="17"/>
+      <c r="GU48" s="17"/>
+      <c r="GV48" s="17"/>
+      <c r="GW48" s="17"/>
+      <c r="GX48" s="17"/>
+      <c r="GY48" s="17"/>
+      <c r="GZ48" s="17"/>
+      <c r="HA48" s="17"/>
+      <c r="HB48" s="17"/>
+      <c r="HC48" s="17"/>
+      <c r="HD48" s="17"/>
+      <c r="HE48" s="17"/>
+    </row>
+    <row r="49" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="74">
+        <v>4</v>
+      </c>
+      <c r="C49" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" s="74"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="76">
+        <v>0</v>
+      </c>
+      <c r="G49" s="77">
+        <v>42554</v>
+      </c>
+      <c r="H49" s="77">
+        <v>42554</v>
+      </c>
+      <c r="I49" s="77">
+        <v>42554</v>
+      </c>
+      <c r="J49" s="77">
+        <v>42554</v>
+      </c>
+      <c r="K49" s="27" t="str">
+        <f ca="1">IF(F49=1,"Concluído",IF(G49&gt;TODAY(), "A iniciar", IF(AND(I49&lt;TODAY(),F49&lt;1),"Em atraso","Em andamento")))</f>
+        <v>Em atraso</v>
+      </c>
+      <c r="L49" s="78" t="s">
+        <v>84</v>
+      </c>
       <c r="M49" s="13"/>
       <c r="N49" s="13"/>
       <c r="O49" s="13"/>
@@ -12932,19 +14741,218 @@
       <c r="AE49" s="13"/>
       <c r="AF49" s="13"/>
       <c r="AG49" s="13"/>
-    </row>
-    <row r="50" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
+      <c r="AH49" s="17"/>
+      <c r="AI49" s="17"/>
+      <c r="AJ49" s="17"/>
+      <c r="AK49" s="17"/>
+      <c r="AL49" s="17"/>
+      <c r="AM49" s="17"/>
+      <c r="AN49" s="17"/>
+      <c r="AO49" s="17"/>
+      <c r="AP49" s="17"/>
+      <c r="AQ49" s="17"/>
+      <c r="AR49" s="17"/>
+      <c r="AS49" s="17"/>
+      <c r="AT49" s="17"/>
+      <c r="AU49" s="17"/>
+      <c r="AV49" s="17"/>
+      <c r="AW49" s="17"/>
+      <c r="AX49" s="17"/>
+      <c r="AY49" s="17"/>
+      <c r="AZ49" s="17"/>
+      <c r="BA49" s="17"/>
+      <c r="BB49" s="17"/>
+      <c r="BC49" s="17"/>
+      <c r="BD49" s="17"/>
+      <c r="BE49" s="17"/>
+      <c r="BF49" s="17"/>
+      <c r="BG49" s="17"/>
+      <c r="BH49" s="17"/>
+      <c r="BI49" s="17"/>
+      <c r="BJ49" s="17"/>
+      <c r="BK49" s="17"/>
+      <c r="BL49" s="17"/>
+      <c r="BM49" s="17"/>
+      <c r="BN49" s="17"/>
+      <c r="BO49" s="17"/>
+      <c r="BP49" s="17"/>
+      <c r="BQ49" s="17"/>
+      <c r="BR49" s="17"/>
+      <c r="BS49" s="17"/>
+      <c r="BT49" s="17"/>
+      <c r="BU49" s="17"/>
+      <c r="BV49" s="17"/>
+      <c r="BW49" s="17"/>
+      <c r="BX49" s="17"/>
+      <c r="BY49" s="17"/>
+      <c r="BZ49" s="17"/>
+      <c r="CA49" s="17"/>
+      <c r="CB49" s="17"/>
+      <c r="CC49" s="17"/>
+      <c r="CD49" s="17"/>
+      <c r="CE49" s="17"/>
+      <c r="CF49" s="17"/>
+      <c r="CG49" s="17"/>
+      <c r="CH49" s="17"/>
+      <c r="CI49" s="17"/>
+      <c r="CJ49" s="17"/>
+      <c r="CK49" s="17"/>
+      <c r="CL49" s="17"/>
+      <c r="CM49" s="17"/>
+      <c r="CN49" s="17"/>
+      <c r="CO49" s="17"/>
+      <c r="CP49" s="17"/>
+      <c r="CQ49" s="17"/>
+      <c r="CR49" s="17"/>
+      <c r="CS49" s="17"/>
+      <c r="CT49" s="17"/>
+      <c r="CU49" s="17"/>
+      <c r="CV49" s="17"/>
+      <c r="CW49" s="17"/>
+      <c r="CX49" s="17"/>
+      <c r="CY49" s="17"/>
+      <c r="CZ49" s="17"/>
+      <c r="DA49" s="17"/>
+      <c r="DB49" s="17"/>
+      <c r="DC49" s="17"/>
+      <c r="DD49" s="17"/>
+      <c r="DE49" s="17"/>
+      <c r="DF49" s="17"/>
+      <c r="DG49" s="17"/>
+      <c r="DH49" s="17"/>
+      <c r="DI49" s="17"/>
+      <c r="DJ49" s="17"/>
+      <c r="DK49" s="17"/>
+      <c r="DL49" s="17"/>
+      <c r="DM49" s="17"/>
+      <c r="DN49" s="17"/>
+      <c r="DO49" s="17"/>
+      <c r="DP49" s="17"/>
+      <c r="DQ49" s="17"/>
+      <c r="DR49" s="17"/>
+      <c r="DS49" s="17"/>
+      <c r="DT49" s="17"/>
+      <c r="DU49" s="17"/>
+      <c r="DV49" s="17"/>
+      <c r="DW49" s="17"/>
+      <c r="DX49" s="17"/>
+      <c r="DY49" s="17"/>
+      <c r="DZ49" s="17"/>
+      <c r="EA49" s="17"/>
+      <c r="EB49" s="17"/>
+      <c r="EC49" s="17"/>
+      <c r="ED49" s="17"/>
+      <c r="EE49" s="17"/>
+      <c r="EF49" s="17"/>
+      <c r="EG49" s="17"/>
+      <c r="EH49" s="17"/>
+      <c r="EI49" s="17"/>
+      <c r="EJ49" s="17"/>
+      <c r="EK49" s="17"/>
+      <c r="EL49" s="17"/>
+      <c r="EM49" s="17"/>
+      <c r="EN49" s="17"/>
+      <c r="EO49" s="17"/>
+      <c r="EP49" s="17"/>
+      <c r="EQ49" s="17"/>
+      <c r="ER49" s="17"/>
+      <c r="ES49" s="17"/>
+      <c r="ET49" s="17"/>
+      <c r="EU49" s="17"/>
+      <c r="EV49" s="17"/>
+      <c r="EW49" s="17"/>
+      <c r="EX49" s="17"/>
+      <c r="EY49" s="17"/>
+      <c r="EZ49" s="17"/>
+      <c r="FA49" s="17"/>
+      <c r="FB49" s="17"/>
+      <c r="FC49" s="17"/>
+      <c r="FD49" s="17"/>
+      <c r="FE49" s="17"/>
+      <c r="FF49" s="17"/>
+      <c r="FG49" s="17"/>
+      <c r="FH49" s="17"/>
+      <c r="FI49" s="17"/>
+      <c r="FJ49" s="17"/>
+      <c r="FK49" s="17"/>
+      <c r="FL49" s="17"/>
+      <c r="FM49" s="17"/>
+      <c r="FN49" s="17"/>
+      <c r="FO49" s="17"/>
+      <c r="FP49" s="17"/>
+      <c r="FQ49" s="17"/>
+      <c r="FR49" s="17"/>
+      <c r="FS49" s="17"/>
+      <c r="FT49" s="17"/>
+      <c r="FU49" s="17"/>
+      <c r="FV49" s="17"/>
+      <c r="FW49" s="17"/>
+      <c r="FX49" s="17"/>
+      <c r="FY49" s="17"/>
+      <c r="FZ49" s="17"/>
+      <c r="GA49" s="17"/>
+      <c r="GB49" s="17"/>
+      <c r="GC49" s="17"/>
+      <c r="GD49" s="17"/>
+      <c r="GE49" s="17"/>
+      <c r="GF49" s="17"/>
+      <c r="GG49" s="17"/>
+      <c r="GH49" s="17"/>
+      <c r="GI49" s="17"/>
+      <c r="GJ49" s="17"/>
+      <c r="GK49" s="17"/>
+      <c r="GL49" s="17"/>
+      <c r="GM49" s="17"/>
+      <c r="GN49" s="17"/>
+      <c r="GO49" s="17"/>
+      <c r="GP49" s="17"/>
+      <c r="GQ49" s="17"/>
+      <c r="GR49" s="17"/>
+      <c r="GS49" s="17"/>
+      <c r="GT49" s="17"/>
+      <c r="GU49" s="17"/>
+      <c r="GV49" s="17"/>
+      <c r="GW49" s="17"/>
+      <c r="GX49" s="17"/>
+      <c r="GY49" s="17"/>
+      <c r="GZ49" s="17"/>
+      <c r="HA49" s="17"/>
+      <c r="HB49" s="17"/>
+      <c r="HC49" s="17"/>
+      <c r="HD49" s="17"/>
+      <c r="HE49" s="17"/>
+    </row>
+    <row r="50" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="79">
+        <v>4</v>
+      </c>
+      <c r="C50" s="80" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" s="79"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="81">
+        <v>0</v>
+      </c>
+      <c r="G50" s="82">
+        <v>42554</v>
+      </c>
+      <c r="H50" s="82">
+        <v>42554</v>
+      </c>
+      <c r="I50" s="82">
+        <v>42554</v>
+      </c>
+      <c r="J50" s="82">
+        <v>42554</v>
+      </c>
+      <c r="K50" s="27" t="str">
+        <f t="shared" ca="1" si="147"/>
+        <v>Em atraso</v>
+      </c>
+      <c r="L50" s="78" t="s">
+        <v>84</v>
+      </c>
       <c r="M50" s="13"/>
       <c r="N50" s="13"/>
       <c r="O50" s="13"/>
@@ -12966,19 +14974,223 @@
       <c r="AE50" s="13"/>
       <c r="AF50" s="13"/>
       <c r="AG50" s="13"/>
-    </row>
-    <row r="51" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
+      <c r="AH50" s="17"/>
+      <c r="AI50" s="17"/>
+      <c r="AJ50" s="17"/>
+      <c r="AK50" s="17"/>
+      <c r="AL50" s="17"/>
+      <c r="AM50" s="17"/>
+      <c r="AN50" s="17"/>
+      <c r="AO50" s="17"/>
+      <c r="AP50" s="17"/>
+      <c r="AQ50" s="17"/>
+      <c r="AR50" s="17"/>
+      <c r="AS50" s="17"/>
+      <c r="AT50" s="17"/>
+      <c r="AU50" s="17"/>
+      <c r="AV50" s="17"/>
+      <c r="AW50" s="17"/>
+      <c r="AX50" s="17"/>
+      <c r="AY50" s="17"/>
+      <c r="AZ50" s="17"/>
+      <c r="BA50" s="17"/>
+      <c r="BB50" s="17"/>
+      <c r="BC50" s="17"/>
+      <c r="BD50" s="17"/>
+      <c r="BE50" s="17"/>
+      <c r="BF50" s="17"/>
+      <c r="BG50" s="17"/>
+      <c r="BH50" s="17"/>
+      <c r="BI50" s="17"/>
+      <c r="BJ50" s="17"/>
+      <c r="BK50" s="17"/>
+      <c r="BL50" s="17"/>
+      <c r="BM50" s="17"/>
+      <c r="BN50" s="17"/>
+      <c r="BO50" s="17"/>
+      <c r="BP50" s="17"/>
+      <c r="BQ50" s="17"/>
+      <c r="BR50" s="17"/>
+      <c r="BS50" s="17"/>
+      <c r="BT50" s="17"/>
+      <c r="BU50" s="17"/>
+      <c r="BV50" s="17"/>
+      <c r="BW50" s="17"/>
+      <c r="BX50" s="17"/>
+      <c r="BY50" s="17"/>
+      <c r="BZ50" s="17"/>
+      <c r="CA50" s="17"/>
+      <c r="CB50" s="17"/>
+      <c r="CC50" s="17"/>
+      <c r="CD50" s="17"/>
+      <c r="CE50" s="17"/>
+      <c r="CF50" s="17"/>
+      <c r="CG50" s="17"/>
+      <c r="CH50" s="17"/>
+      <c r="CI50" s="17"/>
+      <c r="CJ50" s="17"/>
+      <c r="CK50" s="17"/>
+      <c r="CL50" s="17"/>
+      <c r="CM50" s="17"/>
+      <c r="CN50" s="17"/>
+      <c r="CO50" s="17"/>
+      <c r="CP50" s="17"/>
+      <c r="CQ50" s="17"/>
+      <c r="CR50" s="17"/>
+      <c r="CS50" s="17"/>
+      <c r="CT50" s="17"/>
+      <c r="CU50" s="17"/>
+      <c r="CV50" s="17"/>
+      <c r="CW50" s="17"/>
+      <c r="CX50" s="17"/>
+      <c r="CY50" s="17"/>
+      <c r="CZ50" s="17"/>
+      <c r="DA50" s="17"/>
+      <c r="DB50" s="17"/>
+      <c r="DC50" s="17"/>
+      <c r="DD50" s="17"/>
+      <c r="DE50" s="17"/>
+      <c r="DF50" s="17"/>
+      <c r="DG50" s="17"/>
+      <c r="DH50" s="17"/>
+      <c r="DI50" s="17"/>
+      <c r="DJ50" s="17"/>
+      <c r="DK50" s="17"/>
+      <c r="DL50" s="17"/>
+      <c r="DM50" s="17"/>
+      <c r="DN50" s="17"/>
+      <c r="DO50" s="17"/>
+      <c r="DP50" s="17"/>
+      <c r="DQ50" s="17"/>
+      <c r="DR50" s="17"/>
+      <c r="DS50" s="17"/>
+      <c r="DT50" s="17"/>
+      <c r="DU50" s="17"/>
+      <c r="DV50" s="17"/>
+      <c r="DW50" s="17"/>
+      <c r="DX50" s="17"/>
+      <c r="DY50" s="17"/>
+      <c r="DZ50" s="17"/>
+      <c r="EA50" s="17"/>
+      <c r="EB50" s="17"/>
+      <c r="EC50" s="17"/>
+      <c r="ED50" s="17"/>
+      <c r="EE50" s="17"/>
+      <c r="EF50" s="17"/>
+      <c r="EG50" s="17"/>
+      <c r="EH50" s="17"/>
+      <c r="EI50" s="17"/>
+      <c r="EJ50" s="17"/>
+      <c r="EK50" s="17"/>
+      <c r="EL50" s="17"/>
+      <c r="EM50" s="17"/>
+      <c r="EN50" s="17"/>
+      <c r="EO50" s="17"/>
+      <c r="EP50" s="17"/>
+      <c r="EQ50" s="17"/>
+      <c r="ER50" s="17"/>
+      <c r="ES50" s="17"/>
+      <c r="ET50" s="17"/>
+      <c r="EU50" s="17"/>
+      <c r="EV50" s="17"/>
+      <c r="EW50" s="17"/>
+      <c r="EX50" s="17"/>
+      <c r="EY50" s="17"/>
+      <c r="EZ50" s="17"/>
+      <c r="FA50" s="17"/>
+      <c r="FB50" s="17"/>
+      <c r="FC50" s="17"/>
+      <c r="FD50" s="17"/>
+      <c r="FE50" s="17"/>
+      <c r="FF50" s="17"/>
+      <c r="FG50" s="17"/>
+      <c r="FH50" s="17"/>
+      <c r="FI50" s="17"/>
+      <c r="FJ50" s="17"/>
+      <c r="FK50" s="17"/>
+      <c r="FL50" s="17"/>
+      <c r="FM50" s="17"/>
+      <c r="FN50" s="17"/>
+      <c r="FO50" s="17"/>
+      <c r="FP50" s="17"/>
+      <c r="FQ50" s="17"/>
+      <c r="FR50" s="17"/>
+      <c r="FS50" s="17"/>
+      <c r="FT50" s="17"/>
+      <c r="FU50" s="17"/>
+      <c r="FV50" s="17"/>
+      <c r="FW50" s="17"/>
+      <c r="FX50" s="17"/>
+      <c r="FY50" s="17"/>
+      <c r="FZ50" s="17"/>
+      <c r="GA50" s="17"/>
+      <c r="GB50" s="17"/>
+      <c r="GC50" s="17"/>
+      <c r="GD50" s="17"/>
+      <c r="GE50" s="17"/>
+      <c r="GF50" s="17"/>
+      <c r="GG50" s="17"/>
+      <c r="GH50" s="17"/>
+      <c r="GI50" s="17"/>
+      <c r="GJ50" s="17"/>
+      <c r="GK50" s="17"/>
+      <c r="GL50" s="17"/>
+      <c r="GM50" s="17"/>
+      <c r="GN50" s="17"/>
+      <c r="GO50" s="17"/>
+      <c r="GP50" s="17"/>
+      <c r="GQ50" s="17"/>
+      <c r="GR50" s="17"/>
+      <c r="GS50" s="17"/>
+      <c r="GT50" s="17"/>
+      <c r="GU50" s="17"/>
+      <c r="GV50" s="17"/>
+      <c r="GW50" s="17"/>
+      <c r="GX50" s="17"/>
+      <c r="GY50" s="17"/>
+      <c r="GZ50" s="17"/>
+      <c r="HA50" s="17"/>
+      <c r="HB50" s="17"/>
+      <c r="HC50" s="17"/>
+      <c r="HD50" s="17"/>
+      <c r="HE50" s="17"/>
+    </row>
+    <row r="51" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="83">
+        <v>5</v>
+      </c>
+      <c r="C51" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" s="83">
+        <v>5</v>
+      </c>
+      <c r="E51" s="83">
+        <v>5</v>
+      </c>
+      <c r="F51" s="40">
+        <v>1</v>
+      </c>
+      <c r="G51" s="85">
+        <v>42555</v>
+      </c>
+      <c r="H51" s="85">
+        <v>42555</v>
+      </c>
+      <c r="I51" s="85">
+        <v>42559</v>
+      </c>
+      <c r="J51" s="27">
+        <f t="shared" si="145"/>
+        <v>42559</v>
+      </c>
+      <c r="K51" s="27" t="str">
+        <f t="shared" ca="1" si="147"/>
+        <v>Concluído</v>
+      </c>
+      <c r="L51" s="41" t="s">
+        <v>33</v>
+      </c>
       <c r="M51" s="13"/>
       <c r="N51" s="13"/>
       <c r="O51" s="13"/>
@@ -13000,19 +15212,220 @@
       <c r="AE51" s="13"/>
       <c r="AF51" s="13"/>
       <c r="AG51" s="13"/>
-    </row>
-    <row r="52" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
+      <c r="AH51" s="17"/>
+      <c r="AI51" s="17"/>
+      <c r="AJ51" s="17"/>
+      <c r="AK51" s="17"/>
+      <c r="AL51" s="17"/>
+      <c r="AM51" s="17"/>
+      <c r="AN51" s="17"/>
+      <c r="AO51" s="17"/>
+      <c r="AP51" s="17"/>
+      <c r="AQ51" s="17"/>
+      <c r="AR51" s="17"/>
+      <c r="AS51" s="17"/>
+      <c r="AT51" s="17"/>
+      <c r="AU51" s="17"/>
+      <c r="AV51" s="17"/>
+      <c r="AW51" s="17"/>
+      <c r="AX51" s="17"/>
+      <c r="AY51" s="17"/>
+      <c r="AZ51" s="17"/>
+      <c r="BA51" s="17"/>
+      <c r="BB51" s="17"/>
+      <c r="BC51" s="17"/>
+      <c r="BD51" s="17"/>
+      <c r="BE51" s="17"/>
+      <c r="BF51" s="17"/>
+      <c r="BG51" s="17"/>
+      <c r="BH51" s="17"/>
+      <c r="BI51" s="17"/>
+      <c r="BJ51" s="17"/>
+      <c r="BK51" s="17"/>
+      <c r="BL51" s="17"/>
+      <c r="BM51" s="17"/>
+      <c r="BN51" s="17"/>
+      <c r="BO51" s="17"/>
+      <c r="BP51" s="17"/>
+      <c r="BQ51" s="17"/>
+      <c r="BR51" s="17"/>
+      <c r="BS51" s="17"/>
+      <c r="BT51" s="17"/>
+      <c r="BU51" s="17"/>
+      <c r="BV51" s="17"/>
+      <c r="BW51" s="17"/>
+      <c r="BX51" s="17"/>
+      <c r="BY51" s="17"/>
+      <c r="BZ51" s="17"/>
+      <c r="CA51" s="17"/>
+      <c r="CB51" s="17"/>
+      <c r="CC51" s="17"/>
+      <c r="CD51" s="17"/>
+      <c r="CE51" s="17"/>
+      <c r="CF51" s="17"/>
+      <c r="CG51" s="17"/>
+      <c r="CH51" s="17"/>
+      <c r="CI51" s="17"/>
+      <c r="CJ51" s="17"/>
+      <c r="CK51" s="17"/>
+      <c r="CL51" s="17"/>
+      <c r="CM51" s="17"/>
+      <c r="CN51" s="17"/>
+      <c r="CO51" s="17"/>
+      <c r="CP51" s="17"/>
+      <c r="CQ51" s="17"/>
+      <c r="CR51" s="17"/>
+      <c r="CS51" s="17"/>
+      <c r="CT51" s="17"/>
+      <c r="CU51" s="17"/>
+      <c r="CV51" s="17"/>
+      <c r="CW51" s="17"/>
+      <c r="CX51" s="17"/>
+      <c r="CY51" s="17"/>
+      <c r="CZ51" s="17"/>
+      <c r="DA51" s="17"/>
+      <c r="DB51" s="17"/>
+      <c r="DC51" s="17"/>
+      <c r="DD51" s="17"/>
+      <c r="DE51" s="17"/>
+      <c r="DF51" s="17"/>
+      <c r="DG51" s="17"/>
+      <c r="DH51" s="17"/>
+      <c r="DI51" s="17"/>
+      <c r="DJ51" s="17"/>
+      <c r="DK51" s="17"/>
+      <c r="DL51" s="17"/>
+      <c r="DM51" s="17"/>
+      <c r="DN51" s="17"/>
+      <c r="DO51" s="17"/>
+      <c r="DP51" s="17"/>
+      <c r="DQ51" s="17"/>
+      <c r="DR51" s="17"/>
+      <c r="DS51" s="17"/>
+      <c r="DT51" s="17"/>
+      <c r="DU51" s="17"/>
+      <c r="DV51" s="17"/>
+      <c r="DW51" s="17"/>
+      <c r="DX51" s="17"/>
+      <c r="DY51" s="17"/>
+      <c r="DZ51" s="17"/>
+      <c r="EA51" s="17"/>
+      <c r="EB51" s="17"/>
+      <c r="EC51" s="17"/>
+      <c r="ED51" s="17"/>
+      <c r="EE51" s="17"/>
+      <c r="EF51" s="17"/>
+      <c r="EG51" s="17"/>
+      <c r="EH51" s="17"/>
+      <c r="EI51" s="17"/>
+      <c r="EJ51" s="17"/>
+      <c r="EK51" s="17"/>
+      <c r="EL51" s="17"/>
+      <c r="EM51" s="17"/>
+      <c r="EN51" s="17"/>
+      <c r="EO51" s="17"/>
+      <c r="EP51" s="17"/>
+      <c r="EQ51" s="17"/>
+      <c r="ER51" s="17"/>
+      <c r="ES51" s="17"/>
+      <c r="ET51" s="17"/>
+      <c r="EU51" s="17"/>
+      <c r="EV51" s="17"/>
+      <c r="EW51" s="17"/>
+      <c r="EX51" s="17"/>
+      <c r="EY51" s="17"/>
+      <c r="EZ51" s="17"/>
+      <c r="FA51" s="17"/>
+      <c r="FB51" s="17"/>
+      <c r="FC51" s="17"/>
+      <c r="FD51" s="17"/>
+      <c r="FE51" s="17"/>
+      <c r="FF51" s="17"/>
+      <c r="FG51" s="17"/>
+      <c r="FH51" s="17"/>
+      <c r="FI51" s="17"/>
+      <c r="FJ51" s="17"/>
+      <c r="FK51" s="17"/>
+      <c r="FL51" s="17"/>
+      <c r="FM51" s="17"/>
+      <c r="FN51" s="17"/>
+      <c r="FO51" s="17"/>
+      <c r="FP51" s="17"/>
+      <c r="FQ51" s="17"/>
+      <c r="FR51" s="17"/>
+      <c r="FS51" s="17"/>
+      <c r="FT51" s="17"/>
+      <c r="FU51" s="17"/>
+      <c r="FV51" s="17"/>
+      <c r="FW51" s="17"/>
+      <c r="FX51" s="17"/>
+      <c r="FY51" s="17"/>
+      <c r="FZ51" s="17"/>
+      <c r="GA51" s="17"/>
+      <c r="GB51" s="17"/>
+      <c r="GC51" s="17"/>
+      <c r="GD51" s="17"/>
+      <c r="GE51" s="17"/>
+      <c r="GF51" s="17"/>
+      <c r="GG51" s="17"/>
+      <c r="GH51" s="17"/>
+      <c r="GI51" s="17"/>
+      <c r="GJ51" s="17"/>
+      <c r="GK51" s="17"/>
+      <c r="GL51" s="17"/>
+      <c r="GM51" s="17"/>
+      <c r="GN51" s="17"/>
+      <c r="GO51" s="17"/>
+      <c r="GP51" s="17"/>
+      <c r="GQ51" s="17"/>
+      <c r="GR51" s="17"/>
+      <c r="GS51" s="17"/>
+      <c r="GT51" s="17"/>
+      <c r="GU51" s="17"/>
+      <c r="GV51" s="17"/>
+      <c r="GW51" s="17"/>
+      <c r="GX51" s="17"/>
+      <c r="GY51" s="17"/>
+      <c r="GZ51" s="17"/>
+      <c r="HA51" s="17"/>
+      <c r="HB51" s="17"/>
+      <c r="HC51" s="17"/>
+      <c r="HD51" s="17"/>
+      <c r="HE51" s="17"/>
+    </row>
+    <row r="52" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="34">
+        <v>5</v>
+      </c>
+      <c r="C52" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="34">
+        <v>5</v>
+      </c>
+      <c r="E52" s="34"/>
+      <c r="F52" s="40">
+        <v>0</v>
+      </c>
+      <c r="G52" s="10">
+        <v>42562</v>
+      </c>
+      <c r="H52" s="10"/>
+      <c r="I52" s="27">
+        <f>(G52+D52)-1</f>
+        <v>42566</v>
+      </c>
+      <c r="J52" s="27">
+        <f t="shared" si="145"/>
+        <v>-1</v>
+      </c>
+      <c r="K52" s="27" t="str">
+        <f t="shared" ca="1" si="147"/>
+        <v>Em andamento</v>
+      </c>
+      <c r="L52" s="41" t="s">
+        <v>33</v>
+      </c>
       <c r="M52" s="13"/>
       <c r="N52" s="13"/>
       <c r="O52" s="13"/>
@@ -13034,19 +15447,220 @@
       <c r="AE52" s="13"/>
       <c r="AF52" s="13"/>
       <c r="AG52" s="13"/>
-    </row>
-    <row r="53" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
+      <c r="AH52" s="17"/>
+      <c r="AI52" s="17"/>
+      <c r="AJ52" s="17"/>
+      <c r="AK52" s="17"/>
+      <c r="AL52" s="17"/>
+      <c r="AM52" s="17"/>
+      <c r="AN52" s="17"/>
+      <c r="AO52" s="17"/>
+      <c r="AP52" s="17"/>
+      <c r="AQ52" s="17"/>
+      <c r="AR52" s="17"/>
+      <c r="AS52" s="17"/>
+      <c r="AT52" s="17"/>
+      <c r="AU52" s="17"/>
+      <c r="AV52" s="17"/>
+      <c r="AW52" s="17"/>
+      <c r="AX52" s="17"/>
+      <c r="AY52" s="17"/>
+      <c r="AZ52" s="17"/>
+      <c r="BA52" s="17"/>
+      <c r="BB52" s="17"/>
+      <c r="BC52" s="17"/>
+      <c r="BD52" s="17"/>
+      <c r="BE52" s="17"/>
+      <c r="BF52" s="17"/>
+      <c r="BG52" s="17"/>
+      <c r="BH52" s="17"/>
+      <c r="BI52" s="17"/>
+      <c r="BJ52" s="17"/>
+      <c r="BK52" s="17"/>
+      <c r="BL52" s="17"/>
+      <c r="BM52" s="17"/>
+      <c r="BN52" s="17"/>
+      <c r="BO52" s="17"/>
+      <c r="BP52" s="17"/>
+      <c r="BQ52" s="17"/>
+      <c r="BR52" s="17"/>
+      <c r="BS52" s="17"/>
+      <c r="BT52" s="17"/>
+      <c r="BU52" s="17"/>
+      <c r="BV52" s="17"/>
+      <c r="BW52" s="17"/>
+      <c r="BX52" s="17"/>
+      <c r="BY52" s="17"/>
+      <c r="BZ52" s="17"/>
+      <c r="CA52" s="17"/>
+      <c r="CB52" s="17"/>
+      <c r="CC52" s="17"/>
+      <c r="CD52" s="17"/>
+      <c r="CE52" s="17"/>
+      <c r="CF52" s="17"/>
+      <c r="CG52" s="17"/>
+      <c r="CH52" s="17"/>
+      <c r="CI52" s="17"/>
+      <c r="CJ52" s="17"/>
+      <c r="CK52" s="17"/>
+      <c r="CL52" s="17"/>
+      <c r="CM52" s="17"/>
+      <c r="CN52" s="17"/>
+      <c r="CO52" s="17"/>
+      <c r="CP52" s="17"/>
+      <c r="CQ52" s="17"/>
+      <c r="CR52" s="17"/>
+      <c r="CS52" s="17"/>
+      <c r="CT52" s="17"/>
+      <c r="CU52" s="17"/>
+      <c r="CV52" s="17"/>
+      <c r="CW52" s="17"/>
+      <c r="CX52" s="17"/>
+      <c r="CY52" s="17"/>
+      <c r="CZ52" s="17"/>
+      <c r="DA52" s="17"/>
+      <c r="DB52" s="17"/>
+      <c r="DC52" s="17"/>
+      <c r="DD52" s="17"/>
+      <c r="DE52" s="17"/>
+      <c r="DF52" s="17"/>
+      <c r="DG52" s="17"/>
+      <c r="DH52" s="17"/>
+      <c r="DI52" s="17"/>
+      <c r="DJ52" s="17"/>
+      <c r="DK52" s="17"/>
+      <c r="DL52" s="17"/>
+      <c r="DM52" s="17"/>
+      <c r="DN52" s="17"/>
+      <c r="DO52" s="17"/>
+      <c r="DP52" s="17"/>
+      <c r="DQ52" s="17"/>
+      <c r="DR52" s="17"/>
+      <c r="DS52" s="17"/>
+      <c r="DT52" s="17"/>
+      <c r="DU52" s="17"/>
+      <c r="DV52" s="17"/>
+      <c r="DW52" s="17"/>
+      <c r="DX52" s="17"/>
+      <c r="DY52" s="17"/>
+      <c r="DZ52" s="17"/>
+      <c r="EA52" s="17"/>
+      <c r="EB52" s="17"/>
+      <c r="EC52" s="17"/>
+      <c r="ED52" s="17"/>
+      <c r="EE52" s="17"/>
+      <c r="EF52" s="17"/>
+      <c r="EG52" s="17"/>
+      <c r="EH52" s="17"/>
+      <c r="EI52" s="17"/>
+      <c r="EJ52" s="17"/>
+      <c r="EK52" s="17"/>
+      <c r="EL52" s="17"/>
+      <c r="EM52" s="17"/>
+      <c r="EN52" s="17"/>
+      <c r="EO52" s="17"/>
+      <c r="EP52" s="17"/>
+      <c r="EQ52" s="17"/>
+      <c r="ER52" s="17"/>
+      <c r="ES52" s="17"/>
+      <c r="ET52" s="17"/>
+      <c r="EU52" s="17"/>
+      <c r="EV52" s="17"/>
+      <c r="EW52" s="17"/>
+      <c r="EX52" s="17"/>
+      <c r="EY52" s="17"/>
+      <c r="EZ52" s="17"/>
+      <c r="FA52" s="17"/>
+      <c r="FB52" s="17"/>
+      <c r="FC52" s="17"/>
+      <c r="FD52" s="17"/>
+      <c r="FE52" s="17"/>
+      <c r="FF52" s="17"/>
+      <c r="FG52" s="17"/>
+      <c r="FH52" s="17"/>
+      <c r="FI52" s="17"/>
+      <c r="FJ52" s="17"/>
+      <c r="FK52" s="17"/>
+      <c r="FL52" s="17"/>
+      <c r="FM52" s="17"/>
+      <c r="FN52" s="17"/>
+      <c r="FO52" s="17"/>
+      <c r="FP52" s="17"/>
+      <c r="FQ52" s="17"/>
+      <c r="FR52" s="17"/>
+      <c r="FS52" s="17"/>
+      <c r="FT52" s="17"/>
+      <c r="FU52" s="17"/>
+      <c r="FV52" s="17"/>
+      <c r="FW52" s="17"/>
+      <c r="FX52" s="17"/>
+      <c r="FY52" s="17"/>
+      <c r="FZ52" s="17"/>
+      <c r="GA52" s="17"/>
+      <c r="GB52" s="17"/>
+      <c r="GC52" s="17"/>
+      <c r="GD52" s="17"/>
+      <c r="GE52" s="17"/>
+      <c r="GF52" s="17"/>
+      <c r="GG52" s="17"/>
+      <c r="GH52" s="17"/>
+      <c r="GI52" s="17"/>
+      <c r="GJ52" s="17"/>
+      <c r="GK52" s="17"/>
+      <c r="GL52" s="17"/>
+      <c r="GM52" s="17"/>
+      <c r="GN52" s="17"/>
+      <c r="GO52" s="17"/>
+      <c r="GP52" s="17"/>
+      <c r="GQ52" s="17"/>
+      <c r="GR52" s="17"/>
+      <c r="GS52" s="17"/>
+      <c r="GT52" s="17"/>
+      <c r="GU52" s="17"/>
+      <c r="GV52" s="17"/>
+      <c r="GW52" s="17"/>
+      <c r="GX52" s="17"/>
+      <c r="GY52" s="17"/>
+      <c r="GZ52" s="17"/>
+      <c r="HA52" s="17"/>
+      <c r="HB52" s="17"/>
+      <c r="HC52" s="17"/>
+      <c r="HD52" s="17"/>
+      <c r="HE52" s="17"/>
+    </row>
+    <row r="53" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="34">
+        <v>5</v>
+      </c>
+      <c r="C53" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" s="34">
+        <v>5</v>
+      </c>
+      <c r="E53" s="34"/>
+      <c r="F53" s="40">
+        <v>0</v>
+      </c>
+      <c r="G53" s="10">
+        <v>42562</v>
+      </c>
+      <c r="H53" s="10"/>
+      <c r="I53" s="27">
+        <f t="shared" si="144"/>
+        <v>42566</v>
+      </c>
+      <c r="J53" s="27">
+        <f t="shared" si="145"/>
+        <v>-1</v>
+      </c>
+      <c r="K53" s="27" t="str">
+        <f t="shared" ca="1" si="147"/>
+        <v>Em andamento</v>
+      </c>
+      <c r="L53" s="41" t="s">
+        <v>33</v>
+      </c>
       <c r="M53" s="13"/>
       <c r="N53" s="13"/>
       <c r="O53" s="13"/>
@@ -13068,25 +15682,220 @@
       <c r="AE53" s="13"/>
       <c r="AF53" s="13"/>
       <c r="AG53" s="13"/>
-    </row>
-    <row r="54" spans="2:33" s="17" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="B54" s="2">
-        <f>'Cronograma + Diagrama de Gantt'!$J$4</f>
-        <v>42492</v>
-      </c>
-      <c r="C54" s="3">
-        <f>'Cronograma + Diagrama de Gantt'!$I$7</f>
-        <v>42558</v>
-      </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
+      <c r="AH53" s="17"/>
+      <c r="AI53" s="17"/>
+      <c r="AJ53" s="17"/>
+      <c r="AK53" s="17"/>
+      <c r="AL53" s="17"/>
+      <c r="AM53" s="17"/>
+      <c r="AN53" s="17"/>
+      <c r="AO53" s="17"/>
+      <c r="AP53" s="17"/>
+      <c r="AQ53" s="17"/>
+      <c r="AR53" s="17"/>
+      <c r="AS53" s="17"/>
+      <c r="AT53" s="17"/>
+      <c r="AU53" s="17"/>
+      <c r="AV53" s="17"/>
+      <c r="AW53" s="17"/>
+      <c r="AX53" s="17"/>
+      <c r="AY53" s="17"/>
+      <c r="AZ53" s="17"/>
+      <c r="BA53" s="17"/>
+      <c r="BB53" s="17"/>
+      <c r="BC53" s="17"/>
+      <c r="BD53" s="17"/>
+      <c r="BE53" s="17"/>
+      <c r="BF53" s="17"/>
+      <c r="BG53" s="17"/>
+      <c r="BH53" s="17"/>
+      <c r="BI53" s="17"/>
+      <c r="BJ53" s="17"/>
+      <c r="BK53" s="17"/>
+      <c r="BL53" s="17"/>
+      <c r="BM53" s="17"/>
+      <c r="BN53" s="17"/>
+      <c r="BO53" s="17"/>
+      <c r="BP53" s="17"/>
+      <c r="BQ53" s="17"/>
+      <c r="BR53" s="17"/>
+      <c r="BS53" s="17"/>
+      <c r="BT53" s="17"/>
+      <c r="BU53" s="17"/>
+      <c r="BV53" s="17"/>
+      <c r="BW53" s="17"/>
+      <c r="BX53" s="17"/>
+      <c r="BY53" s="17"/>
+      <c r="BZ53" s="17"/>
+      <c r="CA53" s="17"/>
+      <c r="CB53" s="17"/>
+      <c r="CC53" s="17"/>
+      <c r="CD53" s="17"/>
+      <c r="CE53" s="17"/>
+      <c r="CF53" s="17"/>
+      <c r="CG53" s="17"/>
+      <c r="CH53" s="17"/>
+      <c r="CI53" s="17"/>
+      <c r="CJ53" s="17"/>
+      <c r="CK53" s="17"/>
+      <c r="CL53" s="17"/>
+      <c r="CM53" s="17"/>
+      <c r="CN53" s="17"/>
+      <c r="CO53" s="17"/>
+      <c r="CP53" s="17"/>
+      <c r="CQ53" s="17"/>
+      <c r="CR53" s="17"/>
+      <c r="CS53" s="17"/>
+      <c r="CT53" s="17"/>
+      <c r="CU53" s="17"/>
+      <c r="CV53" s="17"/>
+      <c r="CW53" s="17"/>
+      <c r="CX53" s="17"/>
+      <c r="CY53" s="17"/>
+      <c r="CZ53" s="17"/>
+      <c r="DA53" s="17"/>
+      <c r="DB53" s="17"/>
+      <c r="DC53" s="17"/>
+      <c r="DD53" s="17"/>
+      <c r="DE53" s="17"/>
+      <c r="DF53" s="17"/>
+      <c r="DG53" s="17"/>
+      <c r="DH53" s="17"/>
+      <c r="DI53" s="17"/>
+      <c r="DJ53" s="17"/>
+      <c r="DK53" s="17"/>
+      <c r="DL53" s="17"/>
+      <c r="DM53" s="17"/>
+      <c r="DN53" s="17"/>
+      <c r="DO53" s="17"/>
+      <c r="DP53" s="17"/>
+      <c r="DQ53" s="17"/>
+      <c r="DR53" s="17"/>
+      <c r="DS53" s="17"/>
+      <c r="DT53" s="17"/>
+      <c r="DU53" s="17"/>
+      <c r="DV53" s="17"/>
+      <c r="DW53" s="17"/>
+      <c r="DX53" s="17"/>
+      <c r="DY53" s="17"/>
+      <c r="DZ53" s="17"/>
+      <c r="EA53" s="17"/>
+      <c r="EB53" s="17"/>
+      <c r="EC53" s="17"/>
+      <c r="ED53" s="17"/>
+      <c r="EE53" s="17"/>
+      <c r="EF53" s="17"/>
+      <c r="EG53" s="17"/>
+      <c r="EH53" s="17"/>
+      <c r="EI53" s="17"/>
+      <c r="EJ53" s="17"/>
+      <c r="EK53" s="17"/>
+      <c r="EL53" s="17"/>
+      <c r="EM53" s="17"/>
+      <c r="EN53" s="17"/>
+      <c r="EO53" s="17"/>
+      <c r="EP53" s="17"/>
+      <c r="EQ53" s="17"/>
+      <c r="ER53" s="17"/>
+      <c r="ES53" s="17"/>
+      <c r="ET53" s="17"/>
+      <c r="EU53" s="17"/>
+      <c r="EV53" s="17"/>
+      <c r="EW53" s="17"/>
+      <c r="EX53" s="17"/>
+      <c r="EY53" s="17"/>
+      <c r="EZ53" s="17"/>
+      <c r="FA53" s="17"/>
+      <c r="FB53" s="17"/>
+      <c r="FC53" s="17"/>
+      <c r="FD53" s="17"/>
+      <c r="FE53" s="17"/>
+      <c r="FF53" s="17"/>
+      <c r="FG53" s="17"/>
+      <c r="FH53" s="17"/>
+      <c r="FI53" s="17"/>
+      <c r="FJ53" s="17"/>
+      <c r="FK53" s="17"/>
+      <c r="FL53" s="17"/>
+      <c r="FM53" s="17"/>
+      <c r="FN53" s="17"/>
+      <c r="FO53" s="17"/>
+      <c r="FP53" s="17"/>
+      <c r="FQ53" s="17"/>
+      <c r="FR53" s="17"/>
+      <c r="FS53" s="17"/>
+      <c r="FT53" s="17"/>
+      <c r="FU53" s="17"/>
+      <c r="FV53" s="17"/>
+      <c r="FW53" s="17"/>
+      <c r="FX53" s="17"/>
+      <c r="FY53" s="17"/>
+      <c r="FZ53" s="17"/>
+      <c r="GA53" s="17"/>
+      <c r="GB53" s="17"/>
+      <c r="GC53" s="17"/>
+      <c r="GD53" s="17"/>
+      <c r="GE53" s="17"/>
+      <c r="GF53" s="17"/>
+      <c r="GG53" s="17"/>
+      <c r="GH53" s="17"/>
+      <c r="GI53" s="17"/>
+      <c r="GJ53" s="17"/>
+      <c r="GK53" s="17"/>
+      <c r="GL53" s="17"/>
+      <c r="GM53" s="17"/>
+      <c r="GN53" s="17"/>
+      <c r="GO53" s="17"/>
+      <c r="GP53" s="17"/>
+      <c r="GQ53" s="17"/>
+      <c r="GR53" s="17"/>
+      <c r="GS53" s="17"/>
+      <c r="GT53" s="17"/>
+      <c r="GU53" s="17"/>
+      <c r="GV53" s="17"/>
+      <c r="GW53" s="17"/>
+      <c r="GX53" s="17"/>
+      <c r="GY53" s="17"/>
+      <c r="GZ53" s="17"/>
+      <c r="HA53" s="17"/>
+      <c r="HB53" s="17"/>
+      <c r="HC53" s="17"/>
+      <c r="HD53" s="17"/>
+      <c r="HE53" s="17"/>
+    </row>
+    <row r="54" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="34">
+        <v>5</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="34">
+        <v>5</v>
+      </c>
+      <c r="E54" s="34"/>
+      <c r="F54" s="40">
+        <v>0</v>
+      </c>
+      <c r="G54" s="10">
+        <v>42562</v>
+      </c>
+      <c r="H54" s="10"/>
+      <c r="I54" s="27">
+        <f t="shared" si="144"/>
+        <v>42566</v>
+      </c>
+      <c r="J54" s="27">
+        <f t="shared" si="145"/>
+        <v>-1</v>
+      </c>
+      <c r="K54" s="27" t="str">
+        <f t="shared" ca="1" si="147"/>
+        <v>Em andamento</v>
+      </c>
+      <c r="L54" s="41" t="s">
+        <v>33</v>
+      </c>
       <c r="M54" s="13"/>
       <c r="N54" s="13"/>
       <c r="O54" s="13"/>
@@ -13108,19 +15917,220 @@
       <c r="AE54" s="13"/>
       <c r="AF54" s="13"/>
       <c r="AG54" s="13"/>
-    </row>
-    <row r="55" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
+      <c r="AH54" s="17"/>
+      <c r="AI54" s="17"/>
+      <c r="AJ54" s="17"/>
+      <c r="AK54" s="17"/>
+      <c r="AL54" s="17"/>
+      <c r="AM54" s="17"/>
+      <c r="AN54" s="17"/>
+      <c r="AO54" s="17"/>
+      <c r="AP54" s="17"/>
+      <c r="AQ54" s="17"/>
+      <c r="AR54" s="17"/>
+      <c r="AS54" s="17"/>
+      <c r="AT54" s="17"/>
+      <c r="AU54" s="17"/>
+      <c r="AV54" s="17"/>
+      <c r="AW54" s="17"/>
+      <c r="AX54" s="17"/>
+      <c r="AY54" s="17"/>
+      <c r="AZ54" s="17"/>
+      <c r="BA54" s="17"/>
+      <c r="BB54" s="17"/>
+      <c r="BC54" s="17"/>
+      <c r="BD54" s="17"/>
+      <c r="BE54" s="17"/>
+      <c r="BF54" s="17"/>
+      <c r="BG54" s="17"/>
+      <c r="BH54" s="17"/>
+      <c r="BI54" s="17"/>
+      <c r="BJ54" s="17"/>
+      <c r="BK54" s="17"/>
+      <c r="BL54" s="17"/>
+      <c r="BM54" s="17"/>
+      <c r="BN54" s="17"/>
+      <c r="BO54" s="17"/>
+      <c r="BP54" s="17"/>
+      <c r="BQ54" s="17"/>
+      <c r="BR54" s="17"/>
+      <c r="BS54" s="17"/>
+      <c r="BT54" s="17"/>
+      <c r="BU54" s="17"/>
+      <c r="BV54" s="17"/>
+      <c r="BW54" s="17"/>
+      <c r="BX54" s="17"/>
+      <c r="BY54" s="17"/>
+      <c r="BZ54" s="17"/>
+      <c r="CA54" s="17"/>
+      <c r="CB54" s="17"/>
+      <c r="CC54" s="17"/>
+      <c r="CD54" s="17"/>
+      <c r="CE54" s="17"/>
+      <c r="CF54" s="17"/>
+      <c r="CG54" s="17"/>
+      <c r="CH54" s="17"/>
+      <c r="CI54" s="17"/>
+      <c r="CJ54" s="17"/>
+      <c r="CK54" s="17"/>
+      <c r="CL54" s="17"/>
+      <c r="CM54" s="17"/>
+      <c r="CN54" s="17"/>
+      <c r="CO54" s="17"/>
+      <c r="CP54" s="17"/>
+      <c r="CQ54" s="17"/>
+      <c r="CR54" s="17"/>
+      <c r="CS54" s="17"/>
+      <c r="CT54" s="17"/>
+      <c r="CU54" s="17"/>
+      <c r="CV54" s="17"/>
+      <c r="CW54" s="17"/>
+      <c r="CX54" s="17"/>
+      <c r="CY54" s="17"/>
+      <c r="CZ54" s="17"/>
+      <c r="DA54" s="17"/>
+      <c r="DB54" s="17"/>
+      <c r="DC54" s="17"/>
+      <c r="DD54" s="17"/>
+      <c r="DE54" s="17"/>
+      <c r="DF54" s="17"/>
+      <c r="DG54" s="17"/>
+      <c r="DH54" s="17"/>
+      <c r="DI54" s="17"/>
+      <c r="DJ54" s="17"/>
+      <c r="DK54" s="17"/>
+      <c r="DL54" s="17"/>
+      <c r="DM54" s="17"/>
+      <c r="DN54" s="17"/>
+      <c r="DO54" s="17"/>
+      <c r="DP54" s="17"/>
+      <c r="DQ54" s="17"/>
+      <c r="DR54" s="17"/>
+      <c r="DS54" s="17"/>
+      <c r="DT54" s="17"/>
+      <c r="DU54" s="17"/>
+      <c r="DV54" s="17"/>
+      <c r="DW54" s="17"/>
+      <c r="DX54" s="17"/>
+      <c r="DY54" s="17"/>
+      <c r="DZ54" s="17"/>
+      <c r="EA54" s="17"/>
+      <c r="EB54" s="17"/>
+      <c r="EC54" s="17"/>
+      <c r="ED54" s="17"/>
+      <c r="EE54" s="17"/>
+      <c r="EF54" s="17"/>
+      <c r="EG54" s="17"/>
+      <c r="EH54" s="17"/>
+      <c r="EI54" s="17"/>
+      <c r="EJ54" s="17"/>
+      <c r="EK54" s="17"/>
+      <c r="EL54" s="17"/>
+      <c r="EM54" s="17"/>
+      <c r="EN54" s="17"/>
+      <c r="EO54" s="17"/>
+      <c r="EP54" s="17"/>
+      <c r="EQ54" s="17"/>
+      <c r="ER54" s="17"/>
+      <c r="ES54" s="17"/>
+      <c r="ET54" s="17"/>
+      <c r="EU54" s="17"/>
+      <c r="EV54" s="17"/>
+      <c r="EW54" s="17"/>
+      <c r="EX54" s="17"/>
+      <c r="EY54" s="17"/>
+      <c r="EZ54" s="17"/>
+      <c r="FA54" s="17"/>
+      <c r="FB54" s="17"/>
+      <c r="FC54" s="17"/>
+      <c r="FD54" s="17"/>
+      <c r="FE54" s="17"/>
+      <c r="FF54" s="17"/>
+      <c r="FG54" s="17"/>
+      <c r="FH54" s="17"/>
+      <c r="FI54" s="17"/>
+      <c r="FJ54" s="17"/>
+      <c r="FK54" s="17"/>
+      <c r="FL54" s="17"/>
+      <c r="FM54" s="17"/>
+      <c r="FN54" s="17"/>
+      <c r="FO54" s="17"/>
+      <c r="FP54" s="17"/>
+      <c r="FQ54" s="17"/>
+      <c r="FR54" s="17"/>
+      <c r="FS54" s="17"/>
+      <c r="FT54" s="17"/>
+      <c r="FU54" s="17"/>
+      <c r="FV54" s="17"/>
+      <c r="FW54" s="17"/>
+      <c r="FX54" s="17"/>
+      <c r="FY54" s="17"/>
+      <c r="FZ54" s="17"/>
+      <c r="GA54" s="17"/>
+      <c r="GB54" s="17"/>
+      <c r="GC54" s="17"/>
+      <c r="GD54" s="17"/>
+      <c r="GE54" s="17"/>
+      <c r="GF54" s="17"/>
+      <c r="GG54" s="17"/>
+      <c r="GH54" s="17"/>
+      <c r="GI54" s="17"/>
+      <c r="GJ54" s="17"/>
+      <c r="GK54" s="17"/>
+      <c r="GL54" s="17"/>
+      <c r="GM54" s="17"/>
+      <c r="GN54" s="17"/>
+      <c r="GO54" s="17"/>
+      <c r="GP54" s="17"/>
+      <c r="GQ54" s="17"/>
+      <c r="GR54" s="17"/>
+      <c r="GS54" s="17"/>
+      <c r="GT54" s="17"/>
+      <c r="GU54" s="17"/>
+      <c r="GV54" s="17"/>
+      <c r="GW54" s="17"/>
+      <c r="GX54" s="17"/>
+      <c r="GY54" s="17"/>
+      <c r="GZ54" s="17"/>
+      <c r="HA54" s="17"/>
+      <c r="HB54" s="17"/>
+      <c r="HC54" s="17"/>
+      <c r="HD54" s="17"/>
+      <c r="HE54" s="17"/>
+    </row>
+    <row r="55" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="34">
+        <v>5</v>
+      </c>
+      <c r="C55" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="34">
+        <v>5</v>
+      </c>
+      <c r="E55" s="34"/>
+      <c r="F55" s="40">
+        <v>0</v>
+      </c>
+      <c r="G55" s="10">
+        <v>42562</v>
+      </c>
+      <c r="H55" s="10"/>
+      <c r="I55" s="27">
+        <f t="shared" si="144"/>
+        <v>42566</v>
+      </c>
+      <c r="J55" s="27">
+        <f t="shared" si="145"/>
+        <v>-1</v>
+      </c>
+      <c r="K55" s="27" t="str">
+        <f t="shared" ca="1" si="147"/>
+        <v>Em andamento</v>
+      </c>
+      <c r="L55" s="41" t="s">
+        <v>33</v>
+      </c>
       <c r="M55" s="13"/>
       <c r="N55" s="13"/>
       <c r="O55" s="13"/>
@@ -13142,21 +16152,222 @@
       <c r="AE55" s="13"/>
       <c r="AF55" s="13"/>
       <c r="AG55" s="13"/>
-    </row>
-    <row r="56" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="75" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" s="75"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
+      <c r="AH55" s="17"/>
+      <c r="AI55" s="17"/>
+      <c r="AJ55" s="17"/>
+      <c r="AK55" s="17"/>
+      <c r="AL55" s="17"/>
+      <c r="AM55" s="17"/>
+      <c r="AN55" s="17"/>
+      <c r="AO55" s="17"/>
+      <c r="AP55" s="17"/>
+      <c r="AQ55" s="17"/>
+      <c r="AR55" s="17"/>
+      <c r="AS55" s="17"/>
+      <c r="AT55" s="17"/>
+      <c r="AU55" s="17"/>
+      <c r="AV55" s="17"/>
+      <c r="AW55" s="17"/>
+      <c r="AX55" s="17"/>
+      <c r="AY55" s="17"/>
+      <c r="AZ55" s="17"/>
+      <c r="BA55" s="17"/>
+      <c r="BB55" s="17"/>
+      <c r="BC55" s="17"/>
+      <c r="BD55" s="17"/>
+      <c r="BE55" s="17"/>
+      <c r="BF55" s="17"/>
+      <c r="BG55" s="17"/>
+      <c r="BH55" s="17"/>
+      <c r="BI55" s="17"/>
+      <c r="BJ55" s="17"/>
+      <c r="BK55" s="17"/>
+      <c r="BL55" s="17"/>
+      <c r="BM55" s="17"/>
+      <c r="BN55" s="17"/>
+      <c r="BO55" s="17"/>
+      <c r="BP55" s="17"/>
+      <c r="BQ55" s="17"/>
+      <c r="BR55" s="17"/>
+      <c r="BS55" s="17"/>
+      <c r="BT55" s="17"/>
+      <c r="BU55" s="17"/>
+      <c r="BV55" s="17"/>
+      <c r="BW55" s="17"/>
+      <c r="BX55" s="17"/>
+      <c r="BY55" s="17"/>
+      <c r="BZ55" s="17"/>
+      <c r="CA55" s="17"/>
+      <c r="CB55" s="17"/>
+      <c r="CC55" s="17"/>
+      <c r="CD55" s="17"/>
+      <c r="CE55" s="17"/>
+      <c r="CF55" s="17"/>
+      <c r="CG55" s="17"/>
+      <c r="CH55" s="17"/>
+      <c r="CI55" s="17"/>
+      <c r="CJ55" s="17"/>
+      <c r="CK55" s="17"/>
+      <c r="CL55" s="17"/>
+      <c r="CM55" s="17"/>
+      <c r="CN55" s="17"/>
+      <c r="CO55" s="17"/>
+      <c r="CP55" s="17"/>
+      <c r="CQ55" s="17"/>
+      <c r="CR55" s="17"/>
+      <c r="CS55" s="17"/>
+      <c r="CT55" s="17"/>
+      <c r="CU55" s="17"/>
+      <c r="CV55" s="17"/>
+      <c r="CW55" s="17"/>
+      <c r="CX55" s="17"/>
+      <c r="CY55" s="17"/>
+      <c r="CZ55" s="17"/>
+      <c r="DA55" s="17"/>
+      <c r="DB55" s="17"/>
+      <c r="DC55" s="17"/>
+      <c r="DD55" s="17"/>
+      <c r="DE55" s="17"/>
+      <c r="DF55" s="17"/>
+      <c r="DG55" s="17"/>
+      <c r="DH55" s="17"/>
+      <c r="DI55" s="17"/>
+      <c r="DJ55" s="17"/>
+      <c r="DK55" s="17"/>
+      <c r="DL55" s="17"/>
+      <c r="DM55" s="17"/>
+      <c r="DN55" s="17"/>
+      <c r="DO55" s="17"/>
+      <c r="DP55" s="17"/>
+      <c r="DQ55" s="17"/>
+      <c r="DR55" s="17"/>
+      <c r="DS55" s="17"/>
+      <c r="DT55" s="17"/>
+      <c r="DU55" s="17"/>
+      <c r="DV55" s="17"/>
+      <c r="DW55" s="17"/>
+      <c r="DX55" s="17"/>
+      <c r="DY55" s="17"/>
+      <c r="DZ55" s="17"/>
+      <c r="EA55" s="17"/>
+      <c r="EB55" s="17"/>
+      <c r="EC55" s="17"/>
+      <c r="ED55" s="17"/>
+      <c r="EE55" s="17"/>
+      <c r="EF55" s="17"/>
+      <c r="EG55" s="17"/>
+      <c r="EH55" s="17"/>
+      <c r="EI55" s="17"/>
+      <c r="EJ55" s="17"/>
+      <c r="EK55" s="17"/>
+      <c r="EL55" s="17"/>
+      <c r="EM55" s="17"/>
+      <c r="EN55" s="17"/>
+      <c r="EO55" s="17"/>
+      <c r="EP55" s="17"/>
+      <c r="EQ55" s="17"/>
+      <c r="ER55" s="17"/>
+      <c r="ES55" s="17"/>
+      <c r="ET55" s="17"/>
+      <c r="EU55" s="17"/>
+      <c r="EV55" s="17"/>
+      <c r="EW55" s="17"/>
+      <c r="EX55" s="17"/>
+      <c r="EY55" s="17"/>
+      <c r="EZ55" s="17"/>
+      <c r="FA55" s="17"/>
+      <c r="FB55" s="17"/>
+      <c r="FC55" s="17"/>
+      <c r="FD55" s="17"/>
+      <c r="FE55" s="17"/>
+      <c r="FF55" s="17"/>
+      <c r="FG55" s="17"/>
+      <c r="FH55" s="17"/>
+      <c r="FI55" s="17"/>
+      <c r="FJ55" s="17"/>
+      <c r="FK55" s="17"/>
+      <c r="FL55" s="17"/>
+      <c r="FM55" s="17"/>
+      <c r="FN55" s="17"/>
+      <c r="FO55" s="17"/>
+      <c r="FP55" s="17"/>
+      <c r="FQ55" s="17"/>
+      <c r="FR55" s="17"/>
+      <c r="FS55" s="17"/>
+      <c r="FT55" s="17"/>
+      <c r="FU55" s="17"/>
+      <c r="FV55" s="17"/>
+      <c r="FW55" s="17"/>
+      <c r="FX55" s="17"/>
+      <c r="FY55" s="17"/>
+      <c r="FZ55" s="17"/>
+      <c r="GA55" s="17"/>
+      <c r="GB55" s="17"/>
+      <c r="GC55" s="17"/>
+      <c r="GD55" s="17"/>
+      <c r="GE55" s="17"/>
+      <c r="GF55" s="17"/>
+      <c r="GG55" s="17"/>
+      <c r="GH55" s="17"/>
+      <c r="GI55" s="17"/>
+      <c r="GJ55" s="17"/>
+      <c r="GK55" s="17"/>
+      <c r="GL55" s="17"/>
+      <c r="GM55" s="17"/>
+      <c r="GN55" s="17"/>
+      <c r="GO55" s="17"/>
+      <c r="GP55" s="17"/>
+      <c r="GQ55" s="17"/>
+      <c r="GR55" s="17"/>
+      <c r="GS55" s="17"/>
+      <c r="GT55" s="17"/>
+      <c r="GU55" s="17"/>
+      <c r="GV55" s="17"/>
+      <c r="GW55" s="17"/>
+      <c r="GX55" s="17"/>
+      <c r="GY55" s="17"/>
+      <c r="GZ55" s="17"/>
+      <c r="HA55" s="17"/>
+      <c r="HB55" s="17"/>
+      <c r="HC55" s="17"/>
+      <c r="HD55" s="17"/>
+      <c r="HE55" s="17"/>
+    </row>
+    <row r="56" spans="2:213" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="34"/>
+      <c r="C56" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="34">
+        <v>67</v>
+      </c>
+      <c r="E56" s="34">
+        <v>70</v>
+      </c>
+      <c r="F56" s="40">
+        <v>0</v>
+      </c>
+      <c r="G56" s="10">
+        <v>42492</v>
+      </c>
+      <c r="H56" s="10">
+        <v>42499</v>
+      </c>
+      <c r="I56" s="27">
+        <f>(G56+D56)-1</f>
+        <v>42558</v>
+      </c>
+      <c r="J56" s="27">
+        <f t="shared" si="143"/>
+        <v>42568</v>
+      </c>
+      <c r="K56" s="27" t="str">
+        <f t="shared" ca="1" si="147"/>
+        <v>Em atraso</v>
+      </c>
+      <c r="L56" s="41" t="s">
+        <v>24</v>
+      </c>
       <c r="M56" s="13"/>
       <c r="N56" s="13"/>
       <c r="O56" s="13"/>
@@ -13178,14 +16389,191 @@
       <c r="AE56" s="13"/>
       <c r="AF56" s="13"/>
       <c r="AG56" s="13"/>
-    </row>
-    <row r="57" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="76">
-        <f>'Cronograma + Diagrama de Gantt'!$F$7</f>
-        <v>0.61538461538461542</v>
-      </c>
-      <c r="C57" s="76"/>
-      <c r="D57" s="76"/>
+      <c r="AH56" s="17"/>
+      <c r="AI56" s="17"/>
+      <c r="AJ56" s="17"/>
+      <c r="AK56" s="17"/>
+      <c r="AL56" s="17"/>
+      <c r="AM56" s="17"/>
+      <c r="AN56" s="17"/>
+      <c r="AO56" s="17"/>
+      <c r="AP56" s="17"/>
+      <c r="AQ56" s="17"/>
+      <c r="AR56" s="17"/>
+      <c r="AS56" s="17"/>
+      <c r="AT56" s="17"/>
+      <c r="AU56" s="17"/>
+      <c r="AV56" s="17"/>
+      <c r="AW56" s="17"/>
+      <c r="AX56" s="17"/>
+      <c r="AY56" s="17"/>
+      <c r="AZ56" s="17"/>
+      <c r="BA56" s="17"/>
+      <c r="BB56" s="17"/>
+      <c r="BC56" s="17"/>
+      <c r="BD56" s="17"/>
+      <c r="BE56" s="17"/>
+      <c r="BF56" s="17"/>
+      <c r="BG56" s="17"/>
+      <c r="BH56" s="17"/>
+      <c r="BI56" s="17"/>
+      <c r="BJ56" s="17"/>
+      <c r="BK56" s="17"/>
+      <c r="BL56" s="17"/>
+      <c r="BM56" s="17"/>
+      <c r="BN56" s="17"/>
+      <c r="BO56" s="17"/>
+      <c r="BP56" s="17"/>
+      <c r="BQ56" s="17"/>
+      <c r="BR56" s="17"/>
+      <c r="BS56" s="17"/>
+      <c r="BT56" s="17"/>
+      <c r="BU56" s="17"/>
+      <c r="BV56" s="17"/>
+      <c r="BW56" s="17"/>
+      <c r="BX56" s="17"/>
+      <c r="BY56" s="17"/>
+      <c r="BZ56" s="17"/>
+      <c r="CA56" s="17"/>
+      <c r="CB56" s="17"/>
+      <c r="CC56" s="17"/>
+      <c r="CD56" s="17"/>
+      <c r="CE56" s="17"/>
+      <c r="CF56" s="17"/>
+      <c r="CG56" s="17"/>
+      <c r="CH56" s="17"/>
+      <c r="CI56" s="17"/>
+      <c r="CJ56" s="17"/>
+      <c r="CK56" s="17"/>
+      <c r="CL56" s="17"/>
+      <c r="CM56" s="17"/>
+      <c r="CN56" s="17"/>
+      <c r="CO56" s="17"/>
+      <c r="CP56" s="17"/>
+      <c r="CQ56" s="17"/>
+      <c r="CR56" s="17"/>
+      <c r="CS56" s="17"/>
+      <c r="CT56" s="17"/>
+      <c r="CU56" s="17"/>
+      <c r="CV56" s="17"/>
+      <c r="CW56" s="17"/>
+      <c r="CX56" s="17"/>
+      <c r="CY56" s="17"/>
+      <c r="CZ56" s="17"/>
+      <c r="DA56" s="17"/>
+      <c r="DB56" s="17"/>
+      <c r="DC56" s="17"/>
+      <c r="DD56" s="17"/>
+      <c r="DE56" s="17"/>
+      <c r="DF56" s="17"/>
+      <c r="DG56" s="17"/>
+      <c r="DH56" s="17"/>
+      <c r="DI56" s="17"/>
+      <c r="DJ56" s="17"/>
+      <c r="DK56" s="17"/>
+      <c r="DL56" s="17"/>
+      <c r="DM56" s="17"/>
+      <c r="DN56" s="17"/>
+      <c r="DO56" s="17"/>
+      <c r="DP56" s="17"/>
+      <c r="DQ56" s="17"/>
+      <c r="DR56" s="17"/>
+      <c r="DS56" s="17"/>
+      <c r="DT56" s="17"/>
+      <c r="DU56" s="17"/>
+      <c r="DV56" s="17"/>
+      <c r="DW56" s="17"/>
+      <c r="DX56" s="17"/>
+      <c r="DY56" s="17"/>
+      <c r="DZ56" s="17"/>
+      <c r="EA56" s="17"/>
+      <c r="EB56" s="17"/>
+      <c r="EC56" s="17"/>
+      <c r="ED56" s="17"/>
+      <c r="EE56" s="17"/>
+      <c r="EF56" s="17"/>
+      <c r="EG56" s="17"/>
+      <c r="EH56" s="17"/>
+      <c r="EI56" s="17"/>
+      <c r="EJ56" s="17"/>
+      <c r="EK56" s="17"/>
+      <c r="EL56" s="17"/>
+      <c r="EM56" s="17"/>
+      <c r="EN56" s="17"/>
+      <c r="EO56" s="17"/>
+      <c r="EP56" s="17"/>
+      <c r="EQ56" s="17"/>
+      <c r="ER56" s="17"/>
+      <c r="ES56" s="17"/>
+      <c r="ET56" s="17"/>
+      <c r="EU56" s="17"/>
+      <c r="EV56" s="17"/>
+      <c r="EW56" s="17"/>
+      <c r="EX56" s="17"/>
+      <c r="EY56" s="17"/>
+      <c r="EZ56" s="17"/>
+      <c r="FA56" s="17"/>
+      <c r="FB56" s="17"/>
+      <c r="FC56" s="17"/>
+      <c r="FD56" s="17"/>
+      <c r="FE56" s="17"/>
+      <c r="FF56" s="17"/>
+      <c r="FG56" s="17"/>
+      <c r="FH56" s="17"/>
+      <c r="FI56" s="17"/>
+      <c r="FJ56" s="17"/>
+      <c r="FK56" s="17"/>
+      <c r="FL56" s="17"/>
+      <c r="FM56" s="17"/>
+      <c r="FN56" s="17"/>
+      <c r="FO56" s="17"/>
+      <c r="FP56" s="17"/>
+      <c r="FQ56" s="17"/>
+      <c r="FR56" s="17"/>
+      <c r="FS56" s="17"/>
+      <c r="FT56" s="17"/>
+      <c r="FU56" s="17"/>
+      <c r="FV56" s="17"/>
+      <c r="FW56" s="17"/>
+      <c r="FX56" s="17"/>
+      <c r="FY56" s="17"/>
+      <c r="FZ56" s="17"/>
+      <c r="GA56" s="17"/>
+      <c r="GB56" s="17"/>
+      <c r="GC56" s="17"/>
+      <c r="GD56" s="17"/>
+      <c r="GE56" s="17"/>
+      <c r="GF56" s="17"/>
+      <c r="GG56" s="17"/>
+      <c r="GH56" s="17"/>
+      <c r="GI56" s="17"/>
+      <c r="GJ56" s="17"/>
+      <c r="GK56" s="17"/>
+      <c r="GL56" s="17"/>
+      <c r="GM56" s="17"/>
+      <c r="GN56" s="17"/>
+      <c r="GO56" s="17"/>
+      <c r="GP56" s="17"/>
+      <c r="GQ56" s="17"/>
+      <c r="GR56" s="17"/>
+      <c r="GS56" s="17"/>
+      <c r="GT56" s="17"/>
+      <c r="GU56" s="17"/>
+      <c r="GV56" s="17"/>
+      <c r="GW56" s="17"/>
+      <c r="GX56" s="17"/>
+      <c r="GY56" s="17"/>
+      <c r="GZ56" s="17"/>
+      <c r="HA56" s="17"/>
+      <c r="HB56" s="17"/>
+      <c r="HC56" s="17"/>
+      <c r="HD56" s="17"/>
+      <c r="HE56" s="17"/>
+    </row>
+    <row r="57" spans="2:213" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="13"/>
       <c r="E57" s="13"/>
       <c r="F57" s="29"/>
       <c r="G57" s="13"/>
@@ -13216,10 +16604,9 @@
       <c r="AF57" s="13"/>
       <c r="AG57" s="13"/>
     </row>
-    <row r="58" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="76"/>
-      <c r="C58" s="76"/>
-      <c r="D58" s="76"/>
+    <row r="58" spans="2:213" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="28"/>
+      <c r="D58" s="13"/>
       <c r="E58" s="13"/>
       <c r="F58" s="29"/>
       <c r="G58" s="13"/>
@@ -13250,10 +16637,10 @@
       <c r="AF58" s="13"/>
       <c r="AG58" s="13"/>
     </row>
-    <row r="59" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="76"/>
-      <c r="C59" s="76"/>
-      <c r="D59" s="76"/>
+    <row r="59" spans="2:213" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
       <c r="E59" s="13"/>
       <c r="F59" s="29"/>
       <c r="G59" s="13"/>
@@ -13284,10 +16671,10 @@
       <c r="AF59" s="13"/>
       <c r="AG59" s="13"/>
     </row>
-    <row r="60" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="76"/>
-      <c r="C60" s="76"/>
-      <c r="D60" s="76"/>
+    <row r="60" spans="2:213" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
       <c r="E60" s="13"/>
       <c r="F60" s="29"/>
       <c r="G60" s="13"/>
@@ -13318,9 +16705,10 @@
       <c r="AF60" s="13"/>
       <c r="AG60" s="13"/>
     </row>
-    <row r="61" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="28"/>
-      <c r="D61" s="13"/>
+    <row r="61" spans="2:213" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
       <c r="E61" s="13"/>
       <c r="F61" s="29"/>
       <c r="G61" s="13"/>
@@ -13351,9 +16739,10 @@
       <c r="AF61" s="13"/>
       <c r="AG61" s="13"/>
     </row>
-    <row r="62" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="28"/>
-      <c r="D62" s="13"/>
+    <row r="62" spans="2:213" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
       <c r="E62" s="13"/>
       <c r="F62" s="29"/>
       <c r="G62" s="13"/>
@@ -13384,9 +16773,16 @@
       <c r="AF62" s="13"/>
       <c r="AG62" s="13"/>
     </row>
-    <row r="63" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="28"/>
-      <c r="D63" s="13"/>
+    <row r="63" spans="2:213" s="17" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="B63" s="2">
+        <f>'Cronograma + Diagrama de Gantt'!$J$4</f>
+        <v>42492</v>
+      </c>
+      <c r="C63" s="3">
+        <f>'Cronograma + Diagrama de Gantt'!$I$7</f>
+        <v>42566</v>
+      </c>
+      <c r="D63" s="1"/>
       <c r="E63" s="13"/>
       <c r="F63" s="29"/>
       <c r="G63" s="13"/>
@@ -13417,9 +16813,10 @@
       <c r="AF63" s="13"/>
       <c r="AG63" s="13"/>
     </row>
-    <row r="64" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="28"/>
-      <c r="D64" s="13"/>
+    <row r="64" spans="2:213" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
       <c r="E64" s="13"/>
       <c r="F64" s="29"/>
       <c r="G64" s="13"/>
@@ -13450,9 +16847,12 @@
       <c r="AF64" s="13"/>
       <c r="AG64" s="13"/>
     </row>
-    <row r="65" spans="3:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="28"/>
-      <c r="D65" s="13"/>
+    <row r="65" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="87"/>
+      <c r="D65" s="87"/>
       <c r="E65" s="13"/>
       <c r="F65" s="29"/>
       <c r="G65" s="13"/>
@@ -13483,9 +16883,13 @@
       <c r="AF65" s="13"/>
       <c r="AG65" s="13"/>
     </row>
-    <row r="66" spans="3:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="28"/>
-      <c r="D66" s="13"/>
+    <row r="66" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="88">
+        <f>'Cronograma + Diagrama de Gantt'!$F$7</f>
+        <v>0.8125</v>
+      </c>
+      <c r="C66" s="88"/>
+      <c r="D66" s="88"/>
       <c r="E66" s="13"/>
       <c r="F66" s="29"/>
       <c r="G66" s="13"/>
@@ -13516,9 +16920,10 @@
       <c r="AF66" s="13"/>
       <c r="AG66" s="13"/>
     </row>
-    <row r="67" spans="3:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="28"/>
-      <c r="D67" s="13"/>
+    <row r="67" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="88"/>
+      <c r="C67" s="88"/>
+      <c r="D67" s="88"/>
       <c r="E67" s="13"/>
       <c r="F67" s="29"/>
       <c r="G67" s="13"/>
@@ -13549,9 +16954,10 @@
       <c r="AF67" s="13"/>
       <c r="AG67" s="13"/>
     </row>
-    <row r="68" spans="3:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="28"/>
-      <c r="D68" s="13"/>
+    <row r="68" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="88"/>
+      <c r="C68" s="88"/>
+      <c r="D68" s="88"/>
       <c r="E68" s="13"/>
       <c r="F68" s="29"/>
       <c r="G68" s="13"/>
@@ -13582,9 +16988,10 @@
       <c r="AF68" s="13"/>
       <c r="AG68" s="13"/>
     </row>
-    <row r="69" spans="3:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C69" s="28"/>
-      <c r="D69" s="13"/>
+    <row r="69" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="88"/>
+      <c r="C69" s="88"/>
+      <c r="D69" s="88"/>
       <c r="E69" s="13"/>
       <c r="F69" s="29"/>
       <c r="G69" s="13"/>
@@ -13615,7 +17022,7 @@
       <c r="AF69" s="13"/>
       <c r="AG69" s="13"/>
     </row>
-    <row r="70" spans="3:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C70" s="28"/>
       <c r="D70" s="13"/>
       <c r="E70" s="13"/>
@@ -13648,7 +17055,7 @@
       <c r="AF70" s="13"/>
       <c r="AG70" s="13"/>
     </row>
-    <row r="71" spans="3:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C71" s="28"/>
       <c r="D71" s="13"/>
       <c r="E71" s="13"/>
@@ -13681,7 +17088,7 @@
       <c r="AF71" s="13"/>
       <c r="AG71" s="13"/>
     </row>
-    <row r="72" spans="3:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C72" s="28"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13"/>
@@ -13714,7 +17121,7 @@
       <c r="AF72" s="13"/>
       <c r="AG72" s="13"/>
     </row>
-    <row r="73" spans="3:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C73" s="28"/>
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
@@ -13747,7 +17154,7 @@
       <c r="AF73" s="13"/>
       <c r="AG73" s="13"/>
     </row>
-    <row r="74" spans="3:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C74" s="28"/>
       <c r="D74" s="13"/>
       <c r="E74" s="13"/>
@@ -13780,7 +17187,7 @@
       <c r="AF74" s="13"/>
       <c r="AG74" s="13"/>
     </row>
-    <row r="75" spans="3:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C75" s="28"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
@@ -13813,7 +17220,7 @@
       <c r="AF75" s="13"/>
       <c r="AG75" s="13"/>
     </row>
-    <row r="76" spans="3:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C76" s="28"/>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
@@ -13846,7 +17253,7 @@
       <c r="AF76" s="13"/>
       <c r="AG76" s="13"/>
     </row>
-    <row r="77" spans="3:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C77" s="28"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
@@ -13879,7 +17286,7 @@
       <c r="AF77" s="13"/>
       <c r="AG77" s="13"/>
     </row>
-    <row r="78" spans="3:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C78" s="28"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
@@ -13912,7 +17319,7 @@
       <c r="AF78" s="13"/>
       <c r="AG78" s="13"/>
     </row>
-    <row r="79" spans="3:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C79" s="28"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
@@ -13945,7 +17352,7 @@
       <c r="AF79" s="13"/>
       <c r="AG79" s="13"/>
     </row>
-    <row r="80" spans="3:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C80" s="28"/>
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
@@ -34471,190 +37878,1134 @@
       <c r="AF701" s="13"/>
       <c r="AG701" s="13"/>
     </row>
+    <row r="702" spans="3:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C702" s="28"/>
+      <c r="D702" s="13"/>
+      <c r="E702" s="13"/>
+      <c r="F702" s="29"/>
+      <c r="G702" s="13"/>
+      <c r="H702" s="13"/>
+      <c r="I702" s="13"/>
+      <c r="J702" s="13"/>
+      <c r="K702" s="13"/>
+      <c r="L702" s="13"/>
+      <c r="M702" s="13"/>
+      <c r="N702" s="13"/>
+      <c r="O702" s="13"/>
+      <c r="P702" s="13"/>
+      <c r="Q702" s="13"/>
+      <c r="R702" s="13"/>
+      <c r="S702" s="13"/>
+      <c r="T702" s="13"/>
+      <c r="U702" s="13"/>
+      <c r="V702" s="13"/>
+      <c r="W702" s="13"/>
+      <c r="X702" s="13"/>
+      <c r="Y702" s="13"/>
+      <c r="Z702" s="13"/>
+      <c r="AA702" s="13"/>
+      <c r="AB702" s="13"/>
+      <c r="AC702" s="13"/>
+      <c r="AD702" s="13"/>
+      <c r="AE702" s="13"/>
+      <c r="AF702" s="13"/>
+      <c r="AG702" s="13"/>
+    </row>
+    <row r="703" spans="3:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C703" s="28"/>
+      <c r="D703" s="13"/>
+      <c r="E703" s="13"/>
+      <c r="F703" s="29"/>
+      <c r="G703" s="13"/>
+      <c r="H703" s="13"/>
+      <c r="I703" s="13"/>
+      <c r="J703" s="13"/>
+      <c r="K703" s="13"/>
+      <c r="L703" s="13"/>
+      <c r="M703" s="13"/>
+      <c r="N703" s="13"/>
+      <c r="O703" s="13"/>
+      <c r="P703" s="13"/>
+      <c r="Q703" s="13"/>
+      <c r="R703" s="13"/>
+      <c r="S703" s="13"/>
+      <c r="T703" s="13"/>
+      <c r="U703" s="13"/>
+      <c r="V703" s="13"/>
+      <c r="W703" s="13"/>
+      <c r="X703" s="13"/>
+      <c r="Y703" s="13"/>
+      <c r="Z703" s="13"/>
+      <c r="AA703" s="13"/>
+      <c r="AB703" s="13"/>
+      <c r="AC703" s="13"/>
+      <c r="AD703" s="13"/>
+      <c r="AE703" s="13"/>
+      <c r="AF703" s="13"/>
+      <c r="AG703" s="13"/>
+    </row>
+    <row r="704" spans="3:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C704" s="28"/>
+      <c r="D704" s="13"/>
+      <c r="E704" s="13"/>
+      <c r="F704" s="29"/>
+      <c r="G704" s="13"/>
+      <c r="H704" s="13"/>
+      <c r="I704" s="13"/>
+      <c r="J704" s="13"/>
+      <c r="K704" s="13"/>
+      <c r="L704" s="13"/>
+      <c r="M704" s="13"/>
+      <c r="N704" s="13"/>
+      <c r="O704" s="13"/>
+      <c r="P704" s="13"/>
+      <c r="Q704" s="13"/>
+      <c r="R704" s="13"/>
+      <c r="S704" s="13"/>
+      <c r="T704" s="13"/>
+      <c r="U704" s="13"/>
+      <c r="V704" s="13"/>
+      <c r="W704" s="13"/>
+      <c r="X704" s="13"/>
+      <c r="Y704" s="13"/>
+      <c r="Z704" s="13"/>
+      <c r="AA704" s="13"/>
+      <c r="AB704" s="13"/>
+      <c r="AC704" s="13"/>
+      <c r="AD704" s="13"/>
+      <c r="AE704" s="13"/>
+      <c r="AF704" s="13"/>
+      <c r="AG704" s="13"/>
+    </row>
+    <row r="705" spans="3:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C705" s="28"/>
+      <c r="D705" s="13"/>
+      <c r="E705" s="13"/>
+      <c r="F705" s="29"/>
+      <c r="G705" s="13"/>
+      <c r="H705" s="13"/>
+      <c r="I705" s="13"/>
+      <c r="J705" s="13"/>
+      <c r="K705" s="13"/>
+      <c r="L705" s="13"/>
+      <c r="M705" s="13"/>
+      <c r="N705" s="13"/>
+      <c r="O705" s="13"/>
+      <c r="P705" s="13"/>
+      <c r="Q705" s="13"/>
+      <c r="R705" s="13"/>
+      <c r="S705" s="13"/>
+      <c r="T705" s="13"/>
+      <c r="U705" s="13"/>
+      <c r="V705" s="13"/>
+      <c r="W705" s="13"/>
+      <c r="X705" s="13"/>
+      <c r="Y705" s="13"/>
+      <c r="Z705" s="13"/>
+      <c r="AA705" s="13"/>
+      <c r="AB705" s="13"/>
+      <c r="AC705" s="13"/>
+      <c r="AD705" s="13"/>
+      <c r="AE705" s="13"/>
+      <c r="AF705" s="13"/>
+      <c r="AG705" s="13"/>
+    </row>
+    <row r="706" spans="3:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C706" s="28"/>
+      <c r="D706" s="13"/>
+      <c r="E706" s="13"/>
+      <c r="F706" s="29"/>
+      <c r="G706" s="13"/>
+      <c r="H706" s="13"/>
+      <c r="I706" s="13"/>
+      <c r="J706" s="13"/>
+      <c r="K706" s="13"/>
+      <c r="L706" s="13"/>
+      <c r="M706" s="13"/>
+      <c r="N706" s="13"/>
+      <c r="O706" s="13"/>
+      <c r="P706" s="13"/>
+      <c r="Q706" s="13"/>
+      <c r="R706" s="13"/>
+      <c r="S706" s="13"/>
+      <c r="T706" s="13"/>
+      <c r="U706" s="13"/>
+      <c r="V706" s="13"/>
+      <c r="W706" s="13"/>
+      <c r="X706" s="13"/>
+      <c r="Y706" s="13"/>
+      <c r="Z706" s="13"/>
+      <c r="AA706" s="13"/>
+      <c r="AB706" s="13"/>
+      <c r="AC706" s="13"/>
+      <c r="AD706" s="13"/>
+      <c r="AE706" s="13"/>
+      <c r="AF706" s="13"/>
+      <c r="AG706" s="13"/>
+    </row>
+    <row r="707" spans="3:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C707" s="28"/>
+      <c r="D707" s="13"/>
+      <c r="E707" s="13"/>
+      <c r="F707" s="29"/>
+      <c r="G707" s="13"/>
+      <c r="H707" s="13"/>
+      <c r="I707" s="13"/>
+      <c r="J707" s="13"/>
+      <c r="K707" s="13"/>
+      <c r="L707" s="13"/>
+      <c r="M707" s="13"/>
+      <c r="N707" s="13"/>
+      <c r="O707" s="13"/>
+      <c r="P707" s="13"/>
+      <c r="Q707" s="13"/>
+      <c r="R707" s="13"/>
+      <c r="S707" s="13"/>
+      <c r="T707" s="13"/>
+      <c r="U707" s="13"/>
+      <c r="V707" s="13"/>
+      <c r="W707" s="13"/>
+      <c r="X707" s="13"/>
+      <c r="Y707" s="13"/>
+      <c r="Z707" s="13"/>
+      <c r="AA707" s="13"/>
+      <c r="AB707" s="13"/>
+      <c r="AC707" s="13"/>
+      <c r="AD707" s="13"/>
+      <c r="AE707" s="13"/>
+      <c r="AF707" s="13"/>
+      <c r="AG707" s="13"/>
+    </row>
+    <row r="708" spans="3:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C708" s="28"/>
+      <c r="D708" s="13"/>
+      <c r="E708" s="13"/>
+      <c r="F708" s="29"/>
+      <c r="G708" s="13"/>
+      <c r="H708" s="13"/>
+      <c r="I708" s="13"/>
+      <c r="J708" s="13"/>
+      <c r="K708" s="13"/>
+      <c r="L708" s="13"/>
+      <c r="M708" s="13"/>
+      <c r="N708" s="13"/>
+      <c r="O708" s="13"/>
+      <c r="P708" s="13"/>
+      <c r="Q708" s="13"/>
+      <c r="R708" s="13"/>
+      <c r="S708" s="13"/>
+      <c r="T708" s="13"/>
+      <c r="U708" s="13"/>
+      <c r="V708" s="13"/>
+      <c r="W708" s="13"/>
+      <c r="X708" s="13"/>
+      <c r="Y708" s="13"/>
+      <c r="Z708" s="13"/>
+      <c r="AA708" s="13"/>
+      <c r="AB708" s="13"/>
+      <c r="AC708" s="13"/>
+      <c r="AD708" s="13"/>
+      <c r="AE708" s="13"/>
+      <c r="AF708" s="13"/>
+      <c r="AG708" s="13"/>
+    </row>
+    <row r="709" spans="3:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C709" s="28"/>
+      <c r="D709" s="13"/>
+      <c r="E709" s="13"/>
+      <c r="F709" s="29"/>
+      <c r="G709" s="13"/>
+      <c r="H709" s="13"/>
+      <c r="I709" s="13"/>
+      <c r="J709" s="13"/>
+      <c r="K709" s="13"/>
+      <c r="L709" s="13"/>
+      <c r="M709" s="13"/>
+      <c r="N709" s="13"/>
+      <c r="O709" s="13"/>
+      <c r="P709" s="13"/>
+      <c r="Q709" s="13"/>
+      <c r="R709" s="13"/>
+      <c r="S709" s="13"/>
+      <c r="T709" s="13"/>
+      <c r="U709" s="13"/>
+      <c r="V709" s="13"/>
+      <c r="W709" s="13"/>
+      <c r="X709" s="13"/>
+      <c r="Y709" s="13"/>
+      <c r="Z709" s="13"/>
+      <c r="AA709" s="13"/>
+      <c r="AB709" s="13"/>
+      <c r="AC709" s="13"/>
+      <c r="AD709" s="13"/>
+      <c r="AE709" s="13"/>
+      <c r="AF709" s="13"/>
+      <c r="AG709" s="13"/>
+    </row>
+    <row r="710" spans="3:33" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C710" s="28"/>
+      <c r="D710" s="13"/>
+      <c r="E710" s="13"/>
+      <c r="F710" s="29"/>
+      <c r="G710" s="13"/>
+      <c r="H710" s="13"/>
+      <c r="I710" s="13"/>
+      <c r="J710" s="13"/>
+      <c r="K710" s="13"/>
+      <c r="L710" s="13"/>
+      <c r="M710" s="13"/>
+      <c r="N710" s="13"/>
+      <c r="O710" s="13"/>
+      <c r="P710" s="13"/>
+      <c r="Q710" s="13"/>
+      <c r="R710" s="13"/>
+      <c r="S710" s="13"/>
+      <c r="T710" s="13"/>
+      <c r="U710" s="13"/>
+      <c r="V710" s="13"/>
+      <c r="W710" s="13"/>
+      <c r="X710" s="13"/>
+      <c r="Y710" s="13"/>
+      <c r="Z710" s="13"/>
+      <c r="AA710" s="13"/>
+      <c r="AB710" s="13"/>
+      <c r="AC710" s="13"/>
+      <c r="AD710" s="13"/>
+      <c r="AE710" s="13"/>
+      <c r="AF710" s="13"/>
+      <c r="AG710" s="13"/>
+    </row>
   </sheetData>
   <sheetProtection insertRows="0" deleteRows="0" autoFilter="0"/>
   <autoFilter ref="B6:L6"/>
   <mergeCells count="3">
     <mergeCell ref="B2:G5"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D60"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D69"/>
   </mergeCells>
-  <conditionalFormatting sqref="C48:BU48">
-    <cfRule type="expression" dxfId="47" priority="409">
+  <conditionalFormatting sqref="C57:BU57">
+    <cfRule type="expression" dxfId="206" priority="680">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N7:HE47">
-    <cfRule type="expression" dxfId="46" priority="492">
+  <conditionalFormatting sqref="N7:HE56">
+    <cfRule type="expression" dxfId="205" priority="763">
       <formula>PorcentagemConcluída</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="493">
+    <cfRule type="expression" dxfId="204" priority="764">
       <formula>PorcentagemConcluídaPosterior</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="494">
+    <cfRule type="expression" dxfId="203" priority="765">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="495">
+    <cfRule type="expression" dxfId="202" priority="766">
       <formula>RealPosterior</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="496">
+    <cfRule type="expression" dxfId="201" priority="767">
       <formula>Plano</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="497">
+    <cfRule type="expression" dxfId="200" priority="768">
       <formula>N$6=$J$4+periodo_selecionado-1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="498">
+    <cfRule type="expression" dxfId="199" priority="769">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="499">
+    <cfRule type="expression" dxfId="198" priority="770">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:HE6">
-    <cfRule type="expression" dxfId="38" priority="500">
+    <cfRule type="expression" dxfId="197" priority="771">
       <formula>N$6=$J$4+periodo_selecionado-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BV48:HE48">
-    <cfRule type="expression" dxfId="37" priority="407">
+  <conditionalFormatting sqref="BV57:HE57">
+    <cfRule type="expression" dxfId="196" priority="678">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K10 K14 K26 K30 K34 K38 K42 K46:K47 K18 K22">
-    <cfRule type="containsText" dxfId="36" priority="400" operator="containsText" text="Em andamento">
+  <conditionalFormatting sqref="K8">
+    <cfRule type="containsText" dxfId="195" priority="671" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="401" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="194" priority="672" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="402" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="193" priority="673" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="33" priority="399">
+  <conditionalFormatting sqref="B57">
+    <cfRule type="expression" dxfId="192" priority="670">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27 K31 K35 K39 K43">
-    <cfRule type="containsText" dxfId="32" priority="388" operator="containsText" text="Em andamento">
+  <conditionalFormatting sqref="K44">
+    <cfRule type="containsText" dxfId="191" priority="202" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K44)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="190" priority="203" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K44)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="189" priority="204" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44">
+    <cfRule type="containsText" dxfId="188" priority="201" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43">
+    <cfRule type="containsText" dxfId="187" priority="198" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="186" priority="199" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="185" priority="200" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43">
+    <cfRule type="containsText" dxfId="184" priority="197" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42">
+    <cfRule type="containsText" dxfId="183" priority="194" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="182" priority="195" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="181" priority="196" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42">
+    <cfRule type="containsText" dxfId="180" priority="193" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K41">
+    <cfRule type="containsText" dxfId="179" priority="190" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="178" priority="191" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="177" priority="192" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K41">
+    <cfRule type="containsText" dxfId="176" priority="189" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39">
+    <cfRule type="containsText" dxfId="175" priority="178" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="174" priority="179" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="173" priority="180" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39">
+    <cfRule type="containsText" dxfId="172" priority="177" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K38">
+    <cfRule type="containsText" dxfId="171" priority="174" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="170" priority="175" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="169" priority="176" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K38">
+    <cfRule type="containsText" dxfId="168" priority="173" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40">
+    <cfRule type="containsText" dxfId="167" priority="170" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="166" priority="171" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="165" priority="172" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40">
+    <cfRule type="containsText" dxfId="164" priority="169" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K37">
+    <cfRule type="containsText" dxfId="163" priority="166" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="162" priority="167" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="161" priority="168" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K37">
+    <cfRule type="containsText" dxfId="160" priority="165" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36">
+    <cfRule type="containsText" dxfId="159" priority="162" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="158" priority="163" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="157" priority="164" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36">
+    <cfRule type="containsText" dxfId="156" priority="161" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35">
+    <cfRule type="containsText" dxfId="155" priority="158" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="154" priority="159" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="153" priority="160" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35">
+    <cfRule type="containsText" dxfId="152" priority="157" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34">
+    <cfRule type="containsText" dxfId="151" priority="154" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="150" priority="155" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="149" priority="156" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34">
+    <cfRule type="containsText" dxfId="148" priority="153" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33">
+    <cfRule type="containsText" dxfId="147" priority="150" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="146" priority="151" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="145" priority="152" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33">
+    <cfRule type="containsText" dxfId="144" priority="149" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
+    <cfRule type="containsText" dxfId="143" priority="146" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="142" priority="147" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="141" priority="148" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
+    <cfRule type="containsText" dxfId="140" priority="145" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31">
+    <cfRule type="containsText" dxfId="139" priority="142" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="138" priority="143" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="137" priority="144" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31">
+    <cfRule type="containsText" dxfId="136" priority="141" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30">
+    <cfRule type="containsText" dxfId="135" priority="138" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="134" priority="139" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="133" priority="140" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30">
+    <cfRule type="containsText" dxfId="132" priority="137" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29">
+    <cfRule type="containsText" dxfId="131" priority="134" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="130" priority="135" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="129" priority="136" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29">
+    <cfRule type="containsText" dxfId="128" priority="133" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28">
+    <cfRule type="containsText" dxfId="127" priority="130" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="126" priority="131" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="125" priority="132" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28">
+    <cfRule type="containsText" dxfId="124" priority="129" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27">
+    <cfRule type="containsText" dxfId="123" priority="126" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="389" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="122" priority="127" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="390" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="121" priority="128" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12 K28 K32 K36 K40 K44">
-    <cfRule type="containsText" dxfId="29" priority="377" operator="containsText" text="Em andamento">
+  <conditionalFormatting sqref="K27">
+    <cfRule type="containsText" dxfId="120" priority="125" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
+    <cfRule type="containsText" dxfId="119" priority="122" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="118" priority="123" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="124" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
+    <cfRule type="containsText" dxfId="116" priority="121" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="containsText" dxfId="115" priority="118" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="119" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="113" priority="120" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="containsText" dxfId="112" priority="117" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
+    <cfRule type="containsText" dxfId="111" priority="114" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="110" priority="115" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="109" priority="116" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
+    <cfRule type="containsText" dxfId="108" priority="113" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="containsText" dxfId="107" priority="110" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="111" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="105" priority="112" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="containsText" dxfId="104" priority="109" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="containsText" dxfId="103" priority="106" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="107" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="101" priority="108" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="containsText" dxfId="100" priority="105" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21">
+    <cfRule type="containsText" dxfId="99" priority="102" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="98" priority="103" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="97" priority="104" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21">
+    <cfRule type="containsText" dxfId="96" priority="101" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="containsText" dxfId="95" priority="98" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="99" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="93" priority="100" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="containsText" dxfId="92" priority="97" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19">
+    <cfRule type="containsText" dxfId="91" priority="94" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="90" priority="95" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="89" priority="96" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19">
+    <cfRule type="containsText" dxfId="88" priority="93" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
+    <cfRule type="containsText" dxfId="87" priority="90" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="86" priority="91" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="92" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
+    <cfRule type="containsText" dxfId="84" priority="89" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
+    <cfRule type="containsText" dxfId="83" priority="86" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="87" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="88" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
+    <cfRule type="containsText" dxfId="80" priority="85" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="containsText" dxfId="79" priority="82" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="83" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="84" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="containsText" dxfId="76" priority="81" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="containsText" dxfId="75" priority="78" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="79" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="80" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="containsText" dxfId="72" priority="77" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="containsText" dxfId="71" priority="74" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="75" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="76" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="containsText" dxfId="68" priority="73" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="containsText" dxfId="67" priority="70" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="71" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="65" priority="72" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="containsText" dxfId="64" priority="69" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="containsText" dxfId="63" priority="66" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="378" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="62" priority="67" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="379" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="61" priority="68" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13 K21 K25 K29 K33 K37 K41 K45">
-    <cfRule type="containsText" dxfId="26" priority="366" operator="containsText" text="Em andamento">
-      <formula>NOT(ISERROR(SEARCH("Em andamento",K13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="367" operator="containsText" text="Em atraso">
-      <formula>NOT(ISERROR(SEARCH("Em atraso",K13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="368" operator="containsText" text="Concluído">
-      <formula>NOT(ISERROR(SEARCH("Concluído",K13)))</formula>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="containsText" dxfId="60" priority="65" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="59" priority="62" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="58" priority="63" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="57" priority="64" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K11)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
-    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="Em andamento">
-      <formula>NOT(ISERROR(SEARCH("Em andamento",K15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="Em atraso">
-      <formula>NOT(ISERROR(SEARCH("Em atraso",K15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="Concluído">
-      <formula>NOT(ISERROR(SEARCH("Concluído",K15)))</formula>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="containsText" dxfId="56" priority="61" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K11)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
-    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="Em andamento">
-      <formula>NOT(ISERROR(SEARCH("Em andamento",K16)))</formula>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="containsText" dxfId="55" priority="58" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Em atraso">
-      <formula>NOT(ISERROR(SEARCH("Em atraso",K16)))</formula>
+    <cfRule type="containsText" dxfId="54" priority="59" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="Concluído">
-      <formula>NOT(ISERROR(SEARCH("Concluído",K16)))</formula>
+    <cfRule type="containsText" dxfId="53" priority="60" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K10)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="Em andamento">
-      <formula>NOT(ISERROR(SEARCH("Em andamento",K17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Em atraso">
-      <formula>NOT(ISERROR(SEARCH("Em atraso",K17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Concluído">
-      <formula>NOT(ISERROR(SEARCH("Concluído",K17)))</formula>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="containsText" dxfId="52" priority="57" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K10)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19">
+  <conditionalFormatting sqref="K9">
+    <cfRule type="containsText" dxfId="51" priority="54" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="55" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="56" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="containsText" dxfId="48" priority="53" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:K56">
+    <cfRule type="containsText" dxfId="47" priority="50" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="51" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="52" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:K56">
+    <cfRule type="containsText" dxfId="44" priority="49" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46">
+    <cfRule type="containsText" dxfId="43" priority="46" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="47" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="48" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46">
+    <cfRule type="containsText" dxfId="40" priority="45" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47">
+    <cfRule type="containsText" dxfId="39" priority="38" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="40" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47">
+    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48">
+    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48">
+    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49">
+    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49">
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50">
+    <cfRule type="containsText" dxfId="27" priority="26" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="28" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50">
+    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51">
+    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52">
+    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K53">
+    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K53">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Em andamento">
-      <formula>NOT(ISERROR(SEARCH("Em andamento",K19)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K54)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Em atraso">
-      <formula>NOT(ISERROR(SEARCH("Em atraso",K19)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K54)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Concluído">
-      <formula>NOT(ISERROR(SEARCH("Concluído",K19)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Concluído",K54)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Em andamento">
-      <formula>NOT(ISERROR(SEARCH("Em andamento",K20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Em atraso">
-      <formula>NOT(ISERROR(SEARCH("Em atraso",K20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Concluído">
-      <formula>NOT(ISERROR(SEARCH("Concluído",K20)))</formula>
+  <conditionalFormatting sqref="K54">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K54)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Em andamento">
-      <formula>NOT(ISERROR(SEARCH("Em andamento",K23)))</formula>
+  <conditionalFormatting sqref="K55">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Em atraso">
-      <formula>NOT(ISERROR(SEARCH("Em atraso",K23)))</formula>
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Concluído">
-      <formula>NOT(ISERROR(SEARCH("Concluído",K23)))</formula>
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K55)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Em andamento">
-      <formula>NOT(ISERROR(SEARCH("Em andamento",K24)))</formula>
+  <conditionalFormatting sqref="K55">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Em atraso">
-      <formula>NOT(ISERROR(SEARCH("Em atraso",K24)))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Concluído">
-      <formula>NOT(ISERROR(SEARCH("Concluído",K24)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -34718,97 +39069,97 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="56" t="s">
-        <v>29</v>
-      </c>
       <c r="D1" s="57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E1" s="57"/>
       <c r="F1" s="57"/>
       <c r="G1" s="58"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
+      <c r="A2" s="89" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
+      <c r="A3" s="90"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
+      <c r="A4" s="90"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
+      <c r="A5" s="90"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="C6" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="D6" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="E6" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="F6" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="64" t="s">
         <v>72</v>
-      </c>
-      <c r="F6" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="64" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="69">
         <v>42503</v>
@@ -34820,18 +39171,18 @@
         <v>42506</v>
       </c>
       <c r="G7" s="68" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="68" t="s">
         <v>83</v>
-      </c>
-      <c r="C8" s="68" t="s">
-        <v>84</v>
       </c>
       <c r="D8" s="69">
         <v>42503</v>
@@ -34843,18 +39194,18 @@
         <v>42505</v>
       </c>
       <c r="G8" s="68" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="69">
         <v>42505</v>
@@ -34866,18 +39217,18 @@
         <v>42510</v>
       </c>
       <c r="G9" s="68" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="69">
         <v>42505</v>
@@ -34889,18 +39240,18 @@
         <v>42510</v>
       </c>
       <c r="G10" s="68" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" s="67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="69">
         <v>42507</v>
@@ -34912,18 +39263,18 @@
         <v>42510</v>
       </c>
       <c r="G11" s="68" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="68" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="69">
         <v>42509</v>
@@ -34935,18 +39286,18 @@
         <v>42510</v>
       </c>
       <c r="G12" s="68" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="69">
         <v>42509</v>
@@ -34958,18 +39309,18 @@
         <v>42510</v>
       </c>
       <c r="G13" s="68" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="69">
         <v>42509</v>
@@ -34981,7 +39332,7 @@
         <v>42510</v>
       </c>
       <c r="G14" s="68" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -35029,64 +39380,64 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="56" t="s">
-        <v>29</v>
-      </c>
       <c r="D1" s="57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E1" s="57"/>
       <c r="F1" s="57"/>
       <c r="G1" s="58"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
+      <c r="A2" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
+      <c r="A3" s="90"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
+      <c r="A4" s="90"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
+      <c r="A5" s="90"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="63"/>
@@ -35099,13 +39450,13 @@
     </row>
     <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C7" s="62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="61">
         <v>42513</v>
@@ -35117,18 +39468,18 @@
         <v>42518</v>
       </c>
       <c r="G7" s="62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C8" s="71" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D8" s="61">
         <v>42517</v>
@@ -35140,18 +39491,18 @@
         <v>42517</v>
       </c>
       <c r="G8" s="62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" s="61">
         <v>42519</v>
@@ -35163,18 +39514,18 @@
         <v>42519</v>
       </c>
       <c r="G9" s="62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C10" s="62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" s="61">
         <v>42520</v>
@@ -35186,18 +39537,18 @@
         <v>42522</v>
       </c>
       <c r="G10" s="62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="61">
         <v>42520</v>
@@ -35209,18 +39560,18 @@
         <v>42523</v>
       </c>
       <c r="G11" s="62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="61">
         <v>42520</v>
@@ -35232,18 +39583,18 @@
         <v>42521</v>
       </c>
       <c r="G12" s="62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="61">
         <v>42522</v>
@@ -35255,18 +39606,18 @@
         <v>42523</v>
       </c>
       <c r="G13" s="62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="61">
         <v>42523</v>
@@ -35278,18 +39629,18 @@
         <v>42524</v>
       </c>
       <c r="G14" s="62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="65" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="61">
         <v>42519</v>
@@ -35301,18 +39652,18 @@
         <v>42524</v>
       </c>
       <c r="G15" s="62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="65" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D16" s="61">
         <v>42524</v>
@@ -35324,18 +39675,18 @@
         <v>42525</v>
       </c>
       <c r="G16" s="62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="65" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C17" s="71" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D17" s="61">
         <v>42524</v>
@@ -35347,18 +39698,18 @@
         <v>42526</v>
       </c>
       <c r="G17" s="62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="65" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C18" s="71" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D18" s="61">
         <v>42524</v>
@@ -35370,7 +39721,7 @@
         <v>42527</v>
       </c>
       <c r="G18" s="62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -35410,104 +39761,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
+      <c r="A1" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
+      <c r="A3" s="91"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="79"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="80" t="str">
+      <c r="A5" s="92" t="str">
         <f>HYPERLINK("https://trello.com/b/Bc4qaimg", "Quadro de Task")</f>
         <v>Quadro de Task</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="80"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="80"/>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="80"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="59"/>

--- a/docs/Project Docs/STE_CP_CronogramaDoProjeto.xlsx
+++ b/docs/Project Docs/STE_CP_CronogramaDoProjeto.xlsx
@@ -27,7 +27,7 @@
     <definedName name="PorcentagemConcluídaPosterior">('Cronograma + Diagrama de Gantt'!A$6=MEDIAN('Cronograma + Diagrama de Gantt'!A$6,'Cronograma + Diagrama de Gantt'!$H1,'Cronograma + Diagrama de Gantt'!$H1+'Cronograma + Diagrama de Gantt'!$E1)*('Cronograma + Diagrama de Gantt'!$H1&gt;0))*(('Cronograma + Diagrama de Gantt'!A$6&lt;(INT('Cronograma + Diagrama de Gantt'!$H1+'Cronograma + Diagrama de Gantt'!$E1*'Cronograma + Diagrama de Gantt'!$F1)))+('Cronograma + Diagrama de Gantt'!A$6='Cronograma + Diagrama de Gantt'!$H1))*('Cronograma + Diagrama de Gantt'!$F1&gt;0)</definedName>
     <definedName name="Real">(PeriodoInReal*('Cronograma + Diagrama de Gantt'!$H1&gt;0))*PeriodoInPlanejado</definedName>
     <definedName name="RealPosterior">PeriodoInReal*('Cronograma + Diagrama de Gantt'!$H1&gt;0)</definedName>
-    <definedName name="SOMA">'Cronograma + Diagrama de Gantt'!$I$42:$I$47</definedName>
+    <definedName name="SOMA">'Cronograma + Diagrama de Gantt'!$I$42:$I$51</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -806,7 +806,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -925,6 +925,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -955,7 +964,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1265,6 +1274,13 @@
     <xf numFmtId="0" fontId="25" fillId="16" borderId="9" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Activity" xfId="2"/>
@@ -1279,44 +1295,7 @@
     <cellStyle name="Project Headers" xfId="4"/>
     <cellStyle name="Título 1" xfId="1" builtinId="16" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="207">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF004080"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="203">
     <dxf>
       <fill>
         <patternFill>
@@ -3847,8 +3826,8 @@
   </sheetPr>
   <dimension ref="B1:HE710"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -4890,15 +4869,15 @@
       </c>
       <c r="D7" s="43">
         <f>(I7-G7)+1</f>
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E7" s="43">
         <f>(J7-H7)+1</f>
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="F7" s="36">
         <f>AVERAGE($F$9:$F$57)</f>
-        <v>0.8125</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G7" s="37">
         <f>SMALL($G$8:$G$56,1)</f>
@@ -4910,11 +4889,11 @@
       </c>
       <c r="I7" s="37">
         <f>LARGE($I$8:$I$56,1)</f>
-        <v>42566</v>
+        <v>42576</v>
       </c>
       <c r="J7" s="37">
         <f>LARGE($J$8:$J$56,1)</f>
-        <v>42568</v>
+        <v>42577</v>
       </c>
       <c r="K7" s="37"/>
       <c r="L7" s="38"/>
@@ -12097,7 +12076,7 @@
         <v>42552</v>
       </c>
       <c r="I38" s="27">
-        <f t="shared" ref="I38:I47" si="146">(G38+D38)-1</f>
+        <f t="shared" ref="I38:I45" si="146">(G38+D38)-1</f>
         <v>42552</v>
       </c>
       <c r="J38" s="27">
@@ -13987,37 +13966,35 @@
       <c r="HE45" s="17"/>
     </row>
     <row r="46" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="34">
+      <c r="B46" s="74">
         <v>4</v>
       </c>
-      <c r="C46" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="D46" s="34">
-        <v>3</v>
-      </c>
-      <c r="E46" s="34"/>
-      <c r="F46" s="40">
-        <v>0</v>
-      </c>
-      <c r="G46" s="10">
+      <c r="C46" s="75" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="76">
+        <v>1</v>
+      </c>
+      <c r="G46" s="77">
         <v>42552</v>
       </c>
-      <c r="H46" s="10"/>
-      <c r="I46" s="27">
-        <f t="shared" si="146"/>
-        <v>42554</v>
-      </c>
-      <c r="J46" s="27">
-        <f t="shared" si="145"/>
-        <v>-1</v>
+      <c r="H46" s="77">
+        <v>42552</v>
+      </c>
+      <c r="I46" s="77">
+        <v>42552</v>
+      </c>
+      <c r="J46" s="77">
+        <v>42552</v>
       </c>
       <c r="K46" s="27" t="str">
         <f t="shared" ref="K46:K56" ca="1" si="147">IF(F46=1,"Concluído",IF(G46&gt;TODAY(), "A iniciar", IF(AND(I46&lt;TODAY(),F46&lt;1),"Em atraso","Em andamento")))</f>
-        <v>Em atraso</v>
-      </c>
-      <c r="L46" s="41" t="s">
-        <v>33</v>
+        <v>Concluído</v>
+      </c>
+      <c r="L46" s="78" t="s">
+        <v>84</v>
       </c>
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
@@ -14222,34 +14199,38 @@
       <c r="HE46" s="17"/>
     </row>
     <row r="47" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="34">
+      <c r="B47" s="83">
         <v>4</v>
       </c>
-      <c r="C47" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="D47" s="34">
-        <v>3</v>
-      </c>
-      <c r="E47" s="34"/>
-      <c r="F47" s="40">
-        <v>0</v>
-      </c>
-      <c r="G47" s="10">
-        <v>42552</v>
-      </c>
-      <c r="H47" s="10"/>
-      <c r="I47" s="27">
-        <f t="shared" si="146"/>
-        <v>42554</v>
-      </c>
-      <c r="J47" s="27">
-        <f t="shared" si="145"/>
-        <v>-1</v>
+      <c r="C47" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" s="83">
+        <v>12</v>
+      </c>
+      <c r="E47" s="83">
+        <v>12</v>
+      </c>
+      <c r="F47" s="93">
+        <v>1</v>
+      </c>
+      <c r="G47" s="85">
+        <v>42555</v>
+      </c>
+      <c r="H47" s="85">
+        <v>42555</v>
+      </c>
+      <c r="I47" s="94">
+        <f>(G47+D47)-1</f>
+        <v>42566</v>
+      </c>
+      <c r="J47" s="94">
+        <f>(H47+E47)-1</f>
+        <v>42566</v>
       </c>
       <c r="K47" s="27" t="str">
-        <f t="shared" ca="1" si="147"/>
-        <v>Em atraso</v>
+        <f ca="1">IF(F47=1,"Concluído",IF(G47&gt;TODAY(), "A iniciar", IF(AND(I47&lt;TODAY(),F47&lt;1),"Em atraso","Em andamento")))</f>
+        <v>Concluído</v>
       </c>
       <c r="L47" s="41" t="s">
         <v>33</v>
@@ -14461,7 +14442,7 @@
         <v>4</v>
       </c>
       <c r="C48" s="75" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D48" s="74"/>
       <c r="E48" s="74"/>
@@ -14469,19 +14450,19 @@
         <v>1</v>
       </c>
       <c r="G48" s="77">
-        <v>42552</v>
+        <v>42570</v>
       </c>
       <c r="H48" s="77">
-        <v>42552</v>
+        <v>42570</v>
       </c>
       <c r="I48" s="77">
-        <v>42552</v>
+        <v>42570</v>
       </c>
       <c r="J48" s="77">
-        <v>42552</v>
+        <v>42570</v>
       </c>
       <c r="K48" s="27" t="str">
-        <f t="shared" ca="1" si="147"/>
+        <f ca="1">IF(F48=1,"Concluído",IF(G48&gt;TODAY(), "A iniciar", IF(AND(I48&lt;TODAY(),F48&lt;1),"Em atraso","Em andamento")))</f>
         <v>Concluído</v>
       </c>
       <c r="L48" s="78" t="s">
@@ -14690,32 +14671,32 @@
       <c r="HE48" s="17"/>
     </row>
     <row r="49" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="74">
+      <c r="B49" s="79">
         <v>4</v>
       </c>
-      <c r="C49" s="75" t="s">
-        <v>125</v>
-      </c>
-      <c r="D49" s="74"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="76">
+      <c r="C49" s="80" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" s="79"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="81">
         <v>0</v>
       </c>
-      <c r="G49" s="77">
-        <v>42554</v>
-      </c>
-      <c r="H49" s="77">
-        <v>42554</v>
-      </c>
-      <c r="I49" s="77">
-        <v>42554</v>
-      </c>
-      <c r="J49" s="77">
-        <v>42554</v>
+      <c r="G49" s="82">
+        <v>42571</v>
+      </c>
+      <c r="H49" s="82">
+        <v>42571</v>
+      </c>
+      <c r="I49" s="82">
+        <v>42571</v>
+      </c>
+      <c r="J49" s="82">
+        <v>42571</v>
       </c>
       <c r="K49" s="27" t="str">
-        <f ca="1">IF(F49=1,"Concluído",IF(G49&gt;TODAY(), "A iniciar", IF(AND(I49&lt;TODAY(),F49&lt;1),"Em atraso","Em andamento")))</f>
-        <v>Em atraso</v>
+        <f t="shared" ca="1" si="147"/>
+        <v>Em andamento</v>
       </c>
       <c r="L49" s="78" t="s">
         <v>84</v>
@@ -14923,35 +14904,37 @@
       <c r="HE49" s="17"/>
     </row>
     <row r="50" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="79">
-        <v>4</v>
-      </c>
-      <c r="C50" s="80" t="s">
-        <v>124</v>
-      </c>
-      <c r="D50" s="79"/>
-      <c r="E50" s="79"/>
-      <c r="F50" s="81">
+      <c r="B50" s="34">
+        <v>5</v>
+      </c>
+      <c r="C50" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="34">
+        <v>5</v>
+      </c>
+      <c r="E50" s="34"/>
+      <c r="F50" s="40">
         <v>0</v>
       </c>
-      <c r="G50" s="82">
-        <v>42554</v>
-      </c>
-      <c r="H50" s="82">
-        <v>42554</v>
-      </c>
-      <c r="I50" s="82">
-        <v>42554</v>
-      </c>
-      <c r="J50" s="82">
-        <v>42554</v>
+      <c r="G50" s="10">
+        <v>42572</v>
+      </c>
+      <c r="H50" s="10"/>
+      <c r="I50" s="27">
+        <f>(G50+D50)-1</f>
+        <v>42576</v>
+      </c>
+      <c r="J50" s="27">
+        <f>(H50+E50)-1</f>
+        <v>-1</v>
       </c>
       <c r="K50" s="27" t="str">
-        <f t="shared" ca="1" si="147"/>
-        <v>Em atraso</v>
-      </c>
-      <c r="L50" s="78" t="s">
-        <v>84</v>
+        <f ca="1">IF(F50=1,"Concluído",IF(G50&gt;TODAY(), "A iniciar", IF(AND(I50&lt;TODAY(),F50&lt;1),"Em atraso","Em andamento")))</f>
+        <v>A iniciar</v>
+      </c>
+      <c r="L50" s="41" t="s">
+        <v>33</v>
       </c>
       <c r="M50" s="13"/>
       <c r="N50" s="13"/>
@@ -15156,37 +15139,34 @@
       <c r="HE50" s="17"/>
     </row>
     <row r="51" spans="2:213" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="83">
+      <c r="B51" s="34">
         <v>5</v>
       </c>
-      <c r="C51" s="84" t="s">
-        <v>127</v>
-      </c>
-      <c r="D51" s="83">
+      <c r="C51" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="34">
         <v>5</v>
       </c>
-      <c r="E51" s="83">
-        <v>5</v>
-      </c>
+      <c r="E51" s="34"/>
       <c r="F51" s="40">
-        <v>1</v>
-      </c>
-      <c r="G51" s="85">
-        <v>42555</v>
-      </c>
-      <c r="H51" s="85">
-        <v>42555</v>
-      </c>
-      <c r="I51" s="85">
-        <v>42559</v>
+        <v>0</v>
+      </c>
+      <c r="G51" s="10">
+        <v>42572</v>
+      </c>
+      <c r="H51" s="10"/>
+      <c r="I51" s="27">
+        <f>(G51+D51)-1</f>
+        <v>42576</v>
       </c>
       <c r="J51" s="27">
-        <f t="shared" si="145"/>
-        <v>42559</v>
+        <f>(H51+E51)-1</f>
+        <v>-1</v>
       </c>
       <c r="K51" s="27" t="str">
-        <f t="shared" ca="1" si="147"/>
-        <v>Concluído</v>
+        <f ca="1">IF(F51=1,"Concluído",IF(G51&gt;TODAY(), "A iniciar", IF(AND(I51&lt;TODAY(),F51&lt;1),"Em atraso","Em andamento")))</f>
+        <v>A iniciar</v>
       </c>
       <c r="L51" s="41" t="s">
         <v>33</v>
@@ -15408,12 +15388,12 @@
         <v>0</v>
       </c>
       <c r="G52" s="10">
-        <v>42562</v>
+        <v>42572</v>
       </c>
       <c r="H52" s="10"/>
       <c r="I52" s="27">
         <f>(G52+D52)-1</f>
-        <v>42566</v>
+        <v>42576</v>
       </c>
       <c r="J52" s="27">
         <f t="shared" si="145"/>
@@ -15421,7 +15401,7 @@
       </c>
       <c r="K52" s="27" t="str">
         <f t="shared" ca="1" si="147"/>
-        <v>Em andamento</v>
+        <v>A iniciar</v>
       </c>
       <c r="L52" s="41" t="s">
         <v>33</v>
@@ -15643,12 +15623,12 @@
         <v>0</v>
       </c>
       <c r="G53" s="10">
-        <v>42562</v>
+        <v>42572</v>
       </c>
       <c r="H53" s="10"/>
       <c r="I53" s="27">
         <f t="shared" si="144"/>
-        <v>42566</v>
+        <v>42576</v>
       </c>
       <c r="J53" s="27">
         <f t="shared" si="145"/>
@@ -15656,7 +15636,7 @@
       </c>
       <c r="K53" s="27" t="str">
         <f t="shared" ca="1" si="147"/>
-        <v>Em andamento</v>
+        <v>A iniciar</v>
       </c>
       <c r="L53" s="41" t="s">
         <v>33</v>
@@ -15878,12 +15858,12 @@
         <v>0</v>
       </c>
       <c r="G54" s="10">
-        <v>42562</v>
+        <v>42572</v>
       </c>
       <c r="H54" s="10"/>
       <c r="I54" s="27">
         <f t="shared" si="144"/>
-        <v>42566</v>
+        <v>42576</v>
       </c>
       <c r="J54" s="27">
         <f t="shared" si="145"/>
@@ -15891,7 +15871,7 @@
       </c>
       <c r="K54" s="27" t="str">
         <f t="shared" ca="1" si="147"/>
-        <v>Em andamento</v>
+        <v>A iniciar</v>
       </c>
       <c r="L54" s="41" t="s">
         <v>33</v>
@@ -16113,12 +16093,12 @@
         <v>0</v>
       </c>
       <c r="G55" s="10">
-        <v>42562</v>
+        <v>42572</v>
       </c>
       <c r="H55" s="10"/>
       <c r="I55" s="27">
         <f t="shared" si="144"/>
-        <v>42566</v>
+        <v>42576</v>
       </c>
       <c r="J55" s="27">
         <f t="shared" si="145"/>
@@ -16126,7 +16106,7 @@
       </c>
       <c r="K55" s="27" t="str">
         <f t="shared" ca="1" si="147"/>
-        <v>Em andamento</v>
+        <v>A iniciar</v>
       </c>
       <c r="L55" s="41" t="s">
         <v>33</v>
@@ -16342,7 +16322,7 @@
         <v>67</v>
       </c>
       <c r="E56" s="34">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F56" s="40">
         <v>0</v>
@@ -16359,7 +16339,7 @@
       </c>
       <c r="J56" s="27">
         <f t="shared" si="143"/>
-        <v>42568</v>
+        <v>42577</v>
       </c>
       <c r="K56" s="27" t="str">
         <f t="shared" ca="1" si="147"/>
@@ -16780,7 +16760,7 @@
       </c>
       <c r="C63" s="3">
         <f>'Cronograma + Diagrama de Gantt'!$I$7</f>
-        <v>42566</v>
+        <v>42576</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="13"/>
@@ -16883,10 +16863,10 @@
       <c r="AF65" s="13"/>
       <c r="AG65" s="13"/>
     </row>
-    <row r="66" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:33" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="88">
         <f>'Cronograma + Diagrama de Gantt'!$F$7</f>
-        <v>0.8125</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C66" s="88"/>
       <c r="D66" s="88"/>
@@ -16920,7 +16900,7 @@
       <c r="AF66" s="13"/>
       <c r="AG66" s="13"/>
     </row>
-    <row r="67" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:33" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="88"/>
       <c r="C67" s="88"/>
       <c r="D67" s="88"/>
@@ -16954,7 +16934,7 @@
       <c r="AF67" s="13"/>
       <c r="AG67" s="13"/>
     </row>
-    <row r="68" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:33" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="88"/>
       <c r="C68" s="88"/>
       <c r="D68" s="88"/>
@@ -16988,7 +16968,7 @@
       <c r="AF68" s="13"/>
       <c r="AG68" s="13"/>
     </row>
-    <row r="69" spans="2:33" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:33" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="88"/>
       <c r="C69" s="88"/>
       <c r="D69" s="88"/>
@@ -38184,748 +38164,732 @@
     <mergeCell ref="B66:D69"/>
   </mergeCells>
   <conditionalFormatting sqref="C57:BU57">
-    <cfRule type="expression" dxfId="206" priority="680">
+    <cfRule type="expression" dxfId="202" priority="680">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7:HE56">
-    <cfRule type="expression" dxfId="205" priority="763">
+    <cfRule type="expression" dxfId="201" priority="763">
       <formula>PorcentagemConcluída</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="764">
+    <cfRule type="expression" dxfId="200" priority="764">
       <formula>PorcentagemConcluídaPosterior</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="765">
+    <cfRule type="expression" dxfId="199" priority="765">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="766">
+    <cfRule type="expression" dxfId="198" priority="766">
       <formula>RealPosterior</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="767">
+    <cfRule type="expression" dxfId="197" priority="767">
       <formula>Plano</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="768">
+    <cfRule type="expression" dxfId="196" priority="768">
       <formula>N$6=$J$4+periodo_selecionado-1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="769">
+    <cfRule type="expression" dxfId="195" priority="769">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="770">
+    <cfRule type="expression" dxfId="194" priority="770">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:HE6">
-    <cfRule type="expression" dxfId="197" priority="771">
+    <cfRule type="expression" dxfId="193" priority="771">
       <formula>N$6=$J$4+periodo_selecionado-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV57:HE57">
-    <cfRule type="expression" dxfId="196" priority="678">
+    <cfRule type="expression" dxfId="192" priority="678">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="containsText" dxfId="195" priority="671" operator="containsText" text="Em andamento">
+  <conditionalFormatting sqref="K8:K56">
+    <cfRule type="containsText" dxfId="191" priority="671" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="672" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="190" priority="672" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="673" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="189" priority="673" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="expression" dxfId="192" priority="670">
+    <cfRule type="expression" dxfId="188" priority="670">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44">
-    <cfRule type="containsText" dxfId="191" priority="202" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="187" priority="202" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="203" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="186" priority="203" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="204" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="185" priority="204" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K44)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44">
-    <cfRule type="containsText" dxfId="188" priority="201" operator="containsText" text="A iniciar">
-      <formula>NOT(ISERROR(SEARCH("A iniciar",K44)))</formula>
+  <conditionalFormatting sqref="K8:K56">
+    <cfRule type="containsText" dxfId="184" priority="201" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K43">
-    <cfRule type="containsText" dxfId="187" priority="198" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="183" priority="198" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="199" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="182" priority="199" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="185" priority="200" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="181" priority="200" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K43">
-    <cfRule type="containsText" dxfId="184" priority="197" operator="containsText" text="A iniciar">
+    <cfRule type="containsText" dxfId="180" priority="197" operator="containsText" text="A iniciar">
       <formula>NOT(ISERROR(SEARCH("A iniciar",K43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42">
-    <cfRule type="containsText" dxfId="183" priority="194" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="179" priority="194" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="195" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="178" priority="195" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="196" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="177" priority="196" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42">
-    <cfRule type="containsText" dxfId="180" priority="193" operator="containsText" text="A iniciar">
+    <cfRule type="containsText" dxfId="176" priority="193" operator="containsText" text="A iniciar">
       <formula>NOT(ISERROR(SEARCH("A iniciar",K42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41">
-    <cfRule type="containsText" dxfId="179" priority="190" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="175" priority="190" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="191" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="174" priority="191" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="192" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="173" priority="192" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41">
-    <cfRule type="containsText" dxfId="176" priority="189" operator="containsText" text="A iniciar">
+    <cfRule type="containsText" dxfId="172" priority="189" operator="containsText" text="A iniciar">
       <formula>NOT(ISERROR(SEARCH("A iniciar",K41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39">
-    <cfRule type="containsText" dxfId="175" priority="178" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="171" priority="178" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="179" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="170" priority="179" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="180" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="169" priority="180" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39">
-    <cfRule type="containsText" dxfId="172" priority="177" operator="containsText" text="A iniciar">
+    <cfRule type="containsText" dxfId="168" priority="177" operator="containsText" text="A iniciar">
       <formula>NOT(ISERROR(SEARCH("A iniciar",K39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38">
-    <cfRule type="containsText" dxfId="171" priority="174" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="167" priority="174" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="175" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="166" priority="175" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="176" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="165" priority="176" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38">
-    <cfRule type="containsText" dxfId="168" priority="173" operator="containsText" text="A iniciar">
+    <cfRule type="containsText" dxfId="164" priority="173" operator="containsText" text="A iniciar">
       <formula>NOT(ISERROR(SEARCH("A iniciar",K38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40">
-    <cfRule type="containsText" dxfId="167" priority="170" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="163" priority="170" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="171" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="162" priority="171" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="172" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="161" priority="172" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40">
-    <cfRule type="containsText" dxfId="164" priority="169" operator="containsText" text="A iniciar">
+    <cfRule type="containsText" dxfId="160" priority="169" operator="containsText" text="A iniciar">
       <formula>NOT(ISERROR(SEARCH("A iniciar",K40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37">
-    <cfRule type="containsText" dxfId="163" priority="166" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="159" priority="166" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="167" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="158" priority="167" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="168" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="157" priority="168" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37">
-    <cfRule type="containsText" dxfId="160" priority="165" operator="containsText" text="A iniciar">
+    <cfRule type="containsText" dxfId="156" priority="165" operator="containsText" text="A iniciar">
       <formula>NOT(ISERROR(SEARCH("A iniciar",K37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="containsText" dxfId="159" priority="162" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="155" priority="162" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="163" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="154" priority="163" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="164" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="153" priority="164" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="containsText" dxfId="156" priority="161" operator="containsText" text="A iniciar">
+    <cfRule type="containsText" dxfId="152" priority="161" operator="containsText" text="A iniciar">
       <formula>NOT(ISERROR(SEARCH("A iniciar",K36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35">
-    <cfRule type="containsText" dxfId="155" priority="158" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="151" priority="158" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="159" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="150" priority="159" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="160" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="149" priority="160" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35">
-    <cfRule type="containsText" dxfId="152" priority="157" operator="containsText" text="A iniciar">
+    <cfRule type="containsText" dxfId="148" priority="157" operator="containsText" text="A iniciar">
       <formula>NOT(ISERROR(SEARCH("A iniciar",K35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="containsText" dxfId="151" priority="154" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="147" priority="154" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="155" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="146" priority="155" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="156" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="145" priority="156" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="containsText" dxfId="148" priority="153" operator="containsText" text="A iniciar">
+    <cfRule type="containsText" dxfId="144" priority="153" operator="containsText" text="A iniciar">
       <formula>NOT(ISERROR(SEARCH("A iniciar",K34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33">
-    <cfRule type="containsText" dxfId="147" priority="150" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="143" priority="150" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="151" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="142" priority="151" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="152" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="141" priority="152" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33">
-    <cfRule type="containsText" dxfId="144" priority="149" operator="containsText" text="A iniciar">
+    <cfRule type="containsText" dxfId="140" priority="149" operator="containsText" text="A iniciar">
       <formula>NOT(ISERROR(SEARCH("A iniciar",K33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="containsText" dxfId="143" priority="146" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="139" priority="146" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="147" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="138" priority="147" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="148" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="137" priority="148" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="containsText" dxfId="140" priority="145" operator="containsText" text="A iniciar">
+    <cfRule type="containsText" dxfId="136" priority="145" operator="containsText" text="A iniciar">
       <formula>NOT(ISERROR(SEARCH("A iniciar",K32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31">
-    <cfRule type="containsText" dxfId="139" priority="142" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="135" priority="142" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="143" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="134" priority="143" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="144" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="133" priority="144" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31">
-    <cfRule type="containsText" dxfId="136" priority="141" operator="containsText" text="A iniciar">
+    <cfRule type="containsText" dxfId="132" priority="141" operator="containsText" text="A iniciar">
       <formula>NOT(ISERROR(SEARCH("A iniciar",K31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
-    <cfRule type="containsText" dxfId="135" priority="138" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="131" priority="138" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="139" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="130" priority="139" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="140" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="129" priority="140" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
-    <cfRule type="containsText" dxfId="132" priority="137" operator="containsText" text="A iniciar">
+    <cfRule type="containsText" dxfId="128" priority="137" operator="containsText" text="A iniciar">
       <formula>NOT(ISERROR(SEARCH("A iniciar",K30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29">
-    <cfRule type="containsText" dxfId="131" priority="134" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="127" priority="134" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="135" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="126" priority="135" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="136" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="125" priority="136" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29">
-    <cfRule type="containsText" dxfId="128" priority="133" operator="containsText" text="A iniciar">
+    <cfRule type="containsText" dxfId="124" priority="133" operator="containsText" text="A iniciar">
       <formula>NOT(ISERROR(SEARCH("A iniciar",K29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28">
-    <cfRule type="containsText" dxfId="127" priority="130" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="123" priority="130" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="131" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="122" priority="131" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="132" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="121" priority="132" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28">
-    <cfRule type="containsText" dxfId="124" priority="129" operator="containsText" text="A iniciar">
+    <cfRule type="containsText" dxfId="120" priority="129" operator="containsText" text="A iniciar">
       <formula>NOT(ISERROR(SEARCH("A iniciar",K28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27">
-    <cfRule type="containsText" dxfId="123" priority="126" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="119" priority="126" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="127" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="118" priority="127" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="128" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="117" priority="128" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27">
-    <cfRule type="containsText" dxfId="120" priority="125" operator="containsText" text="A iniciar">
+    <cfRule type="containsText" dxfId="116" priority="125" operator="containsText" text="A iniciar">
       <formula>NOT(ISERROR(SEARCH("A iniciar",K27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="containsText" dxfId="119" priority="122" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="115" priority="122" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="123" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="114" priority="123" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="124" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="113" priority="124" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="containsText" dxfId="116" priority="121" operator="containsText" text="A iniciar">
+    <cfRule type="containsText" dxfId="112" priority="121" operator="containsText" text="A iniciar">
       <formula>NOT(ISERROR(SEARCH("A iniciar",K26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="115" priority="118" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="111" priority="118" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="119" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="110" priority="119" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="120" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="109" priority="120" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="112" priority="117" operator="containsText" text="A iniciar">
+    <cfRule type="containsText" dxfId="108" priority="117" operator="containsText" text="A iniciar">
       <formula>NOT(ISERROR(SEARCH("A iniciar",K25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24">
-    <cfRule type="containsText" dxfId="111" priority="114" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="107" priority="114" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="115" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="106" priority="115" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="116" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="105" priority="116" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24">
-    <cfRule type="containsText" dxfId="108" priority="113" operator="containsText" text="A iniciar">
+    <cfRule type="containsText" dxfId="104" priority="113" operator="containsText" text="A iniciar">
       <formula>NOT(ISERROR(SEARCH("A iniciar",K24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="107" priority="110" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="103" priority="110" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="111" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="102" priority="111" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="112" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="101" priority="112" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="104" priority="109" operator="containsText" text="A iniciar">
+    <cfRule type="containsText" dxfId="100" priority="109" operator="containsText" text="A iniciar">
       <formula>NOT(ISERROR(SEARCH("A iniciar",K23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="103" priority="106" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="99" priority="106" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="107" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="98" priority="107" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="108" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="97" priority="108" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="100" priority="105" operator="containsText" text="A iniciar">
+    <cfRule type="containsText" dxfId="96" priority="105" operator="containsText" text="A iniciar">
       <formula>NOT(ISERROR(SEARCH("A iniciar",K22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="containsText" dxfId="99" priority="102" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="95" priority="102" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="103" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="94" priority="103" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="104" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="93" priority="104" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="containsText" dxfId="96" priority="101" operator="containsText" text="A iniciar">
+    <cfRule type="containsText" dxfId="92" priority="101" operator="containsText" text="A iniciar">
       <formula>NOT(ISERROR(SEARCH("A iniciar",K21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="containsText" dxfId="95" priority="98" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="91" priority="98" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="99" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="90" priority="99" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="100" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="89" priority="100" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="containsText" dxfId="92" priority="97" operator="containsText" text="A iniciar">
+    <cfRule type="containsText" dxfId="88" priority="97" operator="containsText" text="A iniciar">
       <formula>NOT(ISERROR(SEARCH("A iniciar",K20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="containsText" dxfId="91" priority="94" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="87" priority="94" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="95" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="86" priority="95" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="96" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="85" priority="96" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="containsText" dxfId="88" priority="93" operator="containsText" text="A iniciar">
+    <cfRule type="containsText" dxfId="84" priority="93" operator="containsText" text="A iniciar">
       <formula>NOT(ISERROR(SEARCH("A iniciar",K19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="containsText" dxfId="87" priority="90" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="83" priority="90" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="91" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="82" priority="91" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="92" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="81" priority="92" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="containsText" dxfId="84" priority="89" operator="containsText" text="A iniciar">
+    <cfRule type="containsText" dxfId="80" priority="89" operator="containsText" text="A iniciar">
       <formula>NOT(ISERROR(SEARCH("A iniciar",K18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="containsText" dxfId="83" priority="86" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="79" priority="86" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="87" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="78" priority="87" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="88" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="77" priority="88" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="containsText" dxfId="80" priority="85" operator="containsText" text="A iniciar">
+    <cfRule type="containsText" dxfId="76" priority="85" operator="containsText" text="A iniciar">
       <formula>NOT(ISERROR(SEARCH("A iniciar",K17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="containsText" dxfId="79" priority="82" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="75" priority="82" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="83" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="74" priority="83" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="84" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="73" priority="84" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="containsText" dxfId="76" priority="81" operator="containsText" text="A iniciar">
+    <cfRule type="containsText" dxfId="72" priority="81" operator="containsText" text="A iniciar">
       <formula>NOT(ISERROR(SEARCH("A iniciar",K16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="containsText" dxfId="75" priority="78" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="71" priority="78" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="79" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="70" priority="79" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="80" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="69" priority="80" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="containsText" dxfId="72" priority="77" operator="containsText" text="A iniciar">
+    <cfRule type="containsText" dxfId="68" priority="77" operator="containsText" text="A iniciar">
       <formula>NOT(ISERROR(SEARCH("A iniciar",K15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="containsText" dxfId="71" priority="74" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="67" priority="74" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="75" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="66" priority="75" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="76" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="65" priority="76" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="containsText" dxfId="68" priority="73" operator="containsText" text="A iniciar">
+    <cfRule type="containsText" dxfId="64" priority="73" operator="containsText" text="A iniciar">
       <formula>NOT(ISERROR(SEARCH("A iniciar",K14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="containsText" dxfId="67" priority="70" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="63" priority="70" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="71" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="62" priority="71" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="72" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="61" priority="72" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="containsText" dxfId="64" priority="69" operator="containsText" text="A iniciar">
+    <cfRule type="containsText" dxfId="60" priority="69" operator="containsText" text="A iniciar">
       <formula>NOT(ISERROR(SEARCH("A iniciar",K13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="containsText" dxfId="63" priority="66" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="59" priority="66" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="67" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="58" priority="67" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="68" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="57" priority="68" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="containsText" dxfId="60" priority="65" operator="containsText" text="A iniciar">
+    <cfRule type="containsText" dxfId="56" priority="65" operator="containsText" text="A iniciar">
       <formula>NOT(ISERROR(SEARCH("A iniciar",K12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="containsText" dxfId="59" priority="62" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="55" priority="62" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="63" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="54" priority="63" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="64" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="53" priority="64" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="containsText" dxfId="56" priority="61" operator="containsText" text="A iniciar">
+    <cfRule type="containsText" dxfId="52" priority="61" operator="containsText" text="A iniciar">
       <formula>NOT(ISERROR(SEARCH("A iniciar",K11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="containsText" dxfId="55" priority="58" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="51" priority="58" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="59" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="50" priority="59" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="60" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="49" priority="60" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="containsText" dxfId="52" priority="57" operator="containsText" text="A iniciar">
+    <cfRule type="containsText" dxfId="48" priority="57" operator="containsText" text="A iniciar">
       <formula>NOT(ISERROR(SEARCH("A iniciar",K10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="containsText" dxfId="51" priority="54" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="47" priority="54" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="55" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="46" priority="55" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="56" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="45" priority="56" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="containsText" dxfId="48" priority="53" operator="containsText" text="A iniciar">
+    <cfRule type="containsText" dxfId="44" priority="53" operator="containsText" text="A iniciar">
       <formula>NOT(ISERROR(SEARCH("A iniciar",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K56">
-    <cfRule type="containsText" dxfId="47" priority="50" operator="containsText" text="Em andamento">
-      <formula>NOT(ISERROR(SEARCH("Em andamento",K8)))</formula>
+  <conditionalFormatting sqref="K50">
+    <cfRule type="containsText" dxfId="43" priority="46" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="51" operator="containsText" text="Em atraso">
-      <formula>NOT(ISERROR(SEARCH("Em atraso",K8)))</formula>
+    <cfRule type="containsText" dxfId="42" priority="47" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="52" operator="containsText" text="Concluído">
-      <formula>NOT(ISERROR(SEARCH("Concluído",K8)))</formula>
+    <cfRule type="containsText" dxfId="41" priority="48" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K50)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K56">
-    <cfRule type="containsText" dxfId="44" priority="49" operator="containsText" text="A iniciar">
-      <formula>NOT(ISERROR(SEARCH("A iniciar",K8)))</formula>
+  <conditionalFormatting sqref="K50">
+    <cfRule type="containsText" dxfId="40" priority="45" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51">
+    <cfRule type="containsText" dxfId="39" priority="38" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="40" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51">
+    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46">
-    <cfRule type="containsText" dxfId="43" priority="46" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="47" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="48" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46">
-    <cfRule type="containsText" dxfId="40" priority="45" operator="containsText" text="A iniciar">
+    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="A iniciar">
       <formula>NOT(ISERROR(SEARCH("A iniciar",K46)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K48">
+    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48">
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49">
+    <cfRule type="containsText" dxfId="27" priority="26" operator="containsText" text="Em andamento">
+      <formula>NOT(ISERROR(SEARCH("Em andamento",K49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="Em atraso">
+      <formula>NOT(ISERROR(SEARCH("Em atraso",K49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="28" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",K49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49">
+    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="A iniciar">
+      <formula>NOT(ISERROR(SEARCH("A iniciar",K49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K47">
-    <cfRule type="containsText" dxfId="39" priority="38" operator="containsText" text="Em andamento">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Em andamento">
       <formula>NOT(ISERROR(SEARCH("Em andamento",K47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="Em atraso">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Em atraso">
       <formula>NOT(ISERROR(SEARCH("Em atraso",K47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="40" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",K47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K47">
-    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="A iniciar">
+    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="A iniciar">
       <formula>NOT(ISERROR(SEARCH("A iniciar",K47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K48">
-    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="Em andamento">
-      <formula>NOT(ISERROR(SEARCH("Em andamento",K48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="Em atraso">
-      <formula>NOT(ISERROR(SEARCH("Em atraso",K48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="Concluído">
-      <formula>NOT(ISERROR(SEARCH("Concluído",K48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K48">
-    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="A iniciar">
-      <formula>NOT(ISERROR(SEARCH("A iniciar",K48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K49">
-    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="Em andamento">
-      <formula>NOT(ISERROR(SEARCH("Em andamento",K49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="Em atraso">
-      <formula>NOT(ISERROR(SEARCH("Em atraso",K49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="Concluído">
-      <formula>NOT(ISERROR(SEARCH("Concluído",K49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K49">
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="A iniciar">
-      <formula>NOT(ISERROR(SEARCH("A iniciar",K49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K50">
-    <cfRule type="containsText" dxfId="27" priority="26" operator="containsText" text="Em andamento">
-      <formula>NOT(ISERROR(SEARCH("Em andamento",K50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="Em atraso">
-      <formula>NOT(ISERROR(SEARCH("Em atraso",K50)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="28" operator="containsText" text="Concluído">
-      <formula>NOT(ISERROR(SEARCH("Concluído",K50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K50">
-    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="A iniciar">
-      <formula>NOT(ISERROR(SEARCH("A iniciar",K50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K51">
-    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Em andamento">
-      <formula>NOT(ISERROR(SEARCH("Em andamento",K51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Em atraso">
-      <formula>NOT(ISERROR(SEARCH("Em atraso",K51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Concluído">
-      <formula>NOT(ISERROR(SEARCH("Concluído",K51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K51">
-    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="A iniciar">
-      <formula>NOT(ISERROR(SEARCH("A iniciar",K51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K52">
